--- a/key.xlsx
+++ b/key.xlsx
@@ -642,7 +642,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,12 +653,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -702,12 +696,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -716,22 +716,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1048,12 +1039,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
@@ -1063,7 +1054,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1083,7 +1074,7 @@
       <c r="B2" s="3">
         <v>1002</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -1103,7 +1094,7 @@
       <c r="B3" s="3">
         <v>1077</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3">
@@ -1123,7 +1114,7 @@
       <c r="B4" s="3">
         <v>1006</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
@@ -1143,7 +1134,7 @@
       <c r="B5" s="3">
         <v>1007</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3">
@@ -1163,7 +1154,7 @@
       <c r="B6" s="3">
         <v>1009</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -1183,7 +1174,7 @@
       <c r="B7" s="3">
         <v>1010</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3">
@@ -1203,7 +1194,7 @@
       <c r="B8" s="3">
         <v>1011</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3">
@@ -1212,7 +1203,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>43213</v>
       </c>
     </row>
@@ -1220,16 +1211,16 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1012</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="3">
@@ -1243,7 +1234,7 @@
       <c r="B10" s="3">
         <v>1013</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3">
@@ -1263,7 +1254,7 @@
       <c r="B11" s="3">
         <v>1014</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3">
@@ -1283,13 +1274,13 @@
       <c r="B12" s="3">
         <v>1015</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="3">
@@ -1303,27 +1294,27 @@
       <c r="B13" s="3">
         <v>1015</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3">
         <v>1016</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3">
@@ -1336,14 +1327,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3">
         <v>1017</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="3">
@@ -1356,14 +1347,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3">
         <v>1018</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="3">
@@ -1376,14 +1367,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>1019</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="3">
@@ -1396,14 +1387,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3">
         <v>1020</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3">
@@ -1416,14 +1407,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3">
         <v>1021</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3">
@@ -1436,14 +1427,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3">
         <v>1022</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="3">
@@ -1456,14 +1447,14 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3">
         <v>1023</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="3">
@@ -1476,14 +1467,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3">
         <v>1023</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="3">
@@ -1496,14 +1487,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3">
         <v>1024</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="3">
@@ -1516,14 +1507,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="3">
         <v>1025</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3">
@@ -1532,18 +1523,18 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3">
         <v>1081</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="3">
@@ -1552,18 +1543,18 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3">
         <v>1026</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="3">
@@ -1576,14 +1567,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3">
         <v>1027</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="3">
@@ -1596,14 +1587,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="3">
         <v>1028</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3">
@@ -1616,14 +1607,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3">
         <v>1028</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="3">
@@ -1636,14 +1627,14 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3">
         <v>1029</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="3">
@@ -1656,14 +1647,14 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3">
         <v>1030</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="3">
@@ -1676,14 +1667,14 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3">
         <v>1031</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="3">
@@ -1696,14 +1687,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3">
         <v>1031</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="3">
@@ -1716,14 +1707,14 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="3">
         <v>1032</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="3">
@@ -1736,14 +1727,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="3">
         <v>1032</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="3">
@@ -1756,14 +1747,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="3">
@@ -1776,14 +1767,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="3">
         <v>1032</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="3">
@@ -1796,14 +1787,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="3">
         <v>1032</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="3">
@@ -1816,14 +1807,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="3">
         <v>1033</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3">
@@ -1836,14 +1827,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="3">
         <v>1034</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="3">
@@ -1856,14 +1847,14 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="3">
         <v>1035</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="3">
@@ -1876,14 +1867,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="3">
         <v>1036</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="3">
@@ -1896,14 +1887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="3">
         <v>1037</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="3">
@@ -1923,7 +1914,7 @@
       <c r="B44" s="3">
         <v>1038</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="3">
@@ -1943,7 +1934,7 @@
       <c r="B45" s="3">
         <v>1039</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="3">
@@ -1963,7 +1954,7 @@
       <c r="B46" s="3">
         <v>1040</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="3">
@@ -1983,7 +1974,7 @@
       <c r="B47" s="3">
         <v>1042</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="3">
@@ -2003,7 +1994,7 @@
       <c r="B48" s="3">
         <v>1043</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="3">
@@ -2023,7 +2014,7 @@
       <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="3">
@@ -2043,7 +2034,7 @@
       <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="3">
@@ -2063,7 +2054,7 @@
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="3">
@@ -2083,7 +2074,7 @@
       <c r="B52" s="3">
         <v>1045</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="3">
@@ -2103,7 +2094,7 @@
       <c r="B53" s="3">
         <v>1045</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="3">
@@ -2123,7 +2114,7 @@
       <c r="B54" s="3">
         <v>1046</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="3">
@@ -2143,7 +2134,7 @@
       <c r="B55" s="3">
         <v>1047</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D55" s="3">
@@ -2163,7 +2154,7 @@
       <c r="B56" s="3">
         <v>1048</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="3">
@@ -2183,7 +2174,7 @@
       <c r="B57" s="3">
         <v>1049</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="3">
@@ -2203,7 +2194,7 @@
       <c r="B58" s="3">
         <v>1050</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="3">
@@ -2220,10 +2211,10 @@
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>1051</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="3">
@@ -2241,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="3">
@@ -2259,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="3">
@@ -2279,7 +2270,7 @@
       <c r="B62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="3">
@@ -2299,7 +2290,7 @@
       <c r="B63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D63" s="3">
@@ -2319,7 +2310,7 @@
       <c r="B64" s="3">
         <v>1053</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D64" s="3">
@@ -2339,7 +2330,7 @@
       <c r="B65" s="3">
         <v>1054</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D65" s="3">
@@ -2359,7 +2350,7 @@
       <c r="B66" s="3">
         <v>1055</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D66" s="3">
@@ -2379,7 +2370,7 @@
       <c r="B67" s="3">
         <v>1056</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="3">
@@ -2399,7 +2390,7 @@
       <c r="B68" s="3">
         <v>1057</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D68" s="3">
@@ -2419,7 +2410,7 @@
       <c r="B69" s="3">
         <v>1058</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="3">
@@ -2439,7 +2430,7 @@
       <c r="B70" s="3">
         <v>1059</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D70" s="3">
@@ -2459,7 +2450,7 @@
       <c r="B71" s="3">
         <v>1060</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D71" s="3">
@@ -2479,7 +2470,7 @@
       <c r="B72" s="3">
         <v>1061</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="3">
@@ -2499,7 +2490,7 @@
       <c r="B73" s="3">
         <v>1062</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D73" s="3">
@@ -2519,7 +2510,7 @@
       <c r="B74" s="3">
         <v>1063</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="3">
@@ -2539,7 +2530,7 @@
       <c r="B75" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D75" s="3">
@@ -2559,7 +2550,7 @@
       <c r="B76" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D76" s="3">
@@ -2579,7 +2570,7 @@
       <c r="B77" s="3">
         <v>1066</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D77" s="3">
@@ -2599,7 +2590,7 @@
       <c r="B78" s="3">
         <v>1067</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D78" s="3">
@@ -2619,7 +2610,7 @@
       <c r="B79" s="3">
         <v>1068</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D79" s="3">
@@ -2639,7 +2630,7 @@
       <c r="B80" s="3">
         <v>1070</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D80" s="3">
@@ -2659,7 +2650,7 @@
       <c r="B81" s="3">
         <v>1071</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="3">
@@ -2679,7 +2670,7 @@
       <c r="B82" s="3">
         <v>1072</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="3">
@@ -2699,7 +2690,7 @@
       <c r="B83" s="3">
         <v>1074</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D83" s="3">
@@ -2719,7 +2710,7 @@
       <c r="B84" s="3">
         <v>1078</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D84" s="3">
@@ -2739,7 +2730,7 @@
       <c r="B85" s="3">
         <v>1078</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D85" s="3">
@@ -2759,7 +2750,7 @@
       <c r="B86" s="3">
         <v>1078</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D86" s="3">
@@ -2779,7 +2770,7 @@
       <c r="B87" s="3">
         <v>1079</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D87" s="3">
@@ -2799,7 +2790,7 @@
       <c r="B88" s="3">
         <v>1080</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D88" s="3">
@@ -2819,7 +2810,7 @@
       <c r="B89" s="3">
         <v>1082</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D89" s="3">
@@ -2839,7 +2830,7 @@
       <c r="B90" s="3">
         <v>1083</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="3">
@@ -2859,7 +2850,7 @@
       <c r="B91" s="3">
         <v>1085</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D91" s="3">
@@ -2879,7 +2870,7 @@
       <c r="B92" s="3">
         <v>1086</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D92" s="3">
@@ -2899,7 +2890,7 @@
       <c r="B93" s="3">
         <v>1088</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D93" s="3">
@@ -2919,7 +2910,7 @@
       <c r="B94" s="3">
         <v>1092</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D94" s="3">
@@ -2939,13 +2930,13 @@
       <c r="B95" s="3">
         <v>1093</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="8">
-        <v>1</v>
-      </c>
-      <c r="E95" s="8">
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7">
         <v>0</v>
       </c>
       <c r="F95" s="3">
@@ -2959,13 +2950,13 @@
       <c r="B96" s="3">
         <v>1093</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="8">
-        <v>0</v>
-      </c>
-      <c r="E96" s="8">
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -2979,7 +2970,7 @@
       <c r="B97" s="3">
         <v>1094</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D97" s="3">
@@ -2999,7 +2990,7 @@
       <c r="B98" s="3">
         <v>1097</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D98" s="3">
@@ -3019,7 +3010,7 @@
       <c r="B99" s="3">
         <v>1098</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D99" s="3">
@@ -3039,7 +3030,7 @@
       <c r="B100" s="3">
         <v>1099</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D100" s="3">
@@ -3059,7 +3050,7 @@
       <c r="B101" s="3">
         <v>1101</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D101" s="3">
@@ -3077,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="3"/>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D102" s="3">
@@ -3095,13 +3086,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D103" s="3">
         <v>0</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>1</v>
       </c>
       <c r="F103" s="3">
@@ -3115,7 +3106,7 @@
       <c r="B104" s="3">
         <v>2071</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D104" s="3">
@@ -3135,7 +3126,7 @@
       <c r="B105" s="3">
         <v>2073</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D105" s="3">
@@ -3153,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D106" s="3">
@@ -3173,7 +3164,7 @@
       <c r="B107" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D107" s="3">
@@ -3193,7 +3184,7 @@
       <c r="B108" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D108" s="3">
@@ -3213,7 +3204,7 @@
       <c r="B109" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D109" s="3">
@@ -3233,7 +3224,7 @@
       <c r="B110" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D110" s="3">
@@ -3253,7 +3244,7 @@
       <c r="B111" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D111" s="3">
@@ -3273,7 +3264,7 @@
       <c r="B112" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D112" s="3">
@@ -3293,7 +3284,7 @@
       <c r="B113" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D113" s="3">
@@ -3313,7 +3304,7 @@
       <c r="B114" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D114" s="3">
@@ -3333,7 +3324,7 @@
       <c r="B115" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D115" s="3">
@@ -3353,7 +3344,7 @@
       <c r="B116" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D116" s="3">
@@ -3373,7 +3364,7 @@
       <c r="B117" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D117" s="3">
@@ -3393,7 +3384,7 @@
       <c r="B118" s="3">
         <v>1041</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D118" s="3">
@@ -3411,7 +3402,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D119" s="3">
@@ -3431,7 +3422,7 @@
       <c r="B120" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D120" s="3">
@@ -3451,7 +3442,7 @@
       <c r="B121" s="3">
         <v>2070</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D121" s="3">
@@ -3471,7 +3462,7 @@
       <c r="B122" s="3">
         <v>2083</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D122" s="3">
@@ -3491,7 +3482,7 @@
       <c r="B123" s="3">
         <v>2087</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D123" s="3">
@@ -3511,7 +3502,7 @@
       <c r="B124" s="3">
         <v>2088</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D124" s="3">
@@ -3529,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="3"/>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D125" s="3">
@@ -3547,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="3"/>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D126" s="3">
@@ -3565,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="3"/>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D127" s="3">
@@ -3583,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D128" s="3">
@@ -3601,7 +3592,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="3"/>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D129" s="3">
@@ -3619,7 +3610,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="3"/>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D130" s="3">
@@ -3637,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D131" s="3">
@@ -3657,7 +3648,7 @@
       <c r="B132" s="3">
         <v>1095</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D132" s="3">
@@ -3675,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D133" s="3">
@@ -3695,7 +3686,7 @@
       <c r="B134" s="3">
         <v>2074</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D134" s="3">
@@ -3715,7 +3706,7 @@
       <c r="B135" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D135" s="3">
@@ -3733,7 +3724,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D136" s="3">
@@ -3751,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D137" s="3">
@@ -3771,7 +3762,7 @@
       <c r="B138" s="3">
         <v>1096</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D138" s="3">
@@ -3791,7 +3782,7 @@
       <c r="B139" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D139" s="3">
@@ -3809,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D140" s="3">
@@ -3829,7 +3820,7 @@
       <c r="B141" s="3">
         <v>2080</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D141" s="3">
@@ -3849,7 +3840,7 @@
       <c r="B142" s="3">
         <v>1069</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D142" s="3">
@@ -3867,7 +3858,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D143" s="3">
@@ -3887,7 +3878,7 @@
       <c r="B144" s="3">
         <v>2092</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D144" s="3">
@@ -3905,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="3"/>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D145" s="3">
@@ -3925,7 +3916,7 @@
       <c r="B146" s="3">
         <v>1009</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D146" s="3">
@@ -3943,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="3"/>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D147" s="3">
@@ -3961,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="3"/>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D148" s="3">
@@ -3979,7 +3970,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="3"/>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D149" s="3">
@@ -3999,7 +3990,7 @@
       <c r="B150" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D150" s="3">
@@ -4019,7 +4010,7 @@
       <c r="B151" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D151" s="3">
@@ -4039,7 +4030,7 @@
       <c r="B152" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D152" s="3">
@@ -4059,7 +4050,7 @@
       <c r="B153" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D153" s="3">
@@ -4079,7 +4070,7 @@
       <c r="B154" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D154" s="3">
@@ -4099,7 +4090,7 @@
       <c r="B155" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D155" s="3">
@@ -4119,7 +4110,7 @@
       <c r="B156" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D156" s="3">
@@ -4139,7 +4130,7 @@
       <c r="B157" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D157" s="3">
@@ -4159,7 +4150,7 @@
       <c r="B158" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D158" s="3">
@@ -4179,7 +4170,7 @@
       <c r="B159" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D159" s="3">
@@ -4199,7 +4190,7 @@
       <c r="B160" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D160" s="3">
@@ -4219,7 +4210,7 @@
       <c r="B161" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D161" s="3">
@@ -4239,7 +4230,7 @@
       <c r="B162" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D162" s="3">
@@ -4259,7 +4250,7 @@
       <c r="B163" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D163" s="3">
@@ -4279,7 +4270,7 @@
       <c r="B164" s="3">
         <v>2063</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D164" s="3">

--- a/key.xlsx
+++ b/key.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7F93-47AB-4955-AB97-9BBDFAA981F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1530" yWindow="825" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="210">
   <si>
     <t>Корпус</t>
   </si>
@@ -635,13 +641,21 @@
   </si>
   <si>
     <t>ОК горячий цех</t>
+  </si>
+  <si>
+    <t>ываыва</t>
+  </si>
+  <si>
+    <t>ывавыа</t>
+  </si>
+  <si>
+    <t>выавыа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,13 +672,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFc00000"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -696,50 +710,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -750,10 +770,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -791,71 +811,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +903,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -906,11 +926,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -919,13 +939,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -935,7 +955,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -944,7 +964,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -953,7 +973,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -961,10 +981,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1029,25 +1049,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54" customFormat="1" s="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1547,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2109,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2207,11 +2229,11 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="11">
         <v>1051</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2227,11 +2249,11 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
@@ -2245,11 +2267,11 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
@@ -2263,7 +2285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2345,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2483,7 +2505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2843,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2923,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3119,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3139,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="108" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="117" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -3397,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="122" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -3475,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3517,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="124" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -3515,7 +3537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="125" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="126" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="127" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +3591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="128" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="129" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -3605,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="130" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -3623,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="131" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3641,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="132" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3661,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="133" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -3679,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="134" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -3699,7 +3721,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="135" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -3719,7 +3741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="136" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="137" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3755,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="138" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -3775,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="139" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -3795,7 +3817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="140" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3835,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="141" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3855,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="142" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3875,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="143" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="144" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -3891,7 +3913,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="145" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="146" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="147" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="148" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="149" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="150" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -4003,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="151" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="152" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -4043,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="153" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="154" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -4083,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="155" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="156" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="157" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="158" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="159" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="160" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -4203,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="161" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="162" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -4243,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="163" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="164" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>
@@ -4281,6 +4303,26 @@
       </c>
       <c r="F164" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7F93-47AB-4955-AB97-9BBDFAA981F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="825" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>Корпус</t>
   </si>
@@ -641,21 +635,13 @@
   </si>
   <si>
     <t>ОК горячий цех</t>
-  </si>
-  <si>
-    <t>ываыва</t>
-  </si>
-  <si>
-    <t>ывавыа</t>
-  </si>
-  <si>
-    <t>выавыа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,13 +658,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFc00000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -710,56 +696,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -770,10 +750,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -811,71 +791,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -903,7 +883,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -926,11 +906,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -939,13 +919,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -955,7 +935,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -964,7 +944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -973,7 +953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -981,10 +961,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1049,27 +1029,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1207,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +1707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1769,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1889,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2129,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2169,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2229,11 +2207,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>1051</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2249,11 +2227,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
@@ -2267,11 +2245,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
@@ -2285,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -2305,7 +2283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2345,7 +2323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2365,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2425,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2485,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2625,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2665,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2663,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2705,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2745,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2825,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2865,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2905,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3005,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3199,7 +3177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3279,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3299,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3339,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3379,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -3419,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -3437,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3457,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -3477,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -3497,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -3517,7 +3495,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -3537,7 +3515,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3573,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -3609,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -3627,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -3645,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3683,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -3721,7 +3699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -3741,7 +3719,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -3759,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -3817,7 +3795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3835,7 +3813,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -3855,7 +3833,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -3875,7 +3853,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -3893,7 +3871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -3931,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -3951,7 +3929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -3987,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -4005,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -4025,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -4045,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -4105,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -4125,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -4145,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -4165,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -4185,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -4245,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -4265,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -4285,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>
@@ -4303,26 +4281,6 @@
       </c>
       <c r="F164" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D502358-3394-4933-BCC1-BFCA8CA0809F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1530" yWindow="825" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
   <si>
     <t>Корпус</t>
   </si>
@@ -635,13 +641,15 @@
   </si>
   <si>
     <t>ОК горячий цех</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,13 +666,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFc00000"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -696,50 +704,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -750,10 +764,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -791,71 +805,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +897,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -906,11 +920,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -919,13 +933,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -935,7 +949,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -944,7 +958,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -953,7 +967,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -961,10 +975,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1029,25 +1043,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1082,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1108,14 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54" customFormat="1" s="1">
+      <c r="G2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1106,8 +1134,14 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="G3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1126,8 +1160,14 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30" customFormat="1" s="1">
+      <c r="G4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1247,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1547,7 +1587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="42" customFormat="1" s="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2207,11 +2247,11 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="11">
         <v>1051</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2227,11 +2267,11 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
@@ -2245,11 +2285,11 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
@@ -2263,7 +2303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +2323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2483,7 +2523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2843,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2923,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3119,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3139,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3217,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="108" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="117" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -3397,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="122" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -3475,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3535,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="124" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -3515,7 +3555,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="125" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="126" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="127" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +3609,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="128" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="129" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -3605,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="130" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -3623,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="131" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3641,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="132" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3661,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="133" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -3679,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="134" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -3699,7 +3739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="135" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -3719,7 +3759,7 @@
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="136" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="137" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3755,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="138" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -3775,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="139" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -3795,7 +3835,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="140" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3813,7 +3853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="141" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="142" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="143" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="144" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -3891,7 +3931,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="145" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="146" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3969,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="147" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="148" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="149" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="150" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -4003,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="151" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="152" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -4043,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="153" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="154" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -4083,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5" customFormat="1" s="1">
+    <row r="155" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="156" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="157" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="158" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="159" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="160" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -4203,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="161" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="162" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -4243,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="163" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="164" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>

--- a/key.xlsx
+++ b/key.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D502358-3394-4933-BCC1-BFCA8CA0809F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="825" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>Корпус</t>
   </si>
@@ -641,15 +635,13 @@
   </si>
   <si>
     <t>ОК горячий цех</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,13 +658,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFc00000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -704,56 +696,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,10 +750,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -805,71 +791,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,7 +883,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -920,11 +906,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -933,13 +919,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -949,7 +935,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -958,7 +944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -967,7 +953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -975,10 +961,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1043,27 +1029,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,14 +1066,8 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1108,14 +1086,8 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1134,14 +1106,8 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1160,14 +1126,8 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1207,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1547,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1607,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="42" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2247,11 +2207,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>1051</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2267,11 +2227,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
@@ -2285,11 +2245,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
@@ -2303,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2483,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -2543,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -2623,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2663,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2823,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2843,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -2883,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -2923,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2943,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3083,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3103,7 +3063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3139,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3159,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3277,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3337,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3397,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3417,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -3437,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3475,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -3515,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -3535,7 +3495,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +3515,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -3573,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -3609,7 +3569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -3627,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -3645,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -3719,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -3739,7 +3699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -3759,7 +3719,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3795,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -3815,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -3835,7 +3795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3813,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -3873,7 +3833,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -3893,7 +3853,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -3911,7 +3871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -3931,7 +3891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -3949,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +3929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -3987,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -4005,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -4043,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -4083,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5" customFormat="1" s="1">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -4143,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -4203,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -4243,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -4283,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -4303,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>

--- a/key.xlsx
+++ b/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC604EE-5C06-4E3B-AD2C-6742BB036731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA165B2-A2E7-4026-82F8-424997F75E0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="209">
   <si>
     <t>Корпус</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>5 внутри     1 уличная (5 ключей склада 1н кухни)</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -743,19 +746,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -763,6 +757,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,29 +1075,29 @@
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="10" customWidth="1"/>
     <col min="4" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>182</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1103,10 +1106,10 @@
       <c r="E1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1120,14 +1123,17 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
+      <c r="D2" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
-        <v>0</v>
+      <c r="F2" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1143,11 +1149,14 @@
       <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
+      <c r="E3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,14 +1169,17 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
+      <c r="D4" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
+      <c r="F4" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,8 +1198,11 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
+      <c r="F5" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,8 +1221,11 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
+      <c r="F6" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,8 +1244,11 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
+      <c r="F7" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,8 +1267,11 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>43213</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1257,17 +1281,20 @@
       <c r="B9" s="6">
         <v>1012</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
+      <c r="D9" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
+      <c r="F9" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,14 +1307,17 @@
       <c r="C10" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
+      <c r="D10" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="10">
-        <v>0</v>
+      <c r="F10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,14 +1330,17 @@
       <c r="C11" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
+      <c r="D11" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="10">
-        <v>0</v>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1326,8 +1359,11 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
-        <v>0</v>
+      <c r="F12" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1340,14 +1376,17 @@
       <c r="C13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
+      <c r="D13" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
+      <c r="F13" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,14 +1399,17 @@
       <c r="C14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
+      <c r="D14" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
+      <c r="F14" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,14 +1422,17 @@
       <c r="C15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
+      <c r="D15" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
+      <c r="F15" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,11 +1451,14 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
@@ -1426,11 +1474,14 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -1446,11 +1497,14 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -1466,11 +1520,14 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -1486,11 +1543,14 @@
       <c r="E20" s="5">
         <v>3</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -1506,11 +1566,14 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1523,14 +1586,17 @@
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>2</v>
       </c>
@@ -1540,17 +1606,20 @@
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
+      <c r="D23" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
@@ -1566,11 +1635,14 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
@@ -1586,11 +1658,14 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
@@ -1600,17 +1675,20 @@
       <c r="C26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1620,17 +1698,20 @@
       <c r="C27" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1643,14 +1724,17 @@
       <c r="D28" s="5">
         <v>4</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
@@ -1663,14 +1747,17 @@
       <c r="D29" s="5">
         <v>4</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
@@ -1686,11 +1773,14 @@
       <c r="E30" s="5">
         <v>2</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
@@ -1706,11 +1796,14 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
@@ -1726,11 +1819,14 @@
       <c r="E32" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
@@ -1746,11 +1842,14 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1766,11 +1865,14 @@
       <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
@@ -1786,11 +1888,14 @@
       <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
@@ -1806,11 +1911,14 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
@@ -1826,11 +1934,14 @@
       <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
@@ -1846,11 +1957,14 @@
       <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>2</v>
       </c>
@@ -1866,11 +1980,14 @@
       <c r="E39" s="5">
         <v>1</v>
       </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1886,11 +2003,14 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>2</v>
       </c>
@@ -1906,11 +2026,14 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>2</v>
       </c>
@@ -1920,17 +2043,20 @@
       <c r="C42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
@@ -1940,17 +2066,20 @@
       <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>2</v>
       </c>
@@ -1966,11 +2095,14 @@
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
@@ -1986,11 +2118,14 @@
       <c r="E45" s="5">
         <v>1</v>
       </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>2</v>
       </c>
@@ -2000,17 +2135,20 @@
       <c r="C46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="5">
-        <v>0</v>
+      <c r="D46" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>2</v>
       </c>
@@ -2026,11 +2164,14 @@
       <c r="E47" s="5">
         <v>1</v>
       </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
@@ -2046,11 +2187,14 @@
       <c r="E48" s="5">
         <v>2</v>
       </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>2</v>
       </c>
@@ -2066,11 +2210,14 @@
       <c r="E49" s="5">
         <v>1</v>
       </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -2086,11 +2233,14 @@
       <c r="E50" s="5">
         <v>1</v>
       </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>2</v>
       </c>
@@ -2106,11 +2256,14 @@
       <c r="E51" s="5">
         <v>1</v>
       </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>2</v>
       </c>
@@ -2120,17 +2273,20 @@
       <c r="C52" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="5">
-        <v>0</v>
+      <c r="D52" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G52" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>2</v>
       </c>
@@ -2146,11 +2302,14 @@
       <c r="E53" s="5">
         <v>1</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>2</v>
       </c>
@@ -2160,17 +2319,20 @@
       <c r="C54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="5">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
@@ -2180,17 +2342,20 @@
       <c r="C55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="5">
-        <v>0</v>
+      <c r="D55" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>2</v>
       </c>
@@ -2206,11 +2371,14 @@
       <c r="E56" s="5">
         <v>1</v>
       </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>2</v>
       </c>
@@ -2220,17 +2388,20 @@
       <c r="C57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>2</v>
       </c>
@@ -2246,11 +2417,14 @@
       <c r="E58" s="5">
         <v>1</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>2</v>
       </c>
@@ -2266,11 +2440,14 @@
       <c r="E59" s="5">
         <v>1</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>2</v>
       </c>
@@ -2284,11 +2461,14 @@
       <c r="E60" s="5">
         <v>1</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>2</v>
       </c>
@@ -2302,11 +2482,14 @@
       <c r="E61" s="5">
         <v>1</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G61" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>2</v>
       </c>
@@ -2322,11 +2505,14 @@
       <c r="E62" s="5">
         <v>1</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G62" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>2</v>
       </c>
@@ -2339,14 +2525,17 @@
       <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>2</v>
       </c>
@@ -2362,11 +2551,14 @@
       <c r="E64" s="5">
         <v>1</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>2</v>
       </c>
@@ -2382,11 +2574,14 @@
       <c r="E65" s="5">
         <v>1</v>
       </c>
-      <c r="F65" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>2</v>
       </c>
@@ -2402,11 +2597,14 @@
       <c r="E66" s="5">
         <v>1</v>
       </c>
-      <c r="F66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>2</v>
       </c>
@@ -2422,11 +2620,14 @@
       <c r="E67" s="5">
         <v>1</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>2</v>
       </c>
@@ -2442,11 +2643,14 @@
       <c r="E68" s="5">
         <v>1</v>
       </c>
-      <c r="F68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
@@ -2462,11 +2666,14 @@
       <c r="E69" s="5">
         <v>1</v>
       </c>
-      <c r="F69" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>2</v>
       </c>
@@ -2482,11 +2689,14 @@
       <c r="E70" s="5">
         <v>1</v>
       </c>
-      <c r="F70" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>2</v>
       </c>
@@ -2502,11 +2712,14 @@
       <c r="E71" s="5">
         <v>1</v>
       </c>
-      <c r="F71" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F71" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2516,17 +2729,20 @@
       <c r="C72" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="5">
-        <v>0</v>
+      <c r="D72" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E72" s="5">
         <v>6</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>2</v>
       </c>
@@ -2542,11 +2758,14 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>2</v>
       </c>
@@ -2562,11 +2781,14 @@
       <c r="E74" s="5">
         <v>1</v>
       </c>
-      <c r="F74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>2</v>
       </c>
@@ -2582,11 +2804,14 @@
       <c r="E75" s="5">
         <v>4</v>
       </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>2</v>
       </c>
@@ -2602,11 +2827,14 @@
       <c r="E76" s="5">
         <v>4</v>
       </c>
-      <c r="F76" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F76" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>2</v>
       </c>
@@ -2616,17 +2844,20 @@
       <c r="C77" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="5">
-        <v>0</v>
+      <c r="D77" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
       </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>2</v>
       </c>
@@ -2642,11 +2873,14 @@
       <c r="E78" s="5">
         <v>1</v>
       </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>2</v>
       </c>
@@ -2656,17 +2890,20 @@
       <c r="C79" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="5">
-        <v>0</v>
+      <c r="D79" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
-      <c r="F79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>2</v>
       </c>
@@ -2679,14 +2916,17 @@
       <c r="D80" s="5">
         <v>5</v>
       </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
-      <c r="F80" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>2</v>
       </c>
@@ -2696,17 +2936,20 @@
       <c r="C81" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="5">
-        <v>0</v>
+      <c r="D81" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>2</v>
       </c>
@@ -2722,11 +2965,14 @@
       <c r="E82" s="5">
         <v>1</v>
       </c>
-      <c r="F82" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>2</v>
       </c>
@@ -2742,11 +2988,14 @@
       <c r="E83" s="5">
         <v>1</v>
       </c>
-      <c r="F83" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>2</v>
       </c>
@@ -2762,11 +3011,14 @@
       <c r="E84" s="5">
         <v>1</v>
       </c>
-      <c r="F84" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>2</v>
       </c>
@@ -2782,11 +3034,14 @@
       <c r="E85" s="5">
         <v>1</v>
       </c>
-      <c r="F85" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>2</v>
       </c>
@@ -2802,11 +3057,14 @@
       <c r="E86" s="5">
         <v>1</v>
       </c>
-      <c r="F86" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>2</v>
       </c>
@@ -2816,17 +3074,20 @@
       <c r="C87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="5">
-        <v>0</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>2</v>
       </c>
@@ -2842,11 +3103,14 @@
       <c r="E88" s="5">
         <v>2</v>
       </c>
-      <c r="F88" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
@@ -2856,17 +3120,20 @@
       <c r="C89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="5">
-        <v>0</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>2</v>
       </c>
@@ -2879,14 +3146,17 @@
       <c r="D90" s="5">
         <v>2</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-      <c r="F90" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>2</v>
       </c>
@@ -2896,17 +3166,20 @@
       <c r="C91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="5">
-        <v>0</v>
+      <c r="D91" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
       </c>
-      <c r="F91" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F91" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>2</v>
       </c>
@@ -2916,17 +3189,20 @@
       <c r="C92" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="5">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2936,17 +3212,20 @@
       <c r="C93" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="5">
-        <v>0</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>2</v>
       </c>
@@ -2956,17 +3235,20 @@
       <c r="C94" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="5">
-        <v>0</v>
-      </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>2</v>
       </c>
@@ -2979,14 +3261,17 @@
       <c r="D95" s="8">
         <v>1</v>
       </c>
-      <c r="E95" s="8">
-        <v>0</v>
-      </c>
-      <c r="F95" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>2</v>
       </c>
@@ -2996,17 +3281,20 @@
       <c r="C96" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="8">
-        <v>0</v>
+      <c r="D96" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="E96" s="8">
         <v>1</v>
       </c>
-      <c r="F96" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>2</v>
       </c>
@@ -3022,11 +3310,14 @@
       <c r="E97" s="5">
         <v>1</v>
       </c>
-      <c r="F97" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F97" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>2</v>
       </c>
@@ -3036,17 +3327,20 @@
       <c r="C98" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="5">
-        <v>0</v>
+      <c r="D98" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
       </c>
-      <c r="F98" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>2</v>
       </c>
@@ -3062,11 +3356,14 @@
       <c r="E99" s="5">
         <v>1</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>2</v>
       </c>
@@ -3082,11 +3379,14 @@
       <c r="E100" s="5">
         <v>1</v>
       </c>
-      <c r="F100" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>2</v>
       </c>
@@ -3102,11 +3402,14 @@
       <c r="E101" s="5">
         <v>1</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>2</v>
       </c>
@@ -3120,11 +3423,14 @@
       <c r="E102" s="5">
         <v>1</v>
       </c>
-      <c r="F102" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>2</v>
       </c>
@@ -3132,17 +3438,20 @@
       <c r="C103" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D103" s="5">
-        <v>0</v>
+      <c r="D103" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E103" s="8">
         <v>1</v>
       </c>
-      <c r="F103" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>2</v>
       </c>
@@ -3152,17 +3461,20 @@
       <c r="C104" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="5">
-        <v>0</v>
+      <c r="D104" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
       </c>
-      <c r="F104" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>2</v>
       </c>
@@ -3178,11 +3490,14 @@
       <c r="E105" s="5">
         <v>1</v>
       </c>
-      <c r="F105" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F105" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -3193,14 +3508,17 @@
       <c r="D106" s="5">
         <v>4</v>
       </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E106" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
@@ -3216,11 +3534,14 @@
       <c r="E107" s="5">
         <v>1</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G107" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>2</v>
       </c>
@@ -3236,11 +3557,14 @@
       <c r="E108" s="5">
         <v>1</v>
       </c>
-      <c r="F108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>2</v>
       </c>
@@ -3256,11 +3580,14 @@
       <c r="E109" s="5">
         <v>1</v>
       </c>
-      <c r="F109" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>2</v>
       </c>
@@ -3276,11 +3603,14 @@
       <c r="E110" s="5">
         <v>1</v>
       </c>
-      <c r="F110" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F110" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -3296,11 +3626,14 @@
       <c r="E111" s="5">
         <v>1</v>
       </c>
-      <c r="F111" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>2</v>
       </c>
@@ -3316,11 +3649,14 @@
       <c r="E112" s="5">
         <v>1</v>
       </c>
-      <c r="F112" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>2</v>
       </c>
@@ -3336,11 +3672,14 @@
       <c r="E113" s="5">
         <v>1</v>
       </c>
-      <c r="F113" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F113" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>2</v>
       </c>
@@ -3356,11 +3695,14 @@
       <c r="E114" s="5">
         <v>1</v>
       </c>
-      <c r="F114" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>2</v>
       </c>
@@ -3376,11 +3718,14 @@
       <c r="E115" s="5">
         <v>1</v>
       </c>
-      <c r="F115" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>2</v>
       </c>
@@ -3393,14 +3738,17 @@
       <c r="D116" s="5">
         <v>5</v>
       </c>
-      <c r="E116" s="5">
-        <v>0</v>
-      </c>
-      <c r="F116" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E116" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>2</v>
       </c>
@@ -3413,14 +3761,17 @@
       <c r="D117" s="5">
         <v>5</v>
       </c>
-      <c r="E117" s="5">
-        <v>0</v>
-      </c>
-      <c r="F117" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>2</v>
       </c>
@@ -3436,11 +3787,14 @@
       <c r="E118" s="5">
         <v>1</v>
       </c>
-      <c r="F118" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>2</v>
       </c>
@@ -3451,14 +3805,17 @@
       <c r="D119" s="5">
         <v>5</v>
       </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E119" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>2</v>
       </c>
@@ -3474,11 +3831,14 @@
       <c r="E120" s="5">
         <v>1</v>
       </c>
-      <c r="F120" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>2</v>
       </c>
@@ -3494,11 +3854,14 @@
       <c r="E121" s="5">
         <v>1</v>
       </c>
-      <c r="F121" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>2</v>
       </c>
@@ -3514,11 +3877,14 @@
       <c r="E122" s="5">
         <v>1</v>
       </c>
-      <c r="F122" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
@@ -3534,11 +3900,14 @@
       <c r="E123" s="5">
         <v>1</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>2</v>
       </c>
@@ -3554,11 +3923,14 @@
       <c r="E124" s="5">
         <v>1</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>2</v>
       </c>
@@ -3572,11 +3944,14 @@
       <c r="E125" s="5">
         <v>1</v>
       </c>
-      <c r="F125" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F125" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>2</v>
       </c>
@@ -3590,11 +3965,14 @@
       <c r="E126" s="5">
         <v>1</v>
       </c>
-      <c r="F126" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>2</v>
       </c>
@@ -3608,11 +3986,14 @@
       <c r="E127" s="5">
         <v>1</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>2</v>
       </c>
@@ -3623,14 +4004,17 @@
       <c r="D128" s="5">
         <v>5</v>
       </c>
-      <c r="E128" s="5">
-        <v>0</v>
-      </c>
-      <c r="F128" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -3641,14 +4025,17 @@
       <c r="D129" s="5">
         <v>3</v>
       </c>
-      <c r="E129" s="5">
-        <v>0</v>
-      </c>
-      <c r="F129" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E129" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>2</v>
       </c>
@@ -3659,14 +4046,17 @@
       <c r="D130" s="5">
         <v>4</v>
       </c>
-      <c r="E130" s="5">
-        <v>0</v>
-      </c>
-      <c r="F130" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>2</v>
       </c>
@@ -3680,11 +4070,14 @@
       <c r="E131" s="5">
         <v>1</v>
       </c>
-      <c r="F131" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>2</v>
       </c>
@@ -3694,17 +4087,20 @@
       <c r="C132" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="5">
-        <v>0</v>
+      <c r="D132" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
       </c>
-      <c r="F132" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F132" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>2</v>
       </c>
@@ -3718,11 +4114,14 @@
       <c r="E133" s="5">
         <v>1</v>
       </c>
-      <c r="F133" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>2</v>
       </c>
@@ -3738,11 +4137,14 @@
       <c r="E134" s="5">
         <v>1</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G134" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>2</v>
       </c>
@@ -3758,11 +4160,14 @@
       <c r="E135" s="5">
         <v>1</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G135" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>2</v>
       </c>
@@ -3773,14 +4178,17 @@
       <c r="D136" s="5">
         <v>5</v>
       </c>
-      <c r="E136" s="5">
-        <v>0</v>
-      </c>
-      <c r="F136" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E136" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>2</v>
       </c>
@@ -3794,11 +4202,14 @@
       <c r="E137" s="5">
         <v>1</v>
       </c>
-      <c r="F137" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>2</v>
       </c>
@@ -3814,11 +4225,14 @@
       <c r="E138" s="5">
         <v>1</v>
       </c>
-      <c r="F138" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F138" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>2</v>
       </c>
@@ -3831,14 +4245,17 @@
       <c r="D139" s="5">
         <v>5</v>
       </c>
-      <c r="E139" s="5">
-        <v>0</v>
-      </c>
-      <c r="F139" s="10" t="s">
+      <c r="E139" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F139" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G139" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>2</v>
       </c>
@@ -3852,11 +4269,14 @@
       <c r="E140" s="5">
         <v>1</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="15" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>2</v>
       </c>
@@ -3872,11 +4292,14 @@
       <c r="E141" s="5">
         <v>1</v>
       </c>
-      <c r="F141" s="10" t="s">
+      <c r="F141" s="15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>2</v>
       </c>
@@ -3892,11 +4315,14 @@
       <c r="E142" s="5">
         <v>1</v>
       </c>
-      <c r="F142" s="10" t="s">
+      <c r="F142" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
@@ -3910,11 +4336,14 @@
       <c r="E143" s="5">
         <v>1</v>
       </c>
-      <c r="F143" s="10" t="s">
+      <c r="F143" s="15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>2</v>
       </c>
@@ -3930,11 +4359,14 @@
       <c r="E144" s="5">
         <v>1</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G144" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>2</v>
       </c>
@@ -3945,14 +4377,17 @@
       <c r="D145" s="5">
         <v>4</v>
       </c>
-      <c r="E145" s="5">
-        <v>0</v>
-      </c>
-      <c r="F145" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>2</v>
       </c>
@@ -3968,11 +4403,14 @@
       <c r="E146" s="5">
         <v>1</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="F146" s="15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3983,14 +4421,17 @@
       <c r="D147" s="5">
         <v>5</v>
       </c>
-      <c r="E147" s="5">
-        <v>0</v>
-      </c>
-      <c r="F147" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E147" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>2</v>
       </c>
@@ -4004,11 +4445,14 @@
       <c r="E148" s="5">
         <v>1</v>
       </c>
-      <c r="F148" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>2</v>
       </c>
@@ -4022,11 +4466,14 @@
       <c r="E149" s="5">
         <v>1</v>
       </c>
-      <c r="F149" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>2</v>
       </c>
@@ -4042,11 +4489,14 @@
       <c r="E150" s="5">
         <v>1</v>
       </c>
-      <c r="F150" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>2</v>
       </c>
@@ -4062,11 +4512,14 @@
       <c r="E151" s="5">
         <v>1</v>
       </c>
-      <c r="F151" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>2</v>
       </c>
@@ -4082,11 +4535,14 @@
       <c r="E152" s="5">
         <v>1</v>
       </c>
-      <c r="F152" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>2</v>
       </c>
@@ -4102,11 +4558,14 @@
       <c r="E153" s="5">
         <v>1</v>
       </c>
-      <c r="F153" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>2</v>
       </c>
@@ -4122,11 +4581,14 @@
       <c r="E154" s="5">
         <v>1</v>
       </c>
-      <c r="F154" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>2</v>
       </c>
@@ -4142,11 +4604,14 @@
       <c r="E155" s="5">
         <v>1</v>
       </c>
-      <c r="F155" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>2</v>
       </c>
@@ -4162,11 +4627,14 @@
       <c r="E156" s="5">
         <v>1</v>
       </c>
-      <c r="F156" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>2</v>
       </c>
@@ -4182,11 +4650,14 @@
       <c r="E157" s="5">
         <v>1</v>
       </c>
-      <c r="F157" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>2</v>
       </c>
@@ -4202,11 +4673,14 @@
       <c r="E158" s="5">
         <v>1</v>
       </c>
-      <c r="F158" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>2</v>
       </c>
@@ -4222,11 +4696,14 @@
       <c r="E159" s="5">
         <v>1</v>
       </c>
-      <c r="F159" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>2</v>
       </c>
@@ -4242,11 +4719,14 @@
       <c r="E160" s="5">
         <v>1</v>
       </c>
-      <c r="F160" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>2</v>
       </c>
@@ -4262,11 +4742,14 @@
       <c r="E161" s="5">
         <v>1</v>
       </c>
-      <c r="F161" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>2</v>
       </c>
@@ -4282,11 +4765,14 @@
       <c r="E162" s="5">
         <v>1</v>
       </c>
-      <c r="F162" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>2</v>
       </c>
@@ -4302,11 +4788,14 @@
       <c r="E163" s="5">
         <v>1</v>
       </c>
-      <c r="F163" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>2</v>
       </c>
@@ -4319,11 +4808,14 @@
       <c r="D164" s="5">
         <v>5</v>
       </c>
-      <c r="E164" s="5">
-        <v>0</v>
-      </c>
-      <c r="F164" s="10">
-        <v>0</v>
+      <c r="E164" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3C9311-6A7F-4F22-91EE-742252971100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="311">
   <si>
     <t>Корпус</t>
   </si>
@@ -133,9 +139,6 @@
     <t>Пожарник охр. Труда</t>
   </si>
   <si>
-    <t>Сл. Зеписка от 22.03.2018 г</t>
-  </si>
-  <si>
     <t>Диспетчерская</t>
   </si>
   <si>
@@ -190,21 +193,12 @@
     <t>Вход из коридора</t>
   </si>
   <si>
-    <t>1043 А</t>
-  </si>
-  <si>
     <t>Коридор сан.узлов</t>
   </si>
   <si>
-    <t>1044 А</t>
-  </si>
-  <si>
     <t>Гардероб в конф залле (алкоголь)</t>
   </si>
   <si>
-    <t>1044 Б</t>
-  </si>
-  <si>
     <t>Архив СВК</t>
   </si>
   <si>
@@ -244,24 +238,15 @@
     <t>Дверь 2 улица</t>
   </si>
   <si>
-    <t>1052 А</t>
-  </si>
-  <si>
     <t>СОП полуфабрикаты</t>
   </si>
   <si>
-    <t>1052 / 1053</t>
-  </si>
-  <si>
     <t>Промежуточная дверь</t>
   </si>
   <si>
     <t>Овощной цех Дверь 1</t>
   </si>
   <si>
-    <t>замена личинки АКТ от 20.06.17г.</t>
-  </si>
-  <si>
     <t>Моечная дверь 2</t>
   </si>
   <si>
@@ -298,15 +283,9 @@
     <t>Помещение хоз. службы</t>
   </si>
   <si>
-    <t>1065 А</t>
-  </si>
-  <si>
     <t>Склад электрики</t>
   </si>
   <si>
-    <t>1065 Б</t>
-  </si>
-  <si>
     <t>ВРУ</t>
   </si>
   <si>
@@ -508,9 +487,6 @@
     <t>Склад СОП возле мойки</t>
   </si>
   <si>
-    <t>1077 / 1052</t>
-  </si>
-  <si>
     <t>Склад СОП (бывш жен. туалет)</t>
   </si>
   <si>
@@ -544,24 +520,12 @@
     <t>Прачечная бельевая</t>
   </si>
   <si>
-    <t xml:space="preserve">Склад 1 </t>
-  </si>
-  <si>
     <t>Отдел снабжения</t>
   </si>
   <si>
-    <t>Склад 7</t>
-  </si>
-  <si>
     <t>Вода бутылированная</t>
   </si>
   <si>
-    <t>Склад 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склад </t>
-  </si>
-  <si>
     <t>Пляж</t>
   </si>
   <si>
@@ -604,12 +568,6 @@
     <t>Отдел закупа</t>
   </si>
   <si>
-    <t>СВК, Рук. прачечной</t>
-  </si>
-  <si>
-    <t>Натрус К., Бурыгин Я., Моисеев Ю.</t>
-  </si>
-  <si>
     <t>Руководитель службы ВК</t>
   </si>
   <si>
@@ -634,27 +592,6 @@
     <t>Жен. раздевалка СООП</t>
   </si>
   <si>
-    <t>Жен. раздевалка СООП, душевая</t>
-  </si>
-  <si>
-    <t>Бухгалтерия, раздевалка</t>
-  </si>
-  <si>
-    <t>ХС, ПУИ</t>
-  </si>
-  <si>
-    <t>ОИТ, склад</t>
-  </si>
-  <si>
-    <t>Прачечная, основной вход</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прачечная, вход выдача униформы </t>
-  </si>
-  <si>
-    <t>Прачечная, вход у лифта</t>
-  </si>
-  <si>
     <t>Туалет</t>
   </si>
   <si>
@@ -670,33 +607,18 @@
     <t>Муж. раздевалка ХС</t>
   </si>
   <si>
-    <t>240 душевая</t>
-  </si>
-  <si>
-    <t>Муж. раздевалка СООП, душевая</t>
-  </si>
-  <si>
     <t>Муж. раздевалка СООП</t>
   </si>
   <si>
     <t>Переход ВГ-ОК СКУД</t>
   </si>
   <si>
-    <t xml:space="preserve">Т2 - 11 </t>
-  </si>
-  <si>
     <t>Лифтовая</t>
   </si>
   <si>
-    <t xml:space="preserve">Т2 - 10 </t>
-  </si>
-  <si>
     <t>Склад маркетинга</t>
   </si>
   <si>
-    <t>208 внутри</t>
-  </si>
-  <si>
     <t>Дебаркадер вход с улици</t>
   </si>
   <si>
@@ -724,9 +646,6 @@
     <t>Су-шеф</t>
   </si>
   <si>
-    <t>119 (1)</t>
-  </si>
-  <si>
     <t>Обеденный залл с холодного цеха</t>
   </si>
   <si>
@@ -745,18 +664,12 @@
     <t>Венткамера вход с кухни</t>
   </si>
   <si>
-    <t>две двери по 4 ключа, по одному на посту</t>
-  </si>
-  <si>
     <t>ИТП вход с улици</t>
   </si>
   <si>
     <t>ВГ грузю лифт пом. отделочников</t>
   </si>
   <si>
-    <t>123 / 123-1</t>
-  </si>
-  <si>
     <t>Подсобное пом. бара</t>
   </si>
   <si>
@@ -811,18 +724,9 @@
     <t>Комната ЧОО 1</t>
   </si>
   <si>
-    <t>6 - 5</t>
-  </si>
-  <si>
     <t>Межкомнатная</t>
   </si>
   <si>
-    <t>6, 7, 8</t>
-  </si>
-  <si>
-    <t>Вход к пом. 6, 7, 8</t>
-  </si>
-  <si>
     <t>Сушилка ЧОО</t>
   </si>
   <si>
@@ -874,9 +778,6 @@
     <t>2/П</t>
   </si>
   <si>
-    <t>Стало ИТС 23.01.2020 г</t>
-  </si>
-  <si>
     <t>3/П</t>
   </si>
   <si>
@@ -959,13 +860,105 @@
   </si>
   <si>
     <t>Со стороны 2й линии левая</t>
+  </si>
+  <si>
+    <t>СВК Рук. прачечной</t>
+  </si>
+  <si>
+    <t>Жен. раздевалка СООП душевая</t>
+  </si>
+  <si>
+    <t>Бухгалтерия раздевалка</t>
+  </si>
+  <si>
+    <t>ХС ПУИ</t>
+  </si>
+  <si>
+    <t>ОИТ склад</t>
+  </si>
+  <si>
+    <t>Прачечная основной вход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прачечная вход выдача униформы </t>
+  </si>
+  <si>
+    <t>Прачечная вход у лифта</t>
+  </si>
+  <si>
+    <t>Муж. раздевалка СООП душевая</t>
+  </si>
+  <si>
+    <t>Вход к пом. 6 7 8</t>
+  </si>
+  <si>
+    <t>Натрус К. Бурыгин Я. Моисеев Ю.</t>
+  </si>
+  <si>
+    <t>две двери по 4 ключа по одному на посту</t>
+  </si>
+  <si>
+    <t>6 7 8</t>
+  </si>
+  <si>
+    <t>1043А</t>
+  </si>
+  <si>
+    <t>1044А</t>
+  </si>
+  <si>
+    <t>1044Б</t>
+  </si>
+  <si>
+    <t>1052А</t>
+  </si>
+  <si>
+    <t>1052/1053</t>
+  </si>
+  <si>
+    <t>1065А</t>
+  </si>
+  <si>
+    <t>1065Б</t>
+  </si>
+  <si>
+    <t>1077/1052</t>
+  </si>
+  <si>
+    <t>Склад1</t>
+  </si>
+  <si>
+    <t>Склад7</t>
+  </si>
+  <si>
+    <t>Склад6</t>
+  </si>
+  <si>
+    <t>240душевая</t>
+  </si>
+  <si>
+    <t>Т2-11</t>
+  </si>
+  <si>
+    <t>Т2-10</t>
+  </si>
+  <si>
+    <t>208внутри</t>
+  </si>
+  <si>
+    <t>119(1)</t>
+  </si>
+  <si>
+    <t>123/123-1</t>
+  </si>
+  <si>
+    <t>6 8 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -982,13 +975,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFc00000"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1020,50 +1013,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1074,10 +1064,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1115,71 +1105,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,7 +1197,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1230,11 +1220,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1243,13 +1233,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1259,7 +1249,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1268,7 +1258,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1277,7 +1267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1285,10 +1275,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1353,28 +1343,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +1571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1811,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1926,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2041,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2058,13 +2048,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2072,22 +2062,22 @@
         <v>1030</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="3">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2085,7 @@
         <v>1031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
@@ -2110,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2108,7 @@
         <v>1031</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
@@ -2133,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2131,7 @@
         <v>1032</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
@@ -2156,7 +2146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2154,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
@@ -2179,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2177,7 @@
         <v>1032</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
@@ -2202,7 +2192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2210,7 +2200,7 @@
         <v>1032</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -2225,7 +2215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2233,7 +2223,7 @@
         <v>1032</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3">
         <v>4</v>
@@ -2248,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2279,22 +2269,22 @@
         <v>1034</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="3">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -2302,7 +2292,7 @@
         <v>1035</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -2317,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2315,7 @@
         <v>1036</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2340,7 +2330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2338,7 @@
         <v>1037</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -2363,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2361,7 @@
         <v>1038</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -2386,7 +2376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2384,7 @@
         <v>1039</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -2409,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +2407,7 @@
         <v>1040</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -2432,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2430,7 @@
         <v>1042</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -2455,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>1043</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3">
         <v>4</v>
@@ -2478,62 +2468,62 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="3">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="3">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
@@ -2547,7 +2537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2545,7 @@
         <v>1045</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -2564,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2568,7 @@
         <v>1045</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
@@ -2587,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2601,7 +2591,7 @@
         <v>1046</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -2616,7 +2606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2614,7 @@
         <v>1047</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -2639,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2637,7 @@
         <v>1048</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -2662,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2670,7 +2660,7 @@
         <v>1049</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
@@ -2685,7 +2675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2693,7 +2683,7 @@
         <v>1050</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -2702,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2716,7 +2706,7 @@
         <v>1051</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
@@ -2725,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D60" s="3">
         <v>4</v>
@@ -2748,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
@@ -2771,21 +2761,21 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
@@ -2800,15 +2790,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D63" s="3">
         <v>5</v>
@@ -2823,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2821,7 @@
         <v>1053</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D64" s="3">
         <v>4</v>
@@ -2840,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2854,7 +2844,7 @@
         <v>1054</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D65" s="3">
         <v>4</v>
@@ -2869,7 +2859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2867,7 @@
         <v>1055</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
@@ -2892,7 +2882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2900,7 +2890,7 @@
         <v>1056</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
@@ -2909,13 +2899,13 @@
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +2913,7 @@
         <v>1057</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3">
         <v>2</v>
@@ -2938,7 +2928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +2936,7 @@
         <v>1058</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D69" s="3">
         <v>4</v>
@@ -2961,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +2959,7 @@
         <v>1059</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
@@ -2984,7 +2974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -2992,7 +2982,7 @@
         <v>1060</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
@@ -3007,7 +2997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -3015,7 +3005,7 @@
         <v>1061</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
@@ -3024,13 +3014,13 @@
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3038,7 +3028,7 @@
         <v>1062</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -3053,7 +3043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>1063</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
@@ -3076,15 +3066,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -3099,15 +3089,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -3122,7 +3112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3120,7 @@
         <v>1066</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>9</v>
@@ -3145,7 +3135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="78" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3143,7 @@
         <v>1067</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -3168,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -3176,7 +3166,7 @@
         <v>1068</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
@@ -3191,7 +3181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="80" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -3199,7 +3189,7 @@
         <v>1070</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D80" s="3">
         <v>5</v>
@@ -3214,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -3222,7 +3212,7 @@
         <v>1071</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
@@ -3231,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3245,7 +3235,7 @@
         <v>1072</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D82" s="3">
         <v>4</v>
@@ -3260,7 +3250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3258,7 @@
         <v>1074</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D83" s="3">
         <v>4</v>
@@ -3283,7 +3273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3291,7 +3281,7 @@
         <v>1078</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D84" s="3">
         <v>4</v>
@@ -3306,7 +3296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3304,7 @@
         <v>1078</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D85" s="3">
         <v>2</v>
@@ -3329,7 +3319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="86" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -3337,7 +3327,7 @@
         <v>1078</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
@@ -3352,7 +3342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -3360,7 +3350,7 @@
         <v>1079</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
@@ -3375,7 +3365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3373,7 @@
         <v>1080</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D88" s="3">
         <v>2</v>
@@ -3398,7 +3388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -3406,7 +3396,7 @@
         <v>1082</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9</v>
@@ -3421,7 +3411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3419,7 @@
         <v>1083</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D90" s="3">
         <v>2</v>
@@ -3444,7 +3434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -3452,7 +3442,7 @@
         <v>1085</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>9</v>
@@ -3467,7 +3457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="92" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3475,7 +3465,7 @@
         <v>1086</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>9</v>
@@ -3490,7 +3480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="93" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +3488,7 @@
         <v>1088</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>9</v>
@@ -3513,7 +3503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3511,7 @@
         <v>1092</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>9</v>
@@ -3536,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -3544,7 +3534,7 @@
         <v>1093</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -3559,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3557,7 @@
         <v>1093</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>9</v>
@@ -3582,7 +3572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3580,7 @@
         <v>1094</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D97" s="3">
         <v>3</v>
@@ -3605,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3603,7 @@
         <v>1097</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>9</v>
@@ -3628,7 +3618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3626,7 @@
         <v>1098</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D99" s="3">
         <v>4</v>
@@ -3645,13 +3635,13 @@
         <v>1</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3659,7 +3649,7 @@
         <v>1099</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D100" s="3">
         <v>5</v>
@@ -3674,7 +3664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -3682,7 +3672,7 @@
         <v>1101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D101" s="3">
         <v>1</v>
@@ -3691,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3695,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D102" s="3">
         <v>2</v>
@@ -3720,7 +3710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3728,7 +3718,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>9</v>
@@ -3743,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -3751,7 +3741,7 @@
         <v>2071</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>9</v>
@@ -3766,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3764,7 @@
         <v>2073</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D105" s="3">
         <v>4</v>
@@ -3789,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="106" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -3797,7 +3787,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D106" s="3">
         <v>4</v>
@@ -3812,15 +3802,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D107" s="3">
         <v>4</v>
@@ -3829,21 +3819,21 @@
         <v>1</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D108" s="3">
         <v>4</v>
@@ -3858,15 +3848,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D109" s="3">
         <v>4</v>
@@ -3881,15 +3871,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3">
         <v>2</v>
@@ -3904,85 +3894,85 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="3">
+        <v>4</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D111" s="3">
-        <v>4</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="3">
-        <v>4</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D114" s="3">
         <v>4</v>
       </c>
@@ -3996,15 +3986,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="115" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
@@ -4019,15 +4009,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="116" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D116" s="3">
         <v>5</v>
@@ -4042,15 +4032,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="117" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D117" s="3">
         <v>5</v>
@@ -4065,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="118" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4063,7 @@
         <v>1041</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D118" s="3">
         <v>4</v>
@@ -4088,13 +4078,13 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D119" s="3">
         <v>5</v>
@@ -4109,15 +4099,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="120" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D120" s="3">
         <v>4</v>
@@ -4132,7 +4122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="121" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -4140,7 +4130,7 @@
         <v>2070</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D121" s="3">
         <v>4</v>
@@ -4155,7 +4145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="122" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -4163,7 +4153,7 @@
         <v>2083</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D122" s="3">
         <v>4</v>
@@ -4178,7 +4168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="123" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4176,7 @@
         <v>2087</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D123" s="3">
         <v>4</v>
@@ -4201,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="124" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -4209,7 +4199,7 @@
         <v>2088</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
@@ -4224,7 +4214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="125" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D125" s="3">
         <v>2</v>
@@ -4247,7 +4237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="126" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D126" s="3">
         <v>2</v>
@@ -4270,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="127" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D127" s="3">
         <v>4</v>
@@ -4287,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="128" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D128" s="3">
         <v>5</v>
@@ -4316,7 +4306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="129" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
@@ -4324,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D129" s="3">
         <v>3</v>
@@ -4339,7 +4329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="130" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4337,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D130" s="3">
         <v>4</v>
@@ -4362,7 +4352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="131" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4360,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D131" s="3">
         <v>2</v>
@@ -4385,7 +4375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="132" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4383,7 @@
         <v>1095</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>9</v>
@@ -4408,7 +4398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="133" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -4416,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D133" s="3">
         <v>3</v>
@@ -4431,7 +4421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="134" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
@@ -4439,7 +4429,7 @@
         <v>2074</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D134" s="3">
         <v>4</v>
@@ -4454,15 +4444,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="135" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D135" s="3">
         <v>4</v>
@@ -4477,7 +4467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="136" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
@@ -4485,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D136" s="3">
         <v>5</v>
@@ -4500,7 +4490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="137" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -4508,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D137" s="3">
         <v>2</v>
@@ -4523,7 +4513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="138" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>7</v>
       </c>
@@ -4531,7 +4521,7 @@
         <v>1096</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D138" s="3">
         <v>3</v>
@@ -4546,15 +4536,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="139" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D139" s="3">
         <v>5</v>
@@ -4569,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="140" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4567,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D140" s="3">
         <v>4</v>
@@ -4592,7 +4582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="141" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4590,7 @@
         <v>2080</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D141" s="3">
         <v>4</v>
@@ -4615,7 +4605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="142" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>1069</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D142" s="3">
         <v>4</v>
@@ -4638,7 +4628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="143" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
@@ -4646,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D143" s="3">
         <v>2</v>
@@ -4661,7 +4651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="144" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
@@ -4669,7 +4659,7 @@
         <v>2092</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D144" s="3">
         <v>4</v>
@@ -4684,7 +4674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="145" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4692,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D145" s="3">
         <v>4</v>
@@ -4707,7 +4697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="146" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
@@ -4715,7 +4705,7 @@
         <v>1009</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D146" s="3">
         <v>4</v>
@@ -4730,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="147" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -4738,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D147" s="3">
         <v>5</v>
@@ -4753,7 +4743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="148" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -4761,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D148" s="3">
         <v>4</v>
@@ -4776,7 +4766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="149" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
@@ -4784,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D149" s="3">
         <v>4</v>
@@ -4799,15 +4789,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="150" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D150" s="3">
         <v>2</v>
@@ -4822,15 +4812,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="151" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D151" s="3">
         <v>2</v>
@@ -4845,15 +4835,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="152" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
@@ -4868,15 +4858,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="153" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D153" s="3">
         <v>2</v>
@@ -4891,15 +4881,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="154" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D154" s="3">
         <v>2</v>
@@ -4914,15 +4904,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="155" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D155" s="3">
         <v>2</v>
@@ -4937,15 +4927,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D156" s="3">
         <v>2</v>
@@ -4960,15 +4950,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="157" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D157" s="3">
         <v>2</v>
@@ -4983,15 +4973,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="158" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D158" s="3">
         <v>2</v>
@@ -5006,15 +4996,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="159" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D159" s="3">
         <v>2</v>
@@ -5029,15 +5019,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="160" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D160" s="3">
         <v>2</v>
@@ -5052,15 +5042,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="161" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D161" s="3">
         <v>2</v>
@@ -5075,15 +5065,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="162" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D162" s="3">
         <v>2</v>
@@ -5098,15 +5088,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="163" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D163" s="3">
         <v>2</v>
@@ -5121,7 +5111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="164" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5119,7 @@
         <v>2063</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D164" s="3">
         <v>5</v>
@@ -5144,7 +5134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="165" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
@@ -5153,15 +5143,15 @@
       <c r="F165" s="8"/>
       <c r="G165" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="166" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B166" s="3">
         <v>201</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D166" s="3">
         <v>4</v>
@@ -5176,15 +5166,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="167" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B167" s="3">
         <v>202</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="D167" s="3">
         <v>2</v>
@@ -5193,21 +5183,21 @@
         <v>3</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B168" s="3">
         <v>203</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D168" s="3">
         <v>2</v>
@@ -5222,15 +5212,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B169" s="3">
         <v>204</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D169" s="3">
         <v>2</v>
@@ -5245,15 +5235,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B170" s="3">
         <v>205</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D170" s="3">
         <v>3</v>
@@ -5262,21 +5252,21 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B171" s="3">
         <v>206</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D171" s="3">
         <v>2</v>
@@ -5291,15 +5281,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="172" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B172" s="3">
         <v>207</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D172" s="3">
         <v>4</v>
@@ -5314,15 +5304,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="173" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B173" s="3">
         <v>208</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D173" s="3">
         <v>4</v>
@@ -5337,15 +5327,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="174" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B174" s="3">
         <v>209</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D174" s="3">
         <v>2</v>
@@ -5354,21 +5344,21 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="175" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B175" s="3">
         <v>210</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>9</v>
@@ -5377,21 +5367,21 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="176" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B176" s="3">
         <v>211</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
@@ -5406,15 +5396,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="177" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B177" s="3">
         <v>212</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D177" s="3">
         <v>4</v>
@@ -5429,15 +5419,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="178" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B178" s="3">
         <v>213</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D178" s="3">
         <v>2</v>
@@ -5452,15 +5442,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="179" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B179" s="3">
         <v>214</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D179" s="3">
         <v>4</v>
@@ -5475,15 +5465,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="180" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B180" s="3">
         <v>215</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D180" s="3">
         <v>4</v>
@@ -5498,15 +5488,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="181" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B181" s="3">
         <v>217</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D181" s="3">
         <v>5</v>
@@ -5521,15 +5511,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="182" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>218</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D182" s="3">
         <v>6</v>
@@ -5544,15 +5534,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="183" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B183" s="3">
         <v>219</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D183" s="3">
         <v>4</v>
@@ -5567,15 +5557,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="184" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3">
         <v>223</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -5590,15 +5580,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B185" s="3">
         <v>224</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
@@ -5613,15 +5603,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B186" s="3">
         <v>225</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>9</v>
@@ -5636,15 +5626,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="187" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B187" s="3">
         <v>229</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>9</v>
@@ -5659,15 +5649,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B188" s="3">
         <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="D188" s="3">
         <v>4</v>
@@ -5682,15 +5672,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="189" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B189" s="3">
         <v>232</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="D189" s="3">
         <v>4</v>
@@ -5705,15 +5695,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B190" s="3">
         <v>233</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="D190" s="3">
         <v>4</v>
@@ -5728,15 +5718,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="191" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B191" s="3">
         <v>236</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D191" s="3">
         <v>2</v>
@@ -5745,21 +5735,21 @@
         <v>2</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B192" s="3">
         <v>237</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D192" s="3">
         <v>4</v>
@@ -5774,15 +5764,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B193" s="3">
         <v>238</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D193" s="3">
         <v>4</v>
@@ -5797,15 +5787,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="194" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B194" s="3">
         <v>240</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D194" s="3">
         <v>5</v>
@@ -5820,15 +5810,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="195" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="D195" s="3">
         <v>5</v>
@@ -5843,15 +5833,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="196" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B196" s="3">
         <v>243</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D196" s="3">
         <v>5</v>
@@ -5864,13 +5854,13 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="197" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D197" s="3">
         <v>4</v>
@@ -5885,15 +5875,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="198" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -5906,15 +5896,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="199" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B199" s="3">
         <v>226</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D199" s="3">
         <v>4</v>
@@ -5929,15 +5919,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="200" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D200" s="3">
         <v>4</v>
@@ -5952,15 +5942,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="201" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D201" s="3">
         <v>1</v>
@@ -5975,7 +5965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="202" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
@@ -5984,15 +5974,15 @@
       <c r="F202" s="8"/>
       <c r="G202" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="203" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D203" s="3">
         <v>4</v>
@@ -6007,15 +5997,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="204" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B204" s="3">
         <v>105</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D204" s="3">
         <v>2</v>
@@ -6030,15 +6020,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="205" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B205" s="3">
         <v>106</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D205" s="3">
         <v>5</v>
@@ -6053,15 +6043,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="206" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B206" s="3">
         <v>108</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D206" s="3">
         <v>5</v>
@@ -6074,15 +6064,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="207" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B207" s="3">
         <v>110</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D207" s="3">
         <v>1</v>
@@ -6097,15 +6087,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="208" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D208" s="3">
         <v>4</v>
@@ -6120,15 +6110,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="209" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B209" s="3">
         <v>111</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D209" s="3">
         <v>4</v>
@@ -6143,15 +6133,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="210" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B210" s="3">
         <v>117</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D210" s="3">
         <v>4</v>
@@ -6166,15 +6156,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="211" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B211" s="3">
         <v>118</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D211" s="3">
         <v>4</v>
@@ -6189,15 +6179,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="212" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="D212" s="3">
         <v>4</v>
@@ -6212,15 +6202,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="213" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D213" s="3">
         <v>3</v>
@@ -6235,15 +6225,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="214" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B214" s="3">
         <v>120</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="3" t="s">
@@ -6256,15 +6246,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="215" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D215" s="3">
         <v>1</v>
@@ -6279,39 +6269,39 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="216" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" s="3">
+        <v>1</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="3">
-        <v>1</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A217" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D217" s="3">
         <v>1</v>
       </c>
@@ -6325,15 +6315,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="218" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="3">
@@ -6346,9 +6336,9 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="219" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B219" s="3">
         <v>115</v>
@@ -6367,9 +6357,9 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="220" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B220" s="3">
         <v>125</v>
@@ -6388,15 +6378,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="221" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B221" s="3">
         <v>126</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="D221" s="3">
         <v>4</v>
@@ -6411,15 +6401,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="222" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B222" s="3">
         <v>127</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D222" s="3">
         <v>4</v>
@@ -6428,19 +6418,19 @@
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="223" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="2" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D223" s="3">
         <v>2</v>
@@ -6455,15 +6445,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="224" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B224" s="3">
         <v>129</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D224" s="3">
         <v>4</v>
@@ -6478,15 +6468,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="225" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="3">
@@ -6499,15 +6489,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="226" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B226" s="3">
         <v>130</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D226" s="3">
         <v>4</v>
@@ -6522,15 +6512,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="227" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B227" s="3">
         <v>116</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D227" s="8"/>
       <c r="E227" s="3">
@@ -6543,15 +6533,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="228" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D228" s="3">
         <v>1</v>
@@ -6566,15 +6556,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="229" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="D229" s="3">
         <v>1</v>
@@ -6589,15 +6579,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="230" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B230" s="3">
         <v>112</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D230" s="3">
         <v>4</v>
@@ -6612,15 +6602,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="231" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B231" s="3">
         <v>128</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D231" s="3">
         <v>4</v>
@@ -6635,15 +6625,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="232" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D232" s="3">
         <v>5</v>
@@ -6658,15 +6648,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="233" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D233" s="3">
         <v>5</v>
@@ -6681,15 +6671,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="234" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B234" s="3">
         <v>114</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D234" s="3">
         <v>4</v>
@@ -6704,15 +6694,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="235" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B235" s="3">
         <v>125</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D235" s="3">
         <v>4</v>
@@ -6727,7 +6717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="236" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
@@ -6736,15 +6726,15 @@
       <c r="F236" s="8"/>
       <c r="G236" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="237" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D237" s="3">
         <v>5</v>
@@ -6759,15 +6749,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="238" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B238" s="3">
         <v>2</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>9</v>
@@ -6782,15 +6772,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="239" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>9</v>
@@ -6799,21 +6789,21 @@
         <v>9</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="240" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B240" s="3">
         <v>4</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>9</v>
@@ -6822,21 +6812,21 @@
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="241" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B241" s="3">
         <v>5</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>9</v>
@@ -6851,15 +6841,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="242" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D242" s="3">
         <v>4</v>
@@ -6874,15 +6864,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="243" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="D243" s="3">
         <v>3</v>
@@ -6897,15 +6887,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="244" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B244" s="3">
         <v>6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D244" s="3">
         <v>5</v>
@@ -6920,15 +6910,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="245" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B245" s="3">
         <v>7</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>9</v>
@@ -6943,15 +6933,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="246" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B246" s="3">
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>9</v>
@@ -6966,15 +6956,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="247" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B247" s="3">
         <v>9</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>9</v>
@@ -6983,21 +6973,21 @@
         <v>9</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="248" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B248" s="3">
         <v>10</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>9</v>
@@ -7012,15 +7002,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="249" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B249" s="3">
         <v>11</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>9</v>
@@ -7035,15 +7025,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="250" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B250" s="3">
         <v>12</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>9</v>
@@ -7058,15 +7048,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="251" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B251" s="3">
         <v>13</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>9</v>
@@ -7075,21 +7065,21 @@
         <v>9</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="252" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B252" s="3">
         <v>14</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>9</v>
@@ -7104,15 +7094,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="253" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B253" s="3">
         <v>15</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D253" s="3">
         <v>5</v>
@@ -7127,15 +7117,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="254" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B254" s="3">
         <v>16</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>9</v>
@@ -7144,21 +7134,21 @@
         <v>9</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="255" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="D255" s="3">
         <v>5</v>
@@ -7173,15 +7163,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="256" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="D256" s="3">
         <v>4</v>
@@ -7196,15 +7186,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="257" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D257" s="3">
         <v>4</v>
@@ -7219,15 +7209,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="258" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D258" s="3">
         <v>1</v>
@@ -7242,15 +7232,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="259" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D259" s="3">
         <v>4</v>
@@ -7259,21 +7249,21 @@
         <v>1</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="260" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D260" s="3">
         <v>4</v>
@@ -7288,15 +7278,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="261" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D261" s="3">
         <v>5</v>
@@ -7309,15 +7299,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="262" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="D262" s="3">
         <v>4</v>
@@ -7332,15 +7322,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="263" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B263" s="3">
         <v>20</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D263" s="3">
         <v>4</v>
@@ -7355,15 +7345,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="264" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B264" s="3">
         <v>20</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D264" s="3">
         <v>4</v>
@@ -7378,15 +7368,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="265" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B265" s="3">
         <v>21</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D265" s="3">
         <v>4</v>
@@ -7401,15 +7391,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="266" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B266" s="3">
         <v>22</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="D266" s="3">
         <v>5</v>
@@ -7424,15 +7414,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="267" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B267" s="3">
         <v>23</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="D267" s="3">
         <v>4</v>
@@ -7447,15 +7437,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="268" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B268" s="3">
         <v>24</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D268" s="3">
         <v>4</v>
@@ -7470,15 +7460,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="269" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B269" s="3">
         <v>25</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="D269" s="3">
         <v>4</v>
@@ -7493,15 +7483,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="270" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B270" s="3">
         <v>26</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D270" s="3">
         <v>3</v>
@@ -7516,15 +7506,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="271" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B271" s="3">
         <v>27</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="D271" s="3">
         <v>4</v>
@@ -7539,15 +7529,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="272" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B272" s="3">
         <v>32</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D272" s="3">
         <v>4</v>
@@ -7556,15 +7546,15 @@
         <v>1</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="273" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B273" s="3">
         <v>33</v>
@@ -7577,21 +7567,21 @@
         <v>9</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="274" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B274" s="3">
         <v>34</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>9</v>
@@ -7600,21 +7590,21 @@
         <v>9</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="275" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B275" s="3">
         <v>35</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>9</v>
@@ -7623,21 +7613,21 @@
         <v>9</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="276" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D276" s="3">
         <v>2</v>
@@ -7652,15 +7642,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="277" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D277" s="3">
         <v>4</v>
@@ -7675,7 +7665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="278" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
@@ -7684,15 +7674,15 @@
       <c r="F278" s="8"/>
       <c r="G278" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="279" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D279" s="3">
         <v>2</v>
@@ -7707,15 +7697,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="280" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D280" s="3">
         <v>4</v>
@@ -7730,15 +7720,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D281" s="3">
         <v>4</v>
@@ -7753,15 +7743,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="282" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D282" s="3">
         <v>4</v>
@@ -7776,15 +7766,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="283" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="D283" s="3">
         <v>3</v>
@@ -7799,15 +7789,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="284" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D284" s="3">
         <v>4</v>
@@ -7822,15 +7812,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="285" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D285" s="3">
         <v>4</v>
@@ -7845,15 +7835,15 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="286" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D286" s="3">
         <v>4</v>
@@ -7870,5 +7860,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B242:B243" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/key.xlsx
+++ b/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3C9311-6A7F-4F22-91EE-742252971100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6195EB-13CB-4FEB-8875-F1FBE027DD36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="310">
   <si>
     <t>Корпус</t>
   </si>
@@ -577,9 +577,6 @@
     <t>Юрист</t>
   </si>
   <si>
-    <t xml:space="preserve"> + 1 у Хибина</t>
-  </si>
-  <si>
     <t>ХС</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>Туалет</t>
   </si>
   <si>
-    <t>ХС и ИТС + 1 у Щусь Д.В.</t>
-  </si>
-  <si>
     <t>Прачечная склад</t>
   </si>
   <si>
@@ -953,6 +947,9 @@
   </si>
   <si>
     <t>6 8 7</t>
+  </si>
+  <si>
+    <t>ХС и ИТС + 1 в 201</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1347,8 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>57</v>
@@ -2496,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>58</v>
@@ -2519,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>59</v>
@@ -2772,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>72</v>
@@ -2795,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>73</v>
@@ -3071,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>87</v>
@@ -3094,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>88</v>
@@ -4541,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>155</v>
@@ -4794,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>166</v>
@@ -4817,7 +4814,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>167</v>
@@ -4840,7 +4837,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>109</v>
@@ -4863,7 +4860,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>168</v>
@@ -4886,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>169</v>
@@ -4909,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>170</v>
@@ -4932,7 +4929,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>171</v>
@@ -4955,7 +4952,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>172</v>
@@ -4978,7 +4975,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>173</v>
@@ -5001,7 +4998,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>174</v>
@@ -5024,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>175</v>
@@ -5047,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>176</v>
@@ -5070,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>177</v>
@@ -5093,7 +5090,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>178</v>
@@ -5174,7 +5171,7 @@
         <v>202</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D167" s="3">
         <v>2</v>
@@ -5182,11 +5179,11 @@
       <c r="E167" s="3">
         <v>3</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>9</v>
+      <c r="F167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5252,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>9</v>
@@ -5312,7 +5309,7 @@
         <v>208</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D173" s="3">
         <v>4</v>
@@ -5335,7 +5332,7 @@
         <v>209</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D174" s="3">
         <v>2</v>
@@ -5358,7 +5355,7 @@
         <v>210</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>9</v>
@@ -5381,7 +5378,7 @@
         <v>211</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
@@ -5404,7 +5401,7 @@
         <v>212</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D177" s="3">
         <v>4</v>
@@ -5427,7 +5424,7 @@
         <v>213</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D178" s="3">
         <v>2</v>
@@ -5450,7 +5447,7 @@
         <v>214</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D179" s="3">
         <v>4</v>
@@ -5473,7 +5470,7 @@
         <v>215</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D180" s="3">
         <v>4</v>
@@ -5496,7 +5493,7 @@
         <v>217</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D181" s="3">
         <v>5</v>
@@ -5519,7 +5516,7 @@
         <v>218</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D182" s="3">
         <v>6</v>
@@ -5542,7 +5539,7 @@
         <v>219</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D183" s="3">
         <v>4</v>
@@ -5565,7 +5562,7 @@
         <v>223</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -5588,7 +5585,7 @@
         <v>224</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
@@ -5611,7 +5608,7 @@
         <v>225</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>9</v>
@@ -5634,7 +5631,7 @@
         <v>229</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>9</v>
@@ -5657,7 +5654,7 @@
         <v>230</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D188" s="3">
         <v>4</v>
@@ -5680,7 +5677,7 @@
         <v>232</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D189" s="3">
         <v>4</v>
@@ -5703,7 +5700,7 @@
         <v>233</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D190" s="3">
         <v>4</v>
@@ -5718,7 +5715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>180</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>236</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191" s="3">
         <v>2</v>
@@ -5734,11 +5731,11 @@
       <c r="E191" s="3">
         <v>2</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>9</v>
+      <c r="F191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5749,7 +5746,7 @@
         <v>237</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D192" s="3">
         <v>4</v>
@@ -5772,7 +5769,7 @@
         <v>238</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D193" s="3">
         <v>4</v>
@@ -5795,7 +5792,7 @@
         <v>240</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D194" s="3">
         <v>5</v>
@@ -5810,15 +5807,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D195" s="3">
         <v>5</v>
@@ -5841,7 +5838,7 @@
         <v>243</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D196" s="3">
         <v>5</v>
@@ -5860,7 +5857,7 @@
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D197" s="3">
         <v>4</v>
@@ -5880,10 +5877,10 @@
         <v>180</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -5904,7 +5901,7 @@
         <v>226</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D199" s="3">
         <v>4</v>
@@ -5924,10 +5921,10 @@
         <v>180</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D200" s="3">
         <v>4</v>
@@ -5947,10 +5944,10 @@
         <v>180</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D201" s="3">
         <v>1</v>
@@ -5982,7 +5979,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D203" s="3">
         <v>4</v>
@@ -6005,7 +6002,7 @@
         <v>105</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D204" s="3">
         <v>2</v>
@@ -6028,7 +6025,7 @@
         <v>106</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D205" s="3">
         <v>5</v>
@@ -6072,7 +6069,7 @@
         <v>110</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D207" s="3">
         <v>1</v>
@@ -6092,10 +6089,10 @@
         <v>180</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D208" s="3">
         <v>4</v>
@@ -6118,7 +6115,7 @@
         <v>111</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D209" s="3">
         <v>4</v>
@@ -6141,7 +6138,7 @@
         <v>117</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D210" s="3">
         <v>4</v>
@@ -6164,7 +6161,7 @@
         <v>118</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D211" s="3">
         <v>4</v>
@@ -6184,10 +6181,10 @@
         <v>180</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D212" s="3">
         <v>4</v>
@@ -6210,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D213" s="3">
         <v>3</v>
@@ -6233,7 +6230,7 @@
         <v>120</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="3" t="s">
@@ -6323,7 +6320,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="3">
@@ -6386,7 +6383,7 @@
         <v>126</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D221" s="3">
         <v>4</v>
@@ -6409,7 +6406,7 @@
         <v>127</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D222" s="3">
         <v>4</v>
@@ -6418,7 +6415,7 @@
         <v>9</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>9</v>
@@ -6430,7 +6427,7 @@
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D223" s="3">
         <v>2</v>
@@ -6453,7 +6450,7 @@
         <v>129</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D224" s="3">
         <v>4</v>
@@ -6473,10 +6470,10 @@
         <v>180</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="3">
@@ -6497,7 +6494,7 @@
         <v>130</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D226" s="3">
         <v>4</v>
@@ -6520,7 +6517,7 @@
         <v>116</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D227" s="8"/>
       <c r="E227" s="3">
@@ -6541,7 +6538,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D228" s="3">
         <v>1</v>
@@ -6564,7 +6561,7 @@
         <v>9</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D229" s="3">
         <v>1</v>
@@ -6587,7 +6584,7 @@
         <v>112</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D230" s="3">
         <v>4</v>
@@ -6610,7 +6607,7 @@
         <v>128</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D231" s="3">
         <v>4</v>
@@ -6633,7 +6630,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D232" s="3">
         <v>5</v>
@@ -6656,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D233" s="3">
         <v>5</v>
@@ -6679,7 +6676,7 @@
         <v>114</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D234" s="3">
         <v>4</v>
@@ -6702,7 +6699,7 @@
         <v>125</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D235" s="3">
         <v>4</v>
@@ -6728,13 +6725,13 @@
     </row>
     <row r="237" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D237" s="3">
         <v>5</v>
@@ -6751,13 +6748,13 @@
     </row>
     <row r="238" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B238" s="3">
         <v>2</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>9</v>
@@ -6774,22 +6771,22 @@
     </row>
     <row r="239" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="C239" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>9</v>
@@ -6797,13 +6794,13 @@
     </row>
     <row r="240" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B240" s="3">
         <v>4</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>9</v>
@@ -6812,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>9</v>
@@ -6820,13 +6817,13 @@
     </row>
     <row r="241" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B241" s="3">
         <v>5</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>9</v>
@@ -6843,13 +6840,13 @@
     </row>
     <row r="242" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D242" s="3">
         <v>4</v>
@@ -6866,13 +6863,13 @@
     </row>
     <row r="243" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D243" s="3">
         <v>3</v>
@@ -6889,13 +6886,13 @@
     </row>
     <row r="244" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B244" s="3">
         <v>6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D244" s="3">
         <v>5</v>
@@ -6912,13 +6909,13 @@
     </row>
     <row r="245" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B245" s="3">
         <v>7</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>9</v>
@@ -6935,13 +6932,13 @@
     </row>
     <row r="246" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B246" s="3">
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>9</v>
@@ -6958,13 +6955,13 @@
     </row>
     <row r="247" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B247" s="3">
         <v>9</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>9</v>
@@ -6973,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>9</v>
@@ -6981,13 +6978,13 @@
     </row>
     <row r="248" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B248" s="3">
         <v>10</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>9</v>
@@ -7004,13 +7001,13 @@
     </row>
     <row r="249" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B249" s="3">
         <v>11</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>9</v>
@@ -7027,13 +7024,13 @@
     </row>
     <row r="250" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B250" s="3">
         <v>12</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>9</v>
@@ -7050,13 +7047,13 @@
     </row>
     <row r="251" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B251" s="3">
         <v>13</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>9</v>
@@ -7065,7 +7062,7 @@
         <v>9</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>9</v>
@@ -7073,13 +7070,13 @@
     </row>
     <row r="252" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B252" s="3">
         <v>14</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>9</v>
@@ -7096,13 +7093,13 @@
     </row>
     <row r="253" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B253" s="3">
         <v>15</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D253" s="3">
         <v>5</v>
@@ -7119,13 +7116,13 @@
     </row>
     <row r="254" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B254" s="3">
         <v>16</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>9</v>
@@ -7134,7 +7131,7 @@
         <v>9</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>9</v>
@@ -7142,13 +7139,13 @@
     </row>
     <row r="255" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D255" s="3">
         <v>5</v>
@@ -7165,13 +7162,13 @@
     </row>
     <row r="256" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D256" s="3">
         <v>4</v>
@@ -7188,13 +7185,13 @@
     </row>
     <row r="257" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D257" s="3">
         <v>4</v>
@@ -7211,13 +7208,13 @@
     </row>
     <row r="258" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D258" s="3">
         <v>1</v>
@@ -7234,13 +7231,13 @@
     </row>
     <row r="259" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D259" s="3">
         <v>4</v>
@@ -7257,13 +7254,13 @@
     </row>
     <row r="260" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D260" s="3">
         <v>4</v>
@@ -7280,13 +7277,13 @@
     </row>
     <row r="261" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D261" s="3">
         <v>5</v>
@@ -7301,13 +7298,13 @@
     </row>
     <row r="262" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D262" s="3">
         <v>4</v>
@@ -7324,13 +7321,13 @@
     </row>
     <row r="263" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B263" s="3">
         <v>20</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D263" s="3">
         <v>4</v>
@@ -7347,13 +7344,13 @@
     </row>
     <row r="264" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B264" s="3">
         <v>20</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D264" s="3">
         <v>4</v>
@@ -7370,13 +7367,13 @@
     </row>
     <row r="265" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B265" s="3">
         <v>21</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D265" s="3">
         <v>4</v>
@@ -7393,13 +7390,13 @@
     </row>
     <row r="266" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B266" s="3">
         <v>22</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D266" s="3">
         <v>5</v>
@@ -7416,13 +7413,13 @@
     </row>
     <row r="267" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B267" s="3">
         <v>23</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D267" s="3">
         <v>4</v>
@@ -7439,13 +7436,13 @@
     </row>
     <row r="268" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B268" s="3">
         <v>24</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D268" s="3">
         <v>4</v>
@@ -7462,13 +7459,13 @@
     </row>
     <row r="269" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B269" s="3">
         <v>25</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D269" s="3">
         <v>4</v>
@@ -7485,13 +7482,13 @@
     </row>
     <row r="270" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B270" s="3">
         <v>26</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D270" s="3">
         <v>3</v>
@@ -7508,13 +7505,13 @@
     </row>
     <row r="271" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B271" s="3">
         <v>27</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D271" s="3">
         <v>4</v>
@@ -7531,13 +7528,13 @@
     </row>
     <row r="272" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B272" s="3">
         <v>32</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D272" s="3">
         <v>4</v>
@@ -7546,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>9</v>
@@ -7554,7 +7551,7 @@
     </row>
     <row r="273" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B273" s="3">
         <v>33</v>
@@ -7567,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>9</v>
@@ -7575,13 +7572,13 @@
     </row>
     <row r="274" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B274" s="3">
         <v>34</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>9</v>
@@ -7590,7 +7587,7 @@
         <v>9</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>9</v>
@@ -7598,13 +7595,13 @@
     </row>
     <row r="275" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B275" s="3">
         <v>35</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>9</v>
@@ -7613,7 +7610,7 @@
         <v>9</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>9</v>
@@ -7621,13 +7618,13 @@
     </row>
     <row r="276" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D276" s="3">
         <v>2</v>
@@ -7644,13 +7641,13 @@
     </row>
     <row r="277" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D277" s="3">
         <v>4</v>
@@ -7676,13 +7673,13 @@
     </row>
     <row r="279" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D279" s="3">
         <v>2</v>
@@ -7699,13 +7696,13 @@
     </row>
     <row r="280" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D280" s="3">
         <v>4</v>
@@ -7722,13 +7719,13 @@
     </row>
     <row r="281" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D281" s="3">
         <v>4</v>
@@ -7745,13 +7742,13 @@
     </row>
     <row r="282" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D282" s="3">
         <v>4</v>
@@ -7768,13 +7765,13 @@
     </row>
     <row r="283" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D283" s="3">
         <v>3</v>
@@ -7791,13 +7788,13 @@
     </row>
     <row r="284" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D284" s="3">
         <v>4</v>
@@ -7814,13 +7811,13 @@
     </row>
     <row r="285" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D285" s="3">
         <v>4</v>
@@ -7837,13 +7834,13 @@
     </row>
     <row r="286" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D286" s="3">
         <v>4</v>

--- a/key.xlsx
+++ b/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F4FD22-F855-4375-94D0-EB962D0247C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC14DAC-8913-4150-BEDF-0FBB8B8557A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="310">
   <si>
     <t>Корпус</t>
   </si>
@@ -856,9 +856,6 @@
     <t>Со стороны 2й линии левая</t>
   </si>
   <si>
-    <t>СВК Рук. прачечной</t>
-  </si>
-  <si>
     <t>Жен. раздевалка СООП душевая</t>
   </si>
   <si>
@@ -928,9 +925,6 @@
     <t>Склад6</t>
   </si>
   <si>
-    <t>240душевая</t>
-  </si>
-  <si>
     <t>Т2-11</t>
   </si>
   <si>
@@ -950,6 +944,12 @@
   </si>
   <si>
     <t>ХС и ИТС + 1 в 201</t>
+  </si>
+  <si>
+    <t>СВК Прачка</t>
+  </si>
+  <si>
+    <t>240</t>
   </si>
 </sst>
 </file>
@@ -1010,24 +1010,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1337,17 +1336,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2459,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
@@ -2482,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
@@ -2505,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
@@ -2758,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>72</v>
@@ -2781,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>73</v>
@@ -3057,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>87</v>
@@ -3080,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>88</v>
@@ -4527,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>155</v>
@@ -4780,7 +4779,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>166</v>
@@ -4803,7 +4802,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>167</v>
@@ -4826,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>109</v>
@@ -5120,15 +5119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-    </row>
+    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>180</v>
@@ -5160,7 +5151,7 @@
         <v>202</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -5172,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5349,8 +5340,8 @@
       <c r="D175" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="1">
-        <v>1</v>
+      <c r="E175" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>142</v>
@@ -5551,7 +5542,7 @@
         <v>223</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -5574,7 +5565,7 @@
         <v>224</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>9</v>
@@ -5597,7 +5588,7 @@
         <v>225</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>9</v>
@@ -5620,7 +5611,7 @@
         <v>229</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>9</v>
@@ -5643,7 +5634,7 @@
         <v>230</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D188" s="1">
         <v>4</v>
@@ -5666,7 +5657,7 @@
         <v>232</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D189" s="1">
         <v>4</v>
@@ -5689,7 +5680,7 @@
         <v>233</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D190" s="1">
         <v>4</v>
@@ -5724,7 +5715,7 @@
         <v>9</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5801,10 +5792,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D195" s="1">
         <v>5</v>
@@ -5832,7 +5823,6 @@
       <c r="D196" s="1">
         <v>5</v>
       </c>
-      <c r="E196" s="5"/>
       <c r="F196" s="1" t="s">
         <v>9</v>
       </c>
@@ -5844,7 +5834,6 @@
       <c r="A197" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B197" s="5"/>
       <c r="C197" s="1" t="s">
         <v>194</v>
       </c>
@@ -5866,7 +5855,7 @@
         <v>180</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>195</v>
@@ -5874,7 +5863,6 @@
       <c r="D198" s="1">
         <v>5</v>
       </c>
-      <c r="E198" s="5"/>
       <c r="F198" s="1" t="s">
         <v>9</v>
       </c>
@@ -5910,7 +5898,7 @@
         <v>180</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>196</v>
@@ -5933,7 +5921,7 @@
         <v>180</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>185</v>
@@ -5951,15 +5939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-    </row>
+    <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="203" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>180</v>
@@ -6042,7 +6022,6 @@
       <c r="D206" s="1">
         <v>5</v>
       </c>
-      <c r="E206" s="5"/>
       <c r="F206" s="1" t="s">
         <v>9</v>
       </c>
@@ -6170,7 +6149,7 @@
         <v>180</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>206</v>
@@ -6221,7 +6200,6 @@
       <c r="C214" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D214" s="5"/>
       <c r="E214" s="1" t="s">
         <v>9</v>
       </c>
@@ -6311,7 +6289,6 @@
       <c r="C218" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D218" s="5"/>
       <c r="E218" s="1">
         <v>1</v>
       </c>
@@ -6329,7 +6306,6 @@
       <c r="B219" s="1">
         <v>115</v>
       </c>
-      <c r="C219" s="5"/>
       <c r="D219" s="1">
         <v>1</v>
       </c>
@@ -6350,7 +6326,6 @@
       <c r="B220" s="1">
         <v>125</v>
       </c>
-      <c r="C220" s="5"/>
       <c r="D220" s="1">
         <v>1</v>
       </c>
@@ -6404,7 +6379,7 @@
         <v>9</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>9</v>
@@ -6414,7 +6389,6 @@
       <c r="A223" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B223" s="5"/>
       <c r="C223" s="1" t="s">
         <v>212</v>
       </c>
@@ -6459,12 +6433,11 @@
         <v>180</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D225" s="5"/>
       <c r="E225" s="1">
         <v>2</v>
       </c>
@@ -6508,7 +6481,6 @@
       <c r="C227" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D227" s="5"/>
       <c r="E227" s="1">
         <v>1</v>
       </c>
@@ -6703,15 +6675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-    </row>
+    <row r="236" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>225</v>
@@ -6832,7 +6796,7 @@
         <v>225</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>232</v>
@@ -6855,10 +6819,10 @@
         <v>225</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D243" s="1">
         <v>3</v>
@@ -7277,7 +7241,6 @@
       <c r="D261" s="1">
         <v>5</v>
       </c>
-      <c r="E261" s="5"/>
       <c r="F261" s="1" t="s">
         <v>9</v>
       </c>
@@ -7545,7 +7508,6 @@
       <c r="B273" s="1">
         <v>33</v>
       </c>
-      <c r="C273" s="5"/>
       <c r="D273" s="1" t="s">
         <v>9</v>
       </c>
@@ -7651,15 +7613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5"/>
-    </row>
+    <row r="278" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="279" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>269</v>
@@ -7849,6 +7803,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B242:B243" twoDigitTextYear="1"/>
+    <ignoredError sqref="B195" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/key.xlsx
+++ b/key.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC14DAC-8913-4150-BEDF-0FBB8B8557A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2223948-F831-462D-BC01-D585B5963B40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -7806,4 +7808,30 @@
     <ignoredError sqref="B195" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DADBC-1869-42F0-9BB9-CF7CA4301EDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780FA7CF-1C90-409F-BB39-872BE2BD12F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/key.xlsx
+++ b/key.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C925B2A-D15F-401C-AEDB-D1C02F68AB1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -949,8 +958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -967,13 +975,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFc00000"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1011,53 +1019,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1068,10 +1073,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1109,71 +1114,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1201,7 +1206,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1224,11 +1229,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1237,13 +1242,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1253,7 +1258,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1262,7 +1267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1271,7 +1276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1279,10 +1284,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1347,28 +1352,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="70" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="76" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="80" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="81" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="82" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="83" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="84" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="85" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="86" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="87" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="88" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="89" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="90" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="91" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="92" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="93" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="94" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="95" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="96" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="97" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="100" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="101" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="102" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="103" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="104" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="105" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="106" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="109" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="110" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="112" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="113" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="114" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="115" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="116" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="117" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="118" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="119" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="120" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="121" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="122" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="123" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="124" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="125" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="126" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="127" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="128" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="129" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="130" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="131" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="132" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="133" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="134" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="135" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>7</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="136" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="137" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="138" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>7</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="139" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="140" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="141" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="142" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="143" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="144" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="145" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="146" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="147" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="148" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="149" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="150" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>7</v>
       </c>
@@ -4816,7 +4820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="151" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
@@ -4839,7 +4843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="152" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="153" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>7</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="154" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="155" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>7</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="156" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="157" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="158" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="159" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
@@ -5023,7 +5027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="160" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="161" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="162" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>7</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="163" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="164" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
@@ -5138,7 +5142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="165" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
@@ -5147,7 +5151,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="166" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>192</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="167" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>192</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="168" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>192</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="169" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>192</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="170" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>192</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="171" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>192</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="172" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>192</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="173" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>192</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="174" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>192</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="175" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>192</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="176" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>192</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="177" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>192</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="178" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>192</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="179" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>192</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="180" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>192</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="181" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>192</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="182" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>192</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="183" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>192</v>
       </c>
@@ -5561,7 +5565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="184" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="185" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>192</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="186" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>192</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="187" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>192</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="188" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>192</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="189" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>192</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="190" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="191" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
@@ -5745,7 +5749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="192" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="193" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -5791,7 +5795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="194" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="195" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>192</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="196" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>192</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="197" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="198" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>192</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="199" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>192</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="200" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>192</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="201" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>192</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="202" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
@@ -5978,7 +5982,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="203" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>192</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="204" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>192</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="205" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>192</v>
       </c>
@@ -6047,7 +6051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="206" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>192</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="207" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>192</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="208" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>192</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="209" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>192</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="210" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>192</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="211" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>192</v>
       </c>
@@ -6183,7 +6187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="212" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>192</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="213" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>192</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="214" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>192</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="215" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>192</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="216" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>192</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="217" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>192</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="218" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>192</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="219" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>192</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="220" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>192</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="221" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>192</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="222" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>192</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="223" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>192</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="224" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>192</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="225" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>192</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="226" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>192</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="227" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>192</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="228" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>192</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="229" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>192</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="230" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>192</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="231" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>192</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="232" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>192</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="233" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>192</v>
       </c>
@@ -6675,7 +6679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="234" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>192</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="235" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>192</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="236" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
@@ -6730,7 +6734,7 @@
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="237" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>255</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="238" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>255</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="239" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>255</v>
       </c>
@@ -6799,7 +6803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="240" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>255</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="241" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>255</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="242" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>255</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="243" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>255</v>
       </c>
@@ -6891,7 +6895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="244" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>255</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="245" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>255</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="246" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>255</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="247" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>255</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="248" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>255</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="249" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>255</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="250" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>255</v>
       </c>
@@ -7052,7 +7056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="251" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>255</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="252" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>255</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="253" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="254" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="255" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="256" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="257" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="258" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>255</v>
       </c>
@@ -7236,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="259" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>255</v>
       </c>
@@ -7259,7 +7263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="260" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>255</v>
       </c>
@@ -7282,7 +7286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="261" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>255</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="262" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>255</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="263" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>255</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="264" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>255</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="265" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>255</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="266" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="267" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>255</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="268" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>255</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="269" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>255</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="270" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>255</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="271" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>255</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="272" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>255</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="273" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>255</v>
       </c>
@@ -7577,7 +7581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="274" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>255</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="275" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>255</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="276" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>255</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="277" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>255</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="278" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
@@ -7678,7 +7682,7 @@
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="279" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>301</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="280" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>301</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="281" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>301</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="282" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>301</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="283" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>301</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="284" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>301</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="285" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>301</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="286" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>301</v>
       </c>
@@ -7865,4 +7869,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16099E3-6C10-43CA-AF16-6F532E6631F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AB6EF-402A-4549-9D85-432E40296349}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100D4B8-FBCA-4F67-9024-C53DBC449FD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/key.xlsx
+++ b/key.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C925B2A-D15F-401C-AEDB-D1C02F68AB1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet r:id="rId2" sheetId="2" name="Лист2"/>
+    <sheet r:id="rId3" sheetId="3" name="Лист3"/>
+    <sheet r:id="rId4" sheetId="4" name="Лист4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="310">
   <si>
     <t>Корпус</t>
   </si>
@@ -958,7 +952,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -975,13 +970,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFc00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1019,50 +1014,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1073,10 +1068,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1114,71 +1109,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1206,7 +1201,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1229,11 +1224,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1242,13 +1237,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1258,7 +1253,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1267,7 +1262,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1276,7 +1271,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1284,10 +1279,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1352,27 +1347,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="19.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -2407,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +2748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -3258,7 +3254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -3396,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -3902,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +3967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
@@ -4107,7 +4103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
@@ -4268,7 +4264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -4314,7 +4310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="2" t="s">
         <v>7</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -4429,7 +4425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="2" t="s">
         <v>7</v>
       </c>
@@ -4475,7 +4471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="2" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
@@ -4567,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="2" t="s">
         <v>7</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
@@ -4682,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -4705,7 +4701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="2" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="2" t="s">
         <v>7</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="2" t="s">
         <v>7</v>
       </c>
@@ -4889,7 +4885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="2" t="s">
         <v>7</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="2" t="s">
         <v>7</v>
       </c>
@@ -4935,7 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A156" s="2" t="s">
         <v>7</v>
       </c>
@@ -4958,7 +4954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -4981,7 +4977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A162" s="2" t="s">
         <v>7</v>
       </c>
@@ -5096,7 +5092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
@@ -5119,7 +5115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
@@ -5151,7 +5147,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A166" s="2" t="s">
         <v>192</v>
       </c>
@@ -5174,7 +5170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A167" s="2" t="s">
         <v>192</v>
       </c>
@@ -5190,14 +5186,14 @@
       <c r="E167" s="3">
         <v>3</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A168" s="2" t="s">
         <v>192</v>
       </c>
@@ -5220,7 +5216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A169" s="2" t="s">
         <v>192</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A170" s="2" t="s">
         <v>192</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A171" s="2" t="s">
         <v>192</v>
       </c>
@@ -5289,7 +5285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A172" s="2" t="s">
         <v>192</v>
       </c>
@@ -5312,7 +5308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A173" s="2" t="s">
         <v>192</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A174" s="2" t="s">
         <v>192</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A175" s="2" t="s">
         <v>192</v>
       </c>
@@ -5381,7 +5377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A176" s="2" t="s">
         <v>192</v>
       </c>
@@ -5404,7 +5400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A177" s="2" t="s">
         <v>192</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A178" s="2" t="s">
         <v>192</v>
       </c>
@@ -5450,7 +5446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A179" s="2" t="s">
         <v>192</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A180" s="2" t="s">
         <v>192</v>
       </c>
@@ -5496,7 +5492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A181" s="2" t="s">
         <v>192</v>
       </c>
@@ -5519,7 +5515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A182" s="2" t="s">
         <v>192</v>
       </c>
@@ -5542,7 +5538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A183" s="2" t="s">
         <v>192</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
@@ -5588,7 +5584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A185" s="2" t="s">
         <v>192</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A186" s="2" t="s">
         <v>192</v>
       </c>
@@ -5634,7 +5630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A187" s="2" t="s">
         <v>192</v>
       </c>
@@ -5657,7 +5653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A188" s="2" t="s">
         <v>192</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A189" s="2" t="s">
         <v>192</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
@@ -5726,7 +5722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
@@ -5742,14 +5738,14 @@
       <c r="E191" s="3">
         <v>2</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -5818,11 +5814,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A195" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -5841,7 +5837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A196" s="2" t="s">
         <v>192</v>
       </c>
@@ -5854,7 +5850,9 @@
       <c r="D196" s="3">
         <v>5</v>
       </c>
-      <c r="E196" s="8"/>
+      <c r="E196" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A197" s="2" t="s">
         <v>192</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A198" s="2" t="s">
         <v>192</v>
       </c>
@@ -5896,7 +5894,9 @@
       <c r="D198" s="3">
         <v>5</v>
       </c>
-      <c r="E198" s="8"/>
+      <c r="E198" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A199" s="2" t="s">
         <v>192</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A200" s="2" t="s">
         <v>192</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A201" s="2" t="s">
         <v>192</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
@@ -5982,7 +5982,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A203" s="2" t="s">
         <v>192</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A204" s="2" t="s">
         <v>192</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A205" s="2" t="s">
         <v>192</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A206" s="2" t="s">
         <v>192</v>
       </c>
@@ -6064,7 +6064,9 @@
       <c r="D206" s="3">
         <v>5</v>
       </c>
-      <c r="E206" s="8"/>
+      <c r="E206" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A207" s="2" t="s">
         <v>192</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A208" s="2" t="s">
         <v>192</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A209" s="2" t="s">
         <v>192</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A210" s="2" t="s">
         <v>192</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A211" s="2" t="s">
         <v>192</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A212" s="2" t="s">
         <v>192</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A213" s="2" t="s">
         <v>192</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A214" s="2" t="s">
         <v>192</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A215" s="2" t="s">
         <v>192</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A216" s="2" t="s">
         <v>192</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A217" s="2" t="s">
         <v>192</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A218" s="2" t="s">
         <v>192</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A219" s="2" t="s">
         <v>192</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A220" s="2" t="s">
         <v>192</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A221" s="2" t="s">
         <v>192</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A222" s="2" t="s">
         <v>192</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A223" s="2" t="s">
         <v>192</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="2" t="s">
         <v>192</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A225" s="2" t="s">
         <v>192</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A226" s="2" t="s">
         <v>192</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A227" s="2" t="s">
         <v>192</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A228" s="2" t="s">
         <v>192</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A229" s="2" t="s">
         <v>192</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A230" s="2" t="s">
         <v>192</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A231" s="2" t="s">
         <v>192</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A232" s="2" t="s">
         <v>192</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A233" s="2" t="s">
         <v>192</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A234" s="2" t="s">
         <v>192</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A235" s="2" t="s">
         <v>192</v>
       </c>
@@ -6725,7 +6727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
@@ -6734,7 +6736,7 @@
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A237" s="2" t="s">
         <v>255</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A238" s="2" t="s">
         <v>255</v>
       </c>
@@ -6780,11 +6782,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -6803,7 +6805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A240" s="2" t="s">
         <v>255</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A241" s="2" t="s">
         <v>255</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A242" s="2" t="s">
         <v>255</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A243" s="2" t="s">
         <v>255</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A244" s="2" t="s">
         <v>255</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A245" s="2" t="s">
         <v>255</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A246" s="2" t="s">
         <v>255</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A247" s="2" t="s">
         <v>255</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A248" s="2" t="s">
         <v>255</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A249" s="2" t="s">
         <v>255</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="2" t="s">
         <v>255</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A251" s="2" t="s">
         <v>255</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A252" s="2" t="s">
         <v>255</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A258" s="2" t="s">
         <v>255</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A259" s="2" t="s">
         <v>255</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A260" s="2" t="s">
         <v>255</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A261" s="2" t="s">
         <v>255</v>
       </c>
@@ -7299,7 +7301,9 @@
       <c r="D261" s="3">
         <v>5</v>
       </c>
-      <c r="E261" s="8"/>
+      <c r="E261" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A262" s="2" t="s">
         <v>255</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A263" s="2" t="s">
         <v>255</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A264" s="2" t="s">
         <v>255</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A265" s="2" t="s">
         <v>255</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A267" s="2" t="s">
         <v>255</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A268" s="2" t="s">
         <v>255</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A269" s="2" t="s">
         <v>255</v>
       </c>
@@ -7491,7 +7495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A270" s="2" t="s">
         <v>255</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A271" s="2" t="s">
         <v>255</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A272" s="2" t="s">
         <v>255</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A273" s="2" t="s">
         <v>255</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A274" s="2" t="s">
         <v>255</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A275" s="2" t="s">
         <v>255</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A276" s="2" t="s">
         <v>255</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A277" s="2" t="s">
         <v>255</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
@@ -7682,7 +7686,7 @@
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A279" s="2" t="s">
         <v>301</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A280" s="2" t="s">
         <v>301</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A281" s="2" t="s">
         <v>301</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A282" s="2" t="s">
         <v>301</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A283" s="2" t="s">
         <v>301</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A284" s="2" t="s">
         <v>301</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A285" s="2" t="s">
         <v>301</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A286" s="2" t="s">
         <v>301</v>
       </c>
@@ -7872,7 +7876,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16099E3-6C10-43CA-AF16-6F532E6631F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7884,7 +7891,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AB6EF-402A-4549-9D85-432E40296349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7896,10 +7906,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100D4B8-FBCA-4F67-9024-C53DBC449FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/key.xlsx
+++ b/key.xlsx
@@ -83,7 +83,7 @@
     <t>ааааа</t>
   </si>
   <si>
-    <t>Объектт</t>
+    <t>Объект</t>
   </si>
   <si>
     <t>№ двери</t>

--- a/key.xlsx
+++ b/key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB42AF7-4E7D-4EFA-94F8-EDAD14CD7472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9AD547-3613-43FC-899B-0A465EA80FDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1515" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="408">
   <si>
     <t>Примечание</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t xml:space="preserve"> LADA GRANTA</t>
   </si>
   <si>
-    <t xml:space="preserve"> LADA LARGUS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HYUNDAI SOLARIS</t>
   </si>
   <si>
@@ -1251,6 +1248,12 @@
   </si>
   <si>
     <t>Номер</t>
+  </si>
+  <si>
+    <t>LADA LARGUS</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN POLO</t>
   </si>
 </sst>
 </file>
@@ -1641,8 +1644,8 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,10 +1656,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
         <v>405</v>
-      </c>
-      <c r="C1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,10 +1909,10 @@
         <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,10 +1920,10 @@
         <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,10 +1931,10 @@
         <v>347</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,10 +1942,10 @@
         <v>347</v>
       </c>
       <c r="B27" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,10 +1953,10 @@
         <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,10 +1964,10 @@
         <v>347</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,10 +1975,10 @@
         <v>347</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,10 +1986,10 @@
         <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,10 +1997,10 @@
         <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +2008,10 @@
         <v>347</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,10 +2019,10 @@
         <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,10 +2030,10 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,10 +2041,10 @@
         <v>347</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,10 +2052,10 @@
         <v>347</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2063,10 @@
         <v>347</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,10 +2074,10 @@
         <v>347</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,10 +2085,10 @@
         <v>347</v>
       </c>
       <c r="B40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,10 +2096,10 @@
         <v>347</v>
       </c>
       <c r="B41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,10 +2107,10 @@
         <v>347</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,10 +2118,10 @@
         <v>347</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,10 +2129,10 @@
         <v>347</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,10 +2140,10 @@
         <v>347</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,10 +2151,10 @@
         <v>347</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,10 +2162,10 @@
         <v>347</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2170,10 +2173,10 @@
         <v>347</v>
       </c>
       <c r="B48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,10 +2184,10 @@
         <v>347</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2192,10 +2195,10 @@
         <v>347</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,10 +2206,10 @@
         <v>347</v>
       </c>
       <c r="B51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,10 +2217,10 @@
         <v>347</v>
       </c>
       <c r="B52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,10 +2228,10 @@
         <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2236,10 +2239,10 @@
         <v>347</v>
       </c>
       <c r="B54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2247,10 +2250,10 @@
         <v>347</v>
       </c>
       <c r="B55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2258,10 +2261,10 @@
         <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,10 +2272,10 @@
         <v>347</v>
       </c>
       <c r="B57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,7 +2286,7 @@
         <v>348</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -5,32 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9AD547-3613-43FC-899B-0A465EA80FDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ACEEBE-B1BA-450A-A2DD-C3AA8DCD9C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1515" windowWidth="16200" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_Hlk111701434" localSheetId="1">[1]Лист2!$A$3</definedName>
-    <definedName name="_Hlk94853585" localSheetId="1">[1]Лист2!$A$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="920">
   <si>
     <t>Примечание</t>
   </si>
@@ -1244,16 +1235,1552 @@
     <t xml:space="preserve"> M 714 CY 123</t>
   </si>
   <si>
-    <t xml:space="preserve">Марка </t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
     <t>LADA LARGUS</t>
   </si>
   <si>
     <t>VOLKSWAGEN POLO</t>
+  </si>
+  <si>
+    <t>Срок действия пропуска</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>АБК 13</t>
+  </si>
+  <si>
+    <t>Х 796 ОО 123</t>
+  </si>
+  <si>
+    <t>Вед. мен. по продажам</t>
+  </si>
+  <si>
+    <t>За полем въезд КПП № 5</t>
+  </si>
+  <si>
+    <t>Ниссан Террано</t>
+  </si>
+  <si>
+    <t>Менеджер по закупкам</t>
+  </si>
+  <si>
+    <t>Хендай Солярис</t>
+  </si>
+  <si>
+    <t>О 944 ОТ 123</t>
+  </si>
+  <si>
+    <t>Старший смены</t>
+  </si>
+  <si>
+    <t>8 988 403 76 21</t>
+  </si>
+  <si>
+    <t>К 203 СУ 123</t>
+  </si>
+  <si>
+    <t>КИА Церато</t>
+  </si>
+  <si>
+    <t>О 297 ОЕ 123</t>
+  </si>
+  <si>
+    <t>Кладовщик</t>
+  </si>
+  <si>
+    <t>8 918 905 56 95</t>
+  </si>
+  <si>
+    <t>Въезд КПП 5 возле поля   </t>
+  </si>
+  <si>
+    <t>Лада Гранта</t>
+  </si>
+  <si>
+    <t>А 147 АУ 193</t>
+  </si>
+  <si>
+    <t>Бригадир ИТС</t>
+  </si>
+  <si>
+    <t>8 989 160 39 02</t>
+  </si>
+  <si>
+    <t>БФ ГК</t>
+  </si>
+  <si>
+    <t>ВАЗ 21144</t>
+  </si>
+  <si>
+    <t>К 136 ВУ 73</t>
+  </si>
+  <si>
+    <t>Руководитель СВК</t>
+  </si>
+  <si>
+    <t>8 988 188 27 52</t>
+  </si>
+  <si>
+    <t>АБК 14</t>
+  </si>
+  <si>
+    <t>Шкода Йети</t>
+  </si>
+  <si>
+    <t>О 960 РВ 174</t>
+  </si>
+  <si>
+    <t>Зам. рук. СПР</t>
+  </si>
+  <si>
+    <t>8 928 259 78 28</t>
+  </si>
+  <si>
+    <t>ГК – БФ</t>
+  </si>
+  <si>
+    <t>У 848 ТА 123</t>
+  </si>
+  <si>
+    <t>Программист</t>
+  </si>
+  <si>
+    <t>8 928 457 72 20</t>
+  </si>
+  <si>
+    <t>АБК 7</t>
+  </si>
+  <si>
+    <t>Форд Фокус</t>
+  </si>
+  <si>
+    <t>Н 159 ХК 123</t>
+  </si>
+  <si>
+    <t>Руководитель СООП</t>
+  </si>
+  <si>
+    <t>8 989 754 61 60</t>
+  </si>
+  <si>
+    <t>Хюндай Солярис</t>
+  </si>
+  <si>
+    <t>В 971 РА 26</t>
+  </si>
+  <si>
+    <t>Старший повар</t>
+  </si>
+  <si>
+    <t>8 988 507 67 48</t>
+  </si>
+  <si>
+    <t>АБК главный вход</t>
+  </si>
+  <si>
+    <t>RENAULT DUSTER</t>
+  </si>
+  <si>
+    <t>Инженер систем вентиляции</t>
+  </si>
+  <si>
+    <t>КПП 5 возле поля   </t>
+  </si>
+  <si>
+    <t>Лада Веста</t>
+  </si>
+  <si>
+    <t>С 920 ВК 193</t>
+  </si>
+  <si>
+    <t>Отделочник</t>
+  </si>
+  <si>
+    <t>8 918 303 63 87</t>
+  </si>
+  <si>
+    <t>Киа Рио</t>
+  </si>
+  <si>
+    <t>С 770 КУ 93</t>
+  </si>
+  <si>
+    <t>Спец. отдела бронирования</t>
+  </si>
+  <si>
+    <t>8 918 604 62 62</t>
+  </si>
+  <si>
+    <t>Хонда Цивик</t>
+  </si>
+  <si>
+    <t>А 126 ТМ 123</t>
+  </si>
+  <si>
+    <t>Старший администратор СПР</t>
+  </si>
+  <si>
+    <t>8 938 463 18 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АБК 10 </t>
+  </si>
+  <si>
+    <t>Хендэ Солярис</t>
+  </si>
+  <si>
+    <t>Т 256 МХ 123</t>
+  </si>
+  <si>
+    <t>Спец.  отд. бронирования</t>
+  </si>
+  <si>
+    <t>8 918 406 17 82</t>
+  </si>
+  <si>
+    <t>Мазда Просид Марве</t>
+  </si>
+  <si>
+    <t>Е 514 КТ 93</t>
+  </si>
+  <si>
+    <t>Провизор МЦ</t>
+  </si>
+  <si>
+    <t>8 918 305 04 73</t>
+  </si>
+  <si>
+    <t>Шевроле Круз</t>
+  </si>
+  <si>
+    <t>М 522 ВК 126</t>
+  </si>
+  <si>
+    <t>Техник по обсл. бассейнов</t>
+  </si>
+  <si>
+    <t>8 999 656 26 76</t>
+  </si>
+  <si>
+    <t>АБК 11</t>
+  </si>
+  <si>
+    <t>Ситроен С4</t>
+  </si>
+  <si>
+    <t>Т 763 УО 161</t>
+  </si>
+  <si>
+    <t>Зам. главного врача</t>
+  </si>
+  <si>
+    <t>8 989 751 64 80</t>
+  </si>
+  <si>
+    <t>Хендэ Грета</t>
+  </si>
+  <si>
+    <t>К 486 СО 123</t>
+  </si>
+  <si>
+    <t>ТЛФ оператор СПР</t>
+  </si>
+  <si>
+    <t>8 918 106 39 35</t>
+  </si>
+  <si>
+    <t>Е 736 ВР 193</t>
+  </si>
+  <si>
+    <t>Шеф-повар</t>
+  </si>
+  <si>
+    <t>ГК-БФ</t>
+  </si>
+  <si>
+    <t>Хундай Траджет</t>
+  </si>
+  <si>
+    <t>К 360 РК 93</t>
+  </si>
+  <si>
+    <t>Санитарный врач</t>
+  </si>
+  <si>
+    <t>8 918 409 28 22</t>
+  </si>
+  <si>
+    <t>Тойота Королла</t>
+  </si>
+  <si>
+    <t>Н 498 НУ 193</t>
+  </si>
+  <si>
+    <t>Инженер по обслуживания медтехники</t>
+  </si>
+  <si>
+    <t>8 902 407 87 65</t>
+  </si>
+  <si>
+    <t>Лада Приора</t>
+  </si>
+  <si>
+    <t>Н 222 ОТ 123</t>
+  </si>
+  <si>
+    <t>Сантехник</t>
+  </si>
+  <si>
+    <t>8 967 316 51 88</t>
+  </si>
+  <si>
+    <t>Тойота Марк</t>
+  </si>
+  <si>
+    <t>Е 276 НН АВН</t>
+  </si>
+  <si>
+    <t>Администратор СПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 953 087 69 87 </t>
+  </si>
+  <si>
+    <t>ВАЗ 21124</t>
+  </si>
+  <si>
+    <t>Н 143 СН 93</t>
+  </si>
+  <si>
+    <t>8 928 457 45 60</t>
+  </si>
+  <si>
+    <t>АБК 8</t>
+  </si>
+  <si>
+    <t>Ауди А3</t>
+  </si>
+  <si>
+    <t>К 894 СЕ 174</t>
+  </si>
+  <si>
+    <t>Экономист</t>
+  </si>
+  <si>
+    <t>8 922 718 40 33</t>
+  </si>
+  <si>
+    <t>Шевроле Авео</t>
+  </si>
+  <si>
+    <t>Е 182 ХН 123</t>
+  </si>
+  <si>
+    <t>8 928 377 00 80</t>
+  </si>
+  <si>
+    <t>Мерседес Бенц</t>
+  </si>
+  <si>
+    <t>М 169 НТ 193</t>
+  </si>
+  <si>
+    <t>Техник по кондиционер.</t>
+  </si>
+  <si>
+    <t>8 989 083 78 12</t>
+  </si>
+  <si>
+    <t>В 249 АУ 193</t>
+  </si>
+  <si>
+    <t>8 988 189 20 56</t>
+  </si>
+  <si>
+    <t>АБК 4</t>
+  </si>
+  <si>
+    <t>Опель Астра</t>
+  </si>
+  <si>
+    <t>Т 718 ЕО 123</t>
+  </si>
+  <si>
+    <t>Рук. сан. – кур. Направления</t>
+  </si>
+  <si>
+    <t>8 928 457 98 09</t>
+  </si>
+  <si>
+    <t>БФ   </t>
+  </si>
+  <si>
+    <t>БМВ Мини</t>
+  </si>
+  <si>
+    <t>Р 4160 РАВН</t>
+  </si>
+  <si>
+    <t>8 968 261 02 22</t>
+  </si>
+  <si>
+    <t>С 452 ВУ 123</t>
+  </si>
+  <si>
+    <t>Менеджер пляжа</t>
+  </si>
+  <si>
+    <t>8 918 406 90 14</t>
+  </si>
+  <si>
+    <t>Ниссан Х-Трейл</t>
+  </si>
+  <si>
+    <t>Т 747 НТ 93</t>
+  </si>
+  <si>
+    <t>Спец. по охране труда</t>
+  </si>
+  <si>
+    <t>8 928 459 94 85</t>
+  </si>
+  <si>
+    <t>Рено Сценик</t>
+  </si>
+  <si>
+    <t>Р 984 МХ 123</t>
+  </si>
+  <si>
+    <t>8 918 903 77 31</t>
+  </si>
+  <si>
+    <t>Форд Focus</t>
+  </si>
+  <si>
+    <t>Инженер-теплотехник</t>
+  </si>
+  <si>
+    <t>8 900 001 94 34</t>
+  </si>
+  <si>
+    <t>ДЭУ МАТИЗ</t>
+  </si>
+  <si>
+    <t>Н 742 АХ 161</t>
+  </si>
+  <si>
+    <t>Врач</t>
+  </si>
+  <si>
+    <t>8 918 418 71 80</t>
+  </si>
+  <si>
+    <t>Ауди А4</t>
+  </si>
+  <si>
+    <t>В 474 КТ 193</t>
+  </si>
+  <si>
+    <t>Менеджер по продажам</t>
+  </si>
+  <si>
+    <t>8 918 608 77 70</t>
+  </si>
+  <si>
+    <t>Мерседес-Бенц Е200</t>
+  </si>
+  <si>
+    <t>Н 060 АО 193</t>
+  </si>
+  <si>
+    <t>Оператор СПЗ</t>
+  </si>
+  <si>
+    <t>8 918 455 06 56</t>
+  </si>
+  <si>
+    <t>КИА Венга</t>
+  </si>
+  <si>
+    <t>А 004 ВК 161</t>
+  </si>
+  <si>
+    <t>Косметолог  ОСК</t>
+  </si>
+  <si>
+    <t>8 925 327 18 33</t>
+  </si>
+  <si>
+    <t>Киа Церато</t>
+  </si>
+  <si>
+    <t>А 059 УА 134</t>
+  </si>
+  <si>
+    <t>8 988 152 16 78</t>
+  </si>
+  <si>
+    <t>Мицубиси ASX</t>
+  </si>
+  <si>
+    <t>К 308 ВУ 193</t>
+  </si>
+  <si>
+    <t>МЦ Сестра-хозяйка</t>
+  </si>
+  <si>
+    <t>8 913 801 38 10</t>
+  </si>
+  <si>
+    <t>Лада ВАЗ 211440</t>
+  </si>
+  <si>
+    <t>Х 505 УУ 93</t>
+  </si>
+  <si>
+    <t>Хаусмен (разнорабочий)</t>
+  </si>
+  <si>
+    <t>8 964 942 11 76</t>
+  </si>
+  <si>
+    <t>Ниссан Микра</t>
+  </si>
+  <si>
+    <t>Т 309 НК 199</t>
+  </si>
+  <si>
+    <t>Врач акушер – гинеколог</t>
+  </si>
+  <si>
+    <t>8 988 925 04 80</t>
+  </si>
+  <si>
+    <t>Хендэ Грант Санта Фе</t>
+  </si>
+  <si>
+    <t>Т 747 КН 799</t>
+  </si>
+  <si>
+    <t>Форд</t>
+  </si>
+  <si>
+    <t>К 109 АН 15</t>
+  </si>
+  <si>
+    <t>Инспектор-контролер</t>
+  </si>
+  <si>
+    <t>8 988 288 06 99</t>
+  </si>
+  <si>
+    <t>Шевролет Нива</t>
+  </si>
+  <si>
+    <t>М 998 КУ 123</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>8 918 300 30 93</t>
+  </si>
+  <si>
+    <t>ТОЙОТА ВИТЦ</t>
+  </si>
+  <si>
+    <t>Т 712 ВА 193</t>
+  </si>
+  <si>
+    <t>Бухгалтер по доходам</t>
+  </si>
+  <si>
+    <t>8 938 870 60 50</t>
+  </si>
+  <si>
+    <t>Фольксва-ген Поло</t>
+  </si>
+  <si>
+    <t>А 525 ВВ 193</t>
+  </si>
+  <si>
+    <t>Инспектор-контролер СВК</t>
+  </si>
+  <si>
+    <t>8 989 757 42 94</t>
+  </si>
+  <si>
+    <t>НОЧ-НОЙ</t>
+  </si>
+  <si>
+    <t>Ссанг Енг Рекстон RJ4</t>
+  </si>
+  <si>
+    <t>Т 549 ВА 193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техник по обслуживанию бассейнов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 918 402 76 61 </t>
+  </si>
+  <si>
+    <t>БМВ</t>
+  </si>
+  <si>
+    <t>В 223 РУ 763</t>
+  </si>
+  <si>
+    <t>ДОСУГ администратор</t>
+  </si>
+  <si>
+    <t>8 903 479 19 45</t>
+  </si>
+  <si>
+    <t>ПОЛЕ</t>
+  </si>
+  <si>
+    <t>Фольксваген Гольф</t>
+  </si>
+  <si>
+    <t>А 203 НТ 01</t>
+  </si>
+  <si>
+    <t>8 918 420 40 03</t>
+  </si>
+  <si>
+    <t>Мотоцикл Хонда СВ400 SFV-TEC</t>
+  </si>
+  <si>
+    <t>2622 КО 23</t>
+  </si>
+  <si>
+    <t>СООП сервис-менеджер</t>
+  </si>
+  <si>
+    <t>8 967 305 23 16</t>
+  </si>
+  <si>
+    <t>КИА PICANTO</t>
+  </si>
+  <si>
+    <t>В 278 НО790</t>
+  </si>
+  <si>
+    <t>СПА косметолог</t>
+  </si>
+  <si>
+    <t>8 953 114 61 57</t>
+  </si>
+  <si>
+    <t>Тойта RAV 4</t>
+  </si>
+  <si>
+    <t>E 661 XC 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИТС кондиционер-щик </t>
+  </si>
+  <si>
+    <t>8 989 162 15 85</t>
+  </si>
+  <si>
+    <t>БФ и ПОЛЕ</t>
+  </si>
+  <si>
+    <t>Мазда 3</t>
+  </si>
+  <si>
+    <t>Х 894 ВН 98</t>
+  </si>
+  <si>
+    <t>Специалист ОП</t>
+  </si>
+  <si>
+    <t>8 938 439 67 52</t>
+  </si>
+  <si>
+    <t>ПЕЖО 308</t>
+  </si>
+  <si>
+    <t>О 655 МН 142</t>
+  </si>
+  <si>
+    <t>Менеджер по работе с гостями</t>
+  </si>
+  <si>
+    <t>8 962 882 88 50</t>
+  </si>
+  <si>
+    <t>ОПЕЛЬ ASTRA</t>
+  </si>
+  <si>
+    <t>В 709 СХ 122</t>
+  </si>
+  <si>
+    <t>Экономист фин. отдел</t>
+  </si>
+  <si>
+    <t>8 967 646 41 00</t>
+  </si>
+  <si>
+    <t>АБК 12</t>
+  </si>
+  <si>
+    <t>КИА RIO</t>
+  </si>
+  <si>
+    <t>М 897 УУ 123</t>
+  </si>
+  <si>
+    <t>Руководитель ОСК</t>
+  </si>
+  <si>
+    <t>8 918 401 00 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фольксваген Пассат СС </t>
+  </si>
+  <si>
+    <t>Е 215 ВР 193</t>
+  </si>
+  <si>
+    <t>Фельдшер МЦ</t>
+  </si>
+  <si>
+    <t>8 922 675 06 26</t>
+  </si>
+  <si>
+    <t>Хенде XD ELANTRA</t>
+  </si>
+  <si>
+    <t>Р 997 НС 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер ресторана </t>
+  </si>
+  <si>
+    <t>8 988 069 95 12</t>
+  </si>
+  <si>
+    <t>Фольксваген Поло</t>
+  </si>
+  <si>
+    <t>О 282 НЕ 123</t>
+  </si>
+  <si>
+    <t>8 918 600 06 24</t>
+  </si>
+  <si>
+    <t>Тойота Приус</t>
+  </si>
+  <si>
+    <t>А 295 КС 193</t>
+  </si>
+  <si>
+    <t>8 989 085 9131</t>
+  </si>
+  <si>
+    <t>Тойота Чайзер</t>
+  </si>
+  <si>
+    <t>Р 722 ХВ123</t>
+  </si>
+  <si>
+    <t>8 918 05 07 02</t>
+  </si>
+  <si>
+    <t>Фольксваген Туарег</t>
+  </si>
+  <si>
+    <t>М 594 МА 193</t>
+  </si>
+  <si>
+    <t>8 977 345 48 78</t>
+  </si>
+  <si>
+    <t>Форд Мондео</t>
+  </si>
+  <si>
+    <t>Н 017 СС 69</t>
+  </si>
+  <si>
+    <t>Инженер по пож. Безопасности</t>
+  </si>
+  <si>
+    <t>8 921 693 97 01</t>
+  </si>
+  <si>
+    <t>Мерседес Бенц В 200</t>
+  </si>
+  <si>
+    <t>К 377 СО 123</t>
+  </si>
+  <si>
+    <t>Ст.менеджер по маркетингу и рекламе</t>
+  </si>
+  <si>
+    <t>8 960 48 48 096</t>
+  </si>
+  <si>
+    <t>Мотоцикл QJSTELS FLAME 200</t>
+  </si>
+  <si>
+    <t>7600 КО 23</t>
+  </si>
+  <si>
+    <t>8 928 245 74 12</t>
+  </si>
+  <si>
+    <t>KIA SHUMA 11</t>
+  </si>
+  <si>
+    <t>У318 ЕЕ123</t>
+  </si>
+  <si>
+    <t>8 950 966 11 19</t>
+  </si>
+  <si>
+    <t>ГК№4</t>
+  </si>
+  <si>
+    <t>МАЗДА 3</t>
+  </si>
+  <si>
+    <t>Р 202 ТО 123</t>
+  </si>
+  <si>
+    <t>СПиР руководитель</t>
+  </si>
+  <si>
+    <t>8 964 946 49 46</t>
+  </si>
+  <si>
+    <t>ОПЕЛЬ АСТРА</t>
+  </si>
+  <si>
+    <t>Е 391 ЕО 193</t>
+  </si>
+  <si>
+    <t>Зам.гл. бухгалтера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 928 259 79 57                                                 </t>
+  </si>
+  <si>
+    <t>HYUNDAI  IX 35</t>
+  </si>
+  <si>
+    <t>У 611 ТА 123</t>
+  </si>
+  <si>
+    <t>Бухгалтер-калькулятор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 988 237 10 37                                                 </t>
+  </si>
+  <si>
+    <t>М 851 ВН134</t>
+  </si>
+  <si>
+    <t>Администратор пляжа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 988 281 74 47                                                 </t>
+  </si>
+  <si>
+    <t>ТОЙОТА РАКТИС</t>
+  </si>
+  <si>
+    <t>Е136 ВВ 193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 905 954 40 55                                     </t>
+  </si>
+  <si>
+    <t>Шкода Октавия</t>
+  </si>
+  <si>
+    <t>К 422 ВМ 29</t>
+  </si>
+  <si>
+    <t>8 960 019 18 19</t>
+  </si>
+  <si>
+    <t>Р 204 СС 123</t>
+  </si>
+  <si>
+    <t>8 999 656 46 96</t>
+  </si>
+  <si>
+    <t>БФ№6</t>
+  </si>
+  <si>
+    <t>KIA SPORTAGE</t>
+  </si>
+  <si>
+    <t>С 161 ВК 193</t>
+  </si>
+  <si>
+    <t>Руководитель юр. отд.</t>
+  </si>
+  <si>
+    <t>8 918 109 08 86</t>
+  </si>
+  <si>
+    <t>Шевроле Орландо</t>
+  </si>
+  <si>
+    <t>К 092 ВР 193</t>
+  </si>
+  <si>
+    <t>Специалист отд. бронирования</t>
+  </si>
+  <si>
+    <t>8 918 004 22 35</t>
+  </si>
+  <si>
+    <t>Грейт Уолл</t>
+  </si>
+  <si>
+    <t>Е 587 ЕА96</t>
+  </si>
+  <si>
+    <t>МЦ врач УЗИ</t>
+  </si>
+  <si>
+    <t>9 902 260 29 88</t>
+  </si>
+  <si>
+    <t>КИА АМ СОУЛ</t>
+  </si>
+  <si>
+    <t>К 655 ХН 123</t>
+  </si>
+  <si>
+    <t>МЦ врач кардиолог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 918 497 37 33                                                 </t>
+  </si>
+  <si>
+    <t>КИА РИО</t>
+  </si>
+  <si>
+    <t>Р 631 ЕА 193</t>
+  </si>
+  <si>
+    <t>Бухгалтер по учету ТМЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 967 319 42 28                                                   </t>
+  </si>
+  <si>
+    <t>АБК 3</t>
+  </si>
+  <si>
+    <t>О 595 РК 161</t>
+  </si>
+  <si>
+    <t>ОС руководитель</t>
+  </si>
+  <si>
+    <t>8 977 700 09 99</t>
+  </si>
+  <si>
+    <t>Мицубиси Оутлендер</t>
+  </si>
+  <si>
+    <t>М 568 СМ 123</t>
+  </si>
+  <si>
+    <t>ФИН служба бухгалтер-кассир</t>
+  </si>
+  <si>
+    <t>8 988 504 47 24</t>
+  </si>
+  <si>
+    <t>К 233 ВР 193</t>
+  </si>
+  <si>
+    <t>8 996 405 60 91</t>
+  </si>
+  <si>
+    <t>Мицубиси Лансер</t>
+  </si>
+  <si>
+    <t>М 233 НУ134</t>
+  </si>
+  <si>
+    <t>СООП-ресторан официант</t>
+  </si>
+  <si>
+    <t>8 918 106 60 18</t>
+  </si>
+  <si>
+    <t>Петрушенкин Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Калинина Дарья Александровна</t>
+  </si>
+  <si>
+    <t>Литвинов Максим Сергеевич</t>
+  </si>
+  <si>
+    <t>Шерстюк Александр Александрович</t>
+  </si>
+  <si>
+    <t>Мгарбель Абдель Аммарович</t>
+  </si>
+  <si>
+    <t>Дудук Марина Юрьевна</t>
+  </si>
+  <si>
+    <t>Денисенко Тимур Сергеевич</t>
+  </si>
+  <si>
+    <t>Кокорина Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Мартынюк Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Натрус Кристина Владимировна</t>
+  </si>
+  <si>
+    <t>Малькова Лилия Владимировна</t>
+  </si>
+  <si>
+    <t>Маковейчук Эрика Александровна</t>
+  </si>
+  <si>
+    <t>Луговик Юлия Анатольевна</t>
+  </si>
+  <si>
+    <t>Проскурина Оксана Викторовна</t>
+  </si>
+  <si>
+    <t>Муратова Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t>Рогозин Алексей Витальевич</t>
+  </si>
+  <si>
+    <t>Намаконова Екатерина Сайфитдиновна</t>
+  </si>
+  <si>
+    <t>Севостьянов Евгений Анатольевич</t>
+  </si>
+  <si>
+    <t>Вилкова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Сумар Александр Леонидович</t>
+  </si>
+  <si>
+    <t>Черновская Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Климук Владислав Викторович</t>
+  </si>
+  <si>
+    <t>Митляева Ирина Олеговна</t>
+  </si>
+  <si>
+    <t>Панина Анастасия Владимировна</t>
+  </si>
+  <si>
+    <t>Кириакиди Вера Николаевна</t>
+  </si>
+  <si>
+    <t>Мохнаткина Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Шестерня Александр Игоревич</t>
+  </si>
+  <si>
+    <t>Васильева Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Гереева Екатерина Алексеевна</t>
+  </si>
+  <si>
+    <t>Румянцева Шарлотта Артуровна</t>
+  </si>
+  <si>
+    <t>Подбельская Олеся Андреевна</t>
+  </si>
+  <si>
+    <t>Семенова Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Сиражетдинов Рудель Ривиянович</t>
+  </si>
+  <si>
+    <t>Арабидзе Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Гришаева Нина Александровна</t>
+  </si>
+  <si>
+    <t>Гольдберг Роман Валентинович</t>
+  </si>
+  <si>
+    <t>Сапожникова Людмила Николаевна</t>
+  </si>
+  <si>
+    <t>Стародубова Кира Владимировна</t>
+  </si>
+  <si>
+    <t>Герасина Марина Анатольевна</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>№ пропуска</t>
+  </si>
+  <si>
+    <t>№ парковки</t>
+  </si>
+  <si>
+    <t>Тип/модель</t>
+  </si>
+  <si>
+    <t>14.12.21 31.12.22</t>
+  </si>
+  <si>
+    <t>Мерседес А 200</t>
+  </si>
+  <si>
+    <t>Ломанова Татьяна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Емельянова Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Катричук Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Государ-ственный номер</t>
+  </si>
+  <si>
+    <t>С 474 ВК 193</t>
+  </si>
+  <si>
+    <t>Фольксваген Getta</t>
+  </si>
+  <si>
+    <t>Щеглов Виталий Сергеевич</t>
+  </si>
+  <si>
+    <t>Бардацкая Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>Лещенко Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Ушкин Сергей Алексеевич</t>
+  </si>
+  <si>
+    <t>Полуосьмак Сергей Георгиевич</t>
+  </si>
+  <si>
+    <t>Никитина Ольга Валерьевна</t>
+  </si>
+  <si>
+    <t>Окопный Николай Иванович</t>
+  </si>
+  <si>
+    <t>Морозов Олег Александрович</t>
+  </si>
+  <si>
+    <t>Дятлов Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>Анисимова Дарья Владимировна</t>
+  </si>
+  <si>
+    <t>Егорова Кристина Альбертовна</t>
+  </si>
+  <si>
+    <t>Сокурова Анастасия Эдуардовна</t>
+  </si>
+  <si>
+    <t>Ксенофонтова Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>Тармасинов Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>Елкина Елена Вячеславовна</t>
+  </si>
+  <si>
+    <t>Минасян Каринэ Меликовна</t>
+  </si>
+  <si>
+    <t>Основин Игорь Николаевич</t>
+  </si>
+  <si>
+    <t>Бурыгин Ярослав Васильевич</t>
+  </si>
+  <si>
+    <t>Ромашкин Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Калачев Анатолий Андреевич</t>
+  </si>
+  <si>
+    <t>Русаков Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t>10.01.22 31.12.22</t>
+  </si>
+  <si>
+    <t>13.01.22 31.12.22</t>
+  </si>
+  <si>
+    <t>18.02.22 до выс. Сезона</t>
+  </si>
+  <si>
+    <t>23.03.22 31.12.22</t>
+  </si>
+  <si>
+    <t>25.03.22 31.12.22</t>
+  </si>
+  <si>
+    <t>29.03.22 до выс. сезона</t>
+  </si>
+  <si>
+    <t>БФ сменный</t>
+  </si>
+  <si>
+    <t>08.04.22 31.12.22 замена пр. №16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.04.22 31.12.22 </t>
+  </si>
+  <si>
+    <t>11.04.22 31.12.22</t>
+  </si>
+  <si>
+    <t>12.04.22 31.12.22</t>
+  </si>
+  <si>
+    <t>18.04.22 31.12.22</t>
+  </si>
+  <si>
+    <t>30.05.22 31.12.22</t>
+  </si>
+  <si>
+    <t>19.07.22 31.12.22</t>
+  </si>
+  <si>
+    <t>27.07.22 31.12.22</t>
+  </si>
+  <si>
+    <t>01.08.22 31.08.22</t>
+  </si>
+  <si>
+    <t>16.08.22 31.12.22</t>
+  </si>
+  <si>
+    <t>Х 886 ТХ 123</t>
+  </si>
+  <si>
+    <t>В 562 МС 156</t>
+  </si>
+  <si>
+    <t>31.02.22 31.12.22</t>
+  </si>
+  <si>
+    <t>21.12.21 31.12.22</t>
+  </si>
+  <si>
+    <t>14.03.22 31.12.22</t>
+  </si>
+  <si>
+    <t>11.03.22 31.12.22</t>
+  </si>
+  <si>
+    <t>Плетнев Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>Горичева Светлана Петровна</t>
+  </si>
+  <si>
+    <t>Костин Вячеслав Иосифович</t>
+  </si>
+  <si>
+    <t>Сабалдаш Яна Юрьевна</t>
+  </si>
+  <si>
+    <t>Васильев Василий Георгиевич</t>
+  </si>
+  <si>
+    <t>Радюль Эдвард Валерьевич</t>
+  </si>
+  <si>
+    <t>Шемец Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Лаврик Михаил Александрович</t>
+  </si>
+  <si>
+    <t>Баландина Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Павлов Михаил Викторович</t>
+  </si>
+  <si>
+    <t>Печура Павел  Сергеевич</t>
+  </si>
+  <si>
+    <t>Полтавченко Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Гангапшева Залина Эдуардовна</t>
+  </si>
+  <si>
+    <t>Борисов Константин Борисович</t>
+  </si>
+  <si>
+    <t>Кобзева Татьяна Павловна</t>
+  </si>
+  <si>
+    <t>Соловьев Олег  Николаевич</t>
+  </si>
+  <si>
+    <t>Кочегаров Андрей Вальянович</t>
+  </si>
+  <si>
+    <t>Кочнева Лариса Михайловна</t>
+  </si>
+  <si>
+    <t>Плетнев АлексейВладимирович</t>
+  </si>
+  <si>
+    <t>Канокова Инна Николаевна</t>
+  </si>
+  <si>
+    <t>Халин Виталий Васильевич</t>
+  </si>
+  <si>
+    <t>Мазурик Виктория Энделевна</t>
+  </si>
+  <si>
+    <t>Хендай Санта Фе</t>
+  </si>
+  <si>
+    <t>Т 690 АО 123</t>
+  </si>
+  <si>
+    <t>Дятлов Евгений Юрьевич</t>
+  </si>
+  <si>
+    <t>ИП Дятлова Т.И.</t>
+  </si>
+  <si>
+    <t>Чери Тигго 8 PRO Т31FPL4</t>
+  </si>
+  <si>
+    <t>К 170 ВК 193</t>
+  </si>
+  <si>
+    <t>Хендэ Акцент</t>
+  </si>
+  <si>
+    <t>К 405 ХО 123</t>
+  </si>
+  <si>
+    <t>Хмелидзе Шалва Тариелович</t>
+  </si>
+  <si>
+    <t>ИП Дятлова</t>
+  </si>
+  <si>
+    <t>8 918 000 49 48</t>
+  </si>
+  <si>
+    <t>А 652 КО 123</t>
+  </si>
+  <si>
+    <t>Терентьев Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>8 918 100 05 58</t>
+  </si>
+  <si>
+    <t>Тойота Камри</t>
+  </si>
+  <si>
+    <t>М 010 КХ 01</t>
+  </si>
+  <si>
+    <t>Урусов Мусарби Нухович</t>
+  </si>
+  <si>
+    <t>ООО «Фуд Аэро» (спиртное)</t>
+  </si>
+  <si>
+    <t>8 918 407 49 58</t>
+  </si>
+  <si>
+    <t>Мерсе-дес Бенц Е300</t>
+  </si>
+  <si>
+    <t>Е 070 НР 93</t>
+  </si>
+  <si>
+    <t>Гайсина Татьяна Андреевна</t>
+  </si>
+  <si>
+    <t>ИП Гайсина</t>
+  </si>
+  <si>
+    <t>8 919 123 18 03</t>
+  </si>
+  <si>
+    <t>Тойота Аква Гибрид</t>
+  </si>
+  <si>
+    <t>Р 245 УН 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельникова Юлия Александровна </t>
+  </si>
+  <si>
+    <t>8 918 908 77 56</t>
+  </si>
+  <si>
+    <t>Мицубиси Делика</t>
+  </si>
+  <si>
+    <t>К 863 ТС 123</t>
+  </si>
+  <si>
+    <t>Мельников Сергей Петрович</t>
+  </si>
+  <si>
+    <t>8 988 161 74 11</t>
+  </si>
+  <si>
+    <t>Н 004 ЕА 174</t>
+  </si>
+  <si>
+    <t>Тойота Ланд Крузер</t>
+  </si>
+  <si>
+    <t>У035 ЕЕ 774</t>
+  </si>
+  <si>
+    <t>Форд F250</t>
+  </si>
+  <si>
+    <t>Т 785 АА 193</t>
+  </si>
+  <si>
+    <t>Лыков Виктор Васильевич</t>
+  </si>
+  <si>
+    <t>ООО «ПрофСекью-рити»</t>
+  </si>
+  <si>
+    <t>8 999 795 13 35</t>
+  </si>
+  <si>
+    <t>17.12.21 31.12.22</t>
+  </si>
+  <si>
+    <t>02.02.22 31.12.22</t>
+  </si>
+  <si>
+    <t>8 902 895 11 27  8 904 815 00 30</t>
+  </si>
+  <si>
+    <t>8 918 359 96 98 Евгений  8 989 160 60 99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>8 902 895 11 27  8 904 815 00 31</t>
+  </si>
+  <si>
+    <t>9/1</t>
+  </si>
+  <si>
+    <t>АБК 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Линия 3</t>
+  </si>
+  <si>
+    <t>БФ- Линия 3</t>
+  </si>
+  <si>
+    <t>Линия 3 сменный</t>
+  </si>
+  <si>
+    <t>8 928 457 34 41. 8 988 282 38 80</t>
+  </si>
+  <si>
+    <t>8 928 457 08 22. 8 928 259 02 37</t>
+  </si>
+  <si>
+    <t>8 928 850 17 95. 8 918 104 19 66</t>
+  </si>
+  <si>
+    <t>8 928 459 74 87. 8 905 885 97 91</t>
+  </si>
+  <si>
+    <t>8 918 108 20 19. 8 989 750 67 78</t>
+  </si>
+  <si>
+    <t>поле. КПП № 5</t>
+  </si>
+  <si>
+    <t>ИТС.телефонный оператор</t>
+  </si>
+  <si>
+    <t>ОС. кладовщик</t>
+  </si>
+  <si>
+    <t>IT. програмист</t>
+  </si>
+  <si>
+    <t>ИТС. рабочий зеленого хозяйства</t>
+  </si>
+  <si>
+    <t>МЦ. врач</t>
+  </si>
+  <si>
+    <t>Линия 3. поле</t>
+  </si>
+  <si>
+    <t>МЦ. мед. сестра по массажу</t>
+  </si>
+  <si>
+    <t>ХС. супервайзер</t>
+  </si>
+  <si>
+    <t>СООП. су-шеф кондитер</t>
+  </si>
+  <si>
+    <t>Чеботаев Владимир Юрьевич. Чеботаева Наиля Фидаиловна</t>
+  </si>
+  <si>
+    <t>03.03.22 до выс. сезона</t>
+  </si>
+  <si>
+    <t>10.03.22 до выс. сезона</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +2840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1323,6 +2850,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,19 +2875,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1642,651 +3165,4516 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>49</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>55</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>59</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>62</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>64</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>65</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>65</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>66</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>67</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>68</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>70</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>72</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>73</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>74</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>75</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>76</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>82</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>83</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>84</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>85</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>87</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>89</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>91</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>92</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
+        <v>93</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>94</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>97</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>99</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>100</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>101</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>102</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>103</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>104</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>105</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
+        <v>106</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
+        <v>107</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>108</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>109</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
+        <v>110</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>111</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
+        <v>112</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>114</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
+        <v>115</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5">
+        <v>116</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>117</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5">
+        <v>3</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5">
+        <v>4</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>6</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5">
+        <v>8</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
+        <v>10</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E99" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" t="s">
+        <v>325</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E100" t="s">
+        <v>310</v>
+      </c>
+      <c r="F100" t="s">
+        <v>326</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E101" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" t="s">
+        <v>327</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E102" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" t="s">
+        <v>328</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E103" t="s">
+        <v>313</v>
+      </c>
+      <c r="F103" t="s">
+        <v>329</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E104" t="s">
+        <v>310</v>
+      </c>
+      <c r="F104" t="s">
+        <v>330</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E105" t="s">
+        <v>314</v>
+      </c>
+      <c r="F105" t="s">
+        <v>331</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E106" t="s">
+        <v>314</v>
+      </c>
+      <c r="F106" t="s">
+        <v>332</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E107" t="s">
+        <v>315</v>
+      </c>
+      <c r="F107" t="s">
+        <v>333</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E108" t="s">
+        <v>316</v>
+      </c>
+      <c r="F108" t="s">
+        <v>334</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E109" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" t="s">
+        <v>335</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E110" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" t="s">
+        <v>336</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E111" t="s">
+        <v>318</v>
+      </c>
+      <c r="F111" t="s">
+        <v>337</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E112" t="s">
+        <v>319</v>
+      </c>
+      <c r="F112" t="s">
+        <v>338</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E113" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" t="s">
+        <v>339</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E114" t="s">
+        <v>320</v>
+      </c>
+      <c r="F114" t="s">
+        <v>340</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E115" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" t="s">
+        <v>341</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E116" t="s">
+        <v>322</v>
+      </c>
+      <c r="F116" t="s">
+        <v>342</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E117" t="s">
+        <v>323</v>
+      </c>
+      <c r="F117" t="s">
+        <v>343</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E118" t="s">
+        <v>323</v>
+      </c>
+      <c r="F118" t="s">
+        <v>344</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E119" t="s">
+        <v>323</v>
+      </c>
+      <c r="F119" t="s">
+        <v>345</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E120" t="s">
+        <v>324</v>
+      </c>
+      <c r="F120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E121" t="s">
+        <v>312</v>
+      </c>
+      <c r="F121" t="s">
+        <v>369</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E122" t="s">
         <v>404</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F122" t="s">
+        <v>370</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E123" t="s">
+        <v>404</v>
+      </c>
+      <c r="F123" t="s">
+        <v>371</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E124" t="s">
+        <v>314</v>
+      </c>
+      <c r="F124" t="s">
+        <v>372</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E125" t="s">
+        <v>404</v>
+      </c>
+      <c r="F125" t="s">
+        <v>373</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E126" t="s">
+        <v>404</v>
+      </c>
+      <c r="F126" t="s">
+        <v>374</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E127" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F127" t="s">
+        <v>375</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E128" t="s">
+        <v>350</v>
+      </c>
+      <c r="F128" t="s">
+        <v>376</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D129" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E129" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" t="s">
+        <v>377</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D130" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E130" t="s">
+        <v>350</v>
+      </c>
+      <c r="F130" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D131" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" t="s">
+        <v>379</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D132" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E132" t="s">
+        <v>351</v>
+      </c>
+      <c r="F132" t="s">
+        <v>380</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D133" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E133" t="s">
+        <v>352</v>
+      </c>
+      <c r="F133" t="s">
+        <v>381</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D134" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E134" t="s">
+        <v>353</v>
+      </c>
+      <c r="F134" t="s">
+        <v>382</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D135" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E135" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" t="s">
+        <v>383</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D136" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E136" t="s">
+        <v>355</v>
+      </c>
+      <c r="F136" t="s">
+        <v>384</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D137" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E137" t="s">
+        <v>356</v>
+      </c>
+      <c r="F137" t="s">
+        <v>385</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D138" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E138" t="s">
+        <v>357</v>
+      </c>
+      <c r="F138" t="s">
+        <v>386</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D139" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E139" t="s">
+        <v>358</v>
+      </c>
+      <c r="F139" t="s">
+        <v>387</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D140" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E140" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140" t="s">
+        <v>388</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D141" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E141" t="s">
+        <v>351</v>
+      </c>
+      <c r="F141" t="s">
+        <v>389</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D142" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E142" t="s">
+        <v>360</v>
+      </c>
+      <c r="F142" t="s">
+        <v>390</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D143" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E143" t="s">
+        <v>361</v>
+      </c>
+      <c r="F143" t="s">
+        <v>391</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D144" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E144" t="s">
+        <v>362</v>
+      </c>
+      <c r="F144" t="s">
+        <v>392</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E145" t="s">
+        <v>349</v>
+      </c>
+      <c r="F145" t="s">
+        <v>393</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D146" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E146" t="s">
+        <v>363</v>
+      </c>
+      <c r="F146" t="s">
+        <v>394</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D147" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E147" t="s">
+        <v>361</v>
+      </c>
+      <c r="F147" t="s">
+        <v>395</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D148" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E148" t="s">
+        <v>364</v>
+      </c>
+      <c r="F148" t="s">
+        <v>396</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D149" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E149" t="s">
+        <v>355</v>
+      </c>
+      <c r="F149" t="s">
+        <v>397</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D150" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E150" t="s">
+        <v>363</v>
+      </c>
+      <c r="F150" t="s">
+        <v>398</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B25" t="s">
-        <v>406</v>
-      </c>
-      <c r="C25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D151" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E151" t="s">
+        <v>365</v>
+      </c>
+      <c r="F151" t="s">
+        <v>399</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D152" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E152" t="s">
+        <v>366</v>
+      </c>
+      <c r="F152" t="s">
+        <v>400</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D153" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E153" t="s">
+        <v>367</v>
+      </c>
+      <c r="F153" t="s">
+        <v>401</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B28" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D154" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E154" t="s">
+        <v>368</v>
+      </c>
+      <c r="F154" t="s">
+        <v>402</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B29" t="s">
-        <v>406</v>
-      </c>
-      <c r="C29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>347</v>
-      </c>
-      <c r="B32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B33" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>347</v>
-      </c>
-      <c r="B36" t="s">
-        <v>352</v>
-      </c>
-      <c r="C36" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" t="s">
-        <v>354</v>
-      </c>
-      <c r="C38" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>347</v>
-      </c>
-      <c r="B39" t="s">
-        <v>355</v>
-      </c>
-      <c r="C39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B40" t="s">
-        <v>356</v>
-      </c>
-      <c r="C40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>347</v>
-      </c>
-      <c r="B41" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>347</v>
-      </c>
-      <c r="B42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>347</v>
-      </c>
-      <c r="B43" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>347</v>
-      </c>
-      <c r="B44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C44" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>347</v>
-      </c>
-      <c r="B45" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" t="s">
-        <v>361</v>
-      </c>
-      <c r="C46" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" t="s">
-        <v>362</v>
-      </c>
-      <c r="C47" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>347</v>
-      </c>
-      <c r="B48" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" t="s">
-        <v>363</v>
-      </c>
-      <c r="C49" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>347</v>
-      </c>
-      <c r="B50" t="s">
-        <v>361</v>
-      </c>
-      <c r="C50" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>347</v>
-      </c>
-      <c r="B51" t="s">
-        <v>364</v>
-      </c>
-      <c r="C51" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>347</v>
-      </c>
-      <c r="B52" t="s">
-        <v>355</v>
-      </c>
-      <c r="C52" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" t="s">
-        <v>363</v>
-      </c>
-      <c r="C53" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" t="s">
-        <v>365</v>
-      </c>
-      <c r="C54" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>347</v>
-      </c>
-      <c r="B55" t="s">
-        <v>366</v>
-      </c>
-      <c r="C55" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B56" t="s">
-        <v>367</v>
-      </c>
-      <c r="C56" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>347</v>
-      </c>
-      <c r="B57" t="s">
-        <v>368</v>
-      </c>
-      <c r="C57" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>347</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D155" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E155" t="s">
         <v>348</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F155" t="s">
         <v>403</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -2296,46 +7684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A148" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/key.xlsx
+++ b/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ACEEBE-B1BA-450A-A2DD-C3AA8DCD9C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586418C-4E12-4220-9E66-B5E14960F9A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="919">
   <si>
     <t>Примечание</t>
   </si>
@@ -2340,9 +2340,6 @@
   </si>
   <si>
     <t>Герасина Марина Анатольевна</t>
-  </si>
-  <si>
-    <t>№ п/п</t>
   </si>
   <si>
     <t>№ пропуска</t>
@@ -3165,7 +3162,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3173,19 +3170,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>773</v>
       </c>
@@ -3193,2533 +3189,2272 @@
         <v>774</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>777</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>779</v>
+        <v>412</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
+      <c r="B3" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>413</v>
+        <v>776</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>777</v>
+        <v>414</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>414</v>
+        <v>782</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>780</v>
+        <v>415</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>776</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>777</v>
+        <v>416</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>417</v>
+        <v>780</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>781</v>
+        <v>418</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I4" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>4</v>
+      <c r="B5" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
+        <v>776</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>785</v>
+        <v>415</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>5</v>
+      <c r="B6" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>192</v>
+        <v>776</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>777</v>
+        <v>421</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>422</v>
+        <v>785</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>786</v>
+        <v>423</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="I6" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>6</v>
+      <c r="B7" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>425</v>
+        <v>776</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>777</v>
+        <v>426</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>427</v>
+        <v>786</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>787</v>
+        <v>428</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>7</v>
+      <c r="B8" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>430</v>
+        <v>776</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>777</v>
+        <v>431</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>432</v>
+        <v>734</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>734</v>
+        <v>433</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I8" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>8</v>
+      <c r="B9" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>435</v>
+        <v>776</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>777</v>
+        <v>436</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>437</v>
+        <v>787</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>789</v>
+        <v>442</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I10" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>10</v>
+      <c r="B11" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>444</v>
+        <v>776</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>777</v>
+        <v>445</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>446</v>
+        <v>789</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>790</v>
+        <v>447</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="I11" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>11</v>
+      <c r="B12" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>192</v>
+        <v>776</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>777</v>
+        <v>449</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>450</v>
+        <v>790</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>791</v>
+        <v>451</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="I12" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>12</v>
+      <c r="B13" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>453</v>
+        <v>776</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>777</v>
+        <v>454</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>454</v>
+        <v>823</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>40</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>42</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>43</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>53</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>56</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>59</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>62</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>64</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>65</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>65</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>66</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>67</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>69</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>70</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>72</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>73</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>74</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>75</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>76</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>78</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>79</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>80</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>82</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>83</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>84</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>85</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>87</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>89</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>91</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C65" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>92</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>93</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>94</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>97</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>27</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>30</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>39</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>40</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>43</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>50</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>51</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>53</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>55</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>56</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>59</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>62</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>64</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>65</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>65</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>66</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>67</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>68</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>69</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>70</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>72</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>73</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>74</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>75</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>76</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>78</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>79</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>80</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>82</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>83</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>84</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>85</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>87</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>89</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>91</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>92</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C69" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>99</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>100</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>101</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5">
-        <v>93</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>94</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="D72" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>102</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>103</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>104</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5">
-        <v>97</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5">
-        <v>99</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="H70" s="5" t="s">
+      <c r="E75" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>105</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>100</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>101</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>102</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>103</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>104</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>105</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="H76" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>106</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>106</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>812</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>107</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>107</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>812</v>
-      </c>
       <c r="D78" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>108</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>108</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>699</v>
-      </c>
       <c r="D79" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>109</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>109</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>901</v>
-      </c>
       <c r="D80" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>110</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="H80" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>111</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>112</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>114</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>115</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>116</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>110</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>111</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>112</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>114</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>115</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>116</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="H86" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>117</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>117</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>899</v>
-      </c>
       <c r="D87" s="5" t="s">
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="I87" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>851</v>
@@ -5731,53 +5466,47 @@
         <v>853</v>
       </c>
       <c r="H88" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>2</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>854</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>855</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>853</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
         <v>3</v>
       </c>
+      <c r="B90" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="C90" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>857</v>
@@ -5791,51 +5520,45 @@
       <c r="H90" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="I90" s="5" t="s">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>861</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>4</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>862</v>
       </c>
       <c r="G91" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="I91" s="5" t="s">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>5</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
-        <v>5</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>865</v>
@@ -5849,22 +5572,19 @@
       <c r="H92" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="I92" s="5" t="s">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>6</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>869</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5">
-        <v>6</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>870</v>
@@ -5878,22 +5598,19 @@
       <c r="H93" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="I93" s="5" t="s">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>874</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5">
-        <v>7</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>875</v>
@@ -5902,27 +5619,24 @@
         <v>876</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="I94" s="5" t="s">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>8</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <v>8</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>879</v>
@@ -5931,82 +5645,73 @@
         <v>880</v>
       </c>
       <c r="G95" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="I95" s="5" t="s">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <v>9</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="F96" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>892</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>884</v>
       </c>
       <c r="F97" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>10</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>885</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5">
-        <v>10</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>886</v>
@@ -6020,1661 +5725,1487 @@
       <c r="H98" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>898</v>
+        <v>347</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D99" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E99" t="s">
-        <v>309</v>
-      </c>
-      <c r="F99" t="s">
-        <v>325</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>898</v>
-      </c>
       <c r="C100" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C101" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D101" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D102" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" t="s">
+        <v>329</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D104" t="s">
         <v>310</v>
       </c>
-      <c r="F100" t="s">
-        <v>326</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="E104" t="s">
+        <v>330</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E101" t="s">
-        <v>311</v>
-      </c>
-      <c r="F101" t="s">
-        <v>327</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="C105" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" t="s">
+        <v>331</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C106" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D106" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" t="s">
+        <v>332</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D107" t="s">
+        <v>315</v>
+      </c>
+      <c r="E107" t="s">
+        <v>333</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D108" t="s">
+        <v>316</v>
+      </c>
+      <c r="E108" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D109" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D110" t="s">
+        <v>314</v>
+      </c>
+      <c r="E110" t="s">
+        <v>336</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D111" t="s">
+        <v>318</v>
+      </c>
+      <c r="E111" t="s">
+        <v>337</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" t="s">
+        <v>338</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D113" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" t="s">
+        <v>339</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D114" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D115" t="s">
+        <v>321</v>
+      </c>
+      <c r="E115" t="s">
+        <v>341</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D116" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" t="s">
+        <v>342</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" t="s">
+        <v>343</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D118" t="s">
+        <v>323</v>
+      </c>
+      <c r="E118" t="s">
+        <v>344</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D120" t="s">
+        <v>324</v>
+      </c>
+      <c r="E120" t="s">
+        <v>346</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D121" t="s">
         <v>312</v>
       </c>
-      <c r="F102" t="s">
-        <v>328</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="E121" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E103" t="s">
-        <v>313</v>
-      </c>
-      <c r="F103" t="s">
-        <v>329</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="C122" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D122" t="s">
+        <v>404</v>
+      </c>
+      <c r="E122" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E104" t="s">
-        <v>310</v>
-      </c>
-      <c r="F104" t="s">
-        <v>330</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="C123" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D123" t="s">
+        <v>404</v>
+      </c>
+      <c r="E123" t="s">
+        <v>371</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C124" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D124" t="s">
         <v>314</v>
       </c>
-      <c r="F105" t="s">
-        <v>331</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="E124" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E106" t="s">
-        <v>314</v>
-      </c>
-      <c r="F106" t="s">
-        <v>332</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="C125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D125" t="s">
+        <v>404</v>
+      </c>
+      <c r="E125" t="s">
+        <v>373</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E107" t="s">
-        <v>315</v>
-      </c>
-      <c r="F107" t="s">
-        <v>333</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C108" s="5" t="s">
+      <c r="C126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D126" t="s">
+        <v>404</v>
+      </c>
+      <c r="E126" t="s">
+        <v>374</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E108" t="s">
-        <v>316</v>
-      </c>
-      <c r="F108" t="s">
-        <v>334</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="C127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D127" t="s">
+        <v>405</v>
+      </c>
+      <c r="E127" t="s">
+        <v>375</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E109" t="s">
-        <v>317</v>
-      </c>
-      <c r="F109" t="s">
-        <v>335</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="C128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D128" t="s">
+        <v>350</v>
+      </c>
+      <c r="E128" t="s">
+        <v>376</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E110" t="s">
-        <v>314</v>
-      </c>
-      <c r="F110" t="s">
-        <v>336</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="C129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D129" t="s">
+        <v>350</v>
+      </c>
+      <c r="E129" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E111" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" t="s">
-        <v>337</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="C130" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D130" t="s">
+        <v>350</v>
+      </c>
+      <c r="E130" t="s">
+        <v>378</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E112" t="s">
-        <v>319</v>
-      </c>
-      <c r="F112" t="s">
-        <v>338</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="C131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D131" t="s">
+        <v>350</v>
+      </c>
+      <c r="E131" t="s">
+        <v>379</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E113" t="s">
-        <v>320</v>
-      </c>
-      <c r="F113" t="s">
-        <v>339</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C114" s="5" t="s">
+      <c r="C132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D132" t="s">
+        <v>351</v>
+      </c>
+      <c r="E132" t="s">
+        <v>380</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E114" t="s">
-        <v>320</v>
-      </c>
-      <c r="F114" t="s">
-        <v>340</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="C133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D133" t="s">
+        <v>352</v>
+      </c>
+      <c r="E133" t="s">
+        <v>381</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E115" t="s">
-        <v>321</v>
-      </c>
-      <c r="F115" t="s">
-        <v>341</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C116" s="5" t="s">
+      <c r="C134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D134" t="s">
+        <v>353</v>
+      </c>
+      <c r="E134" t="s">
+        <v>382</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E116" t="s">
-        <v>322</v>
-      </c>
-      <c r="F116" t="s">
-        <v>342</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="C135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D135" t="s">
+        <v>354</v>
+      </c>
+      <c r="E135" t="s">
+        <v>383</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E117" t="s">
-        <v>323</v>
-      </c>
-      <c r="F117" t="s">
-        <v>343</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C118" s="5" t="s">
+      <c r="C136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D136" t="s">
+        <v>355</v>
+      </c>
+      <c r="E136" t="s">
+        <v>384</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E118" t="s">
-        <v>323</v>
-      </c>
-      <c r="F118" t="s">
-        <v>344</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="C137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D137" t="s">
+        <v>356</v>
+      </c>
+      <c r="E137" t="s">
+        <v>385</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E119" t="s">
-        <v>323</v>
-      </c>
-      <c r="F119" t="s">
-        <v>345</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C120" s="5" t="s">
+      <c r="C138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D138" t="s">
+        <v>357</v>
+      </c>
+      <c r="E138" t="s">
+        <v>386</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E120" t="s">
-        <v>324</v>
-      </c>
-      <c r="F120" t="s">
-        <v>346</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C121" s="5" t="s">
+      <c r="C139" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D139" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" t="s">
+        <v>387</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E121" t="s">
-        <v>312</v>
-      </c>
-      <c r="F121" t="s">
-        <v>369</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C122" s="5" t="s">
+      <c r="C140" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D140" t="s">
+        <v>359</v>
+      </c>
+      <c r="E140" t="s">
+        <v>388</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E122" t="s">
-        <v>404</v>
-      </c>
-      <c r="F122" t="s">
-        <v>370</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C123" s="5" t="s">
+      <c r="C141" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D141" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141" t="s">
+        <v>389</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E123" t="s">
-        <v>404</v>
-      </c>
-      <c r="F123" t="s">
-        <v>371</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C124" s="5" t="s">
+      <c r="C142" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D142" t="s">
+        <v>360</v>
+      </c>
+      <c r="E142" t="s">
+        <v>390</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E124" t="s">
-        <v>314</v>
-      </c>
-      <c r="F124" t="s">
-        <v>372</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="C143" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D143" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" t="s">
+        <v>391</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E125" t="s">
-        <v>404</v>
-      </c>
-      <c r="F125" t="s">
-        <v>373</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="C144" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D144" t="s">
+        <v>362</v>
+      </c>
+      <c r="E144" t="s">
+        <v>392</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E126" t="s">
-        <v>404</v>
-      </c>
-      <c r="F126" t="s">
-        <v>374</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="C145" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D145" t="s">
+        <v>349</v>
+      </c>
+      <c r="E145" t="s">
+        <v>393</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E127" t="s">
-        <v>405</v>
-      </c>
-      <c r="F127" t="s">
-        <v>375</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C128" s="5" t="s">
+      <c r="C146" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D146" t="s">
+        <v>363</v>
+      </c>
+      <c r="E146" t="s">
+        <v>394</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E128" t="s">
-        <v>350</v>
-      </c>
-      <c r="F128" t="s">
-        <v>376</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C129" s="5" t="s">
+      <c r="C147" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D147" t="s">
+        <v>361</v>
+      </c>
+      <c r="E147" t="s">
+        <v>395</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E129" t="s">
-        <v>350</v>
-      </c>
-      <c r="F129" t="s">
-        <v>377</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="C148" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D148" t="s">
+        <v>364</v>
+      </c>
+      <c r="E148" t="s">
+        <v>396</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E130" t="s">
-        <v>350</v>
-      </c>
-      <c r="F130" t="s">
-        <v>378</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="C149" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D149" t="s">
+        <v>355</v>
+      </c>
+      <c r="E149" t="s">
+        <v>397</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E131" t="s">
-        <v>350</v>
-      </c>
-      <c r="F131" t="s">
-        <v>379</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C132" s="5" t="s">
+      <c r="C150" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D150" t="s">
+        <v>363</v>
+      </c>
+      <c r="E150" t="s">
+        <v>398</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E132" t="s">
-        <v>351</v>
-      </c>
-      <c r="F132" t="s">
-        <v>380</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="C151" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D151" t="s">
+        <v>365</v>
+      </c>
+      <c r="E151" t="s">
+        <v>399</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E133" t="s">
-        <v>352</v>
-      </c>
-      <c r="F133" t="s">
-        <v>381</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="C152" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D152" t="s">
+        <v>366</v>
+      </c>
+      <c r="E152" t="s">
+        <v>400</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E134" t="s">
-        <v>353</v>
-      </c>
-      <c r="F134" t="s">
-        <v>382</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C135" s="5" t="s">
+      <c r="C153" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D153" t="s">
+        <v>367</v>
+      </c>
+      <c r="E153" t="s">
+        <v>401</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E135" t="s">
-        <v>354</v>
-      </c>
-      <c r="F135" t="s">
-        <v>383</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="C154" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D154" t="s">
+        <v>368</v>
+      </c>
+      <c r="E154" t="s">
+        <v>402</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E136" t="s">
-        <v>355</v>
-      </c>
-      <c r="F136" t="s">
-        <v>384</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E137" t="s">
-        <v>356</v>
-      </c>
-      <c r="F137" t="s">
-        <v>385</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E138" t="s">
-        <v>357</v>
-      </c>
-      <c r="F138" t="s">
-        <v>386</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E139" t="s">
-        <v>358</v>
-      </c>
-      <c r="F139" t="s">
-        <v>387</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E140" t="s">
-        <v>359</v>
-      </c>
-      <c r="F140" t="s">
-        <v>388</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E141" t="s">
-        <v>351</v>
-      </c>
-      <c r="F141" t="s">
-        <v>389</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E142" t="s">
-        <v>360</v>
-      </c>
-      <c r="F142" t="s">
-        <v>390</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E143" t="s">
-        <v>361</v>
-      </c>
-      <c r="F143" t="s">
-        <v>391</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E144" t="s">
-        <v>362</v>
-      </c>
-      <c r="F144" t="s">
-        <v>392</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E145" t="s">
-        <v>349</v>
-      </c>
-      <c r="F145" t="s">
-        <v>393</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E146" t="s">
-        <v>363</v>
-      </c>
-      <c r="F146" t="s">
-        <v>394</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E147" t="s">
-        <v>361</v>
-      </c>
-      <c r="F147" t="s">
-        <v>395</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E148" t="s">
-        <v>364</v>
-      </c>
-      <c r="F148" t="s">
-        <v>396</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E149" t="s">
-        <v>355</v>
-      </c>
-      <c r="F149" t="s">
-        <v>397</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E150" t="s">
-        <v>363</v>
-      </c>
-      <c r="F150" t="s">
-        <v>398</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E151" t="s">
-        <v>365</v>
-      </c>
-      <c r="F151" t="s">
-        <v>399</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E152" t="s">
-        <v>366</v>
-      </c>
-      <c r="F152" t="s">
-        <v>400</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E153" t="s">
-        <v>367</v>
-      </c>
-      <c r="F153" t="s">
-        <v>401</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E154" t="s">
-        <v>368</v>
-      </c>
-      <c r="F154" t="s">
-        <v>402</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>898</v>
-      </c>
       <c r="C155" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
+      </c>
+      <c r="D155" t="s">
+        <v>348</v>
       </c>
       <c r="E155" t="s">
-        <v>348</v>
-      </c>
-      <c r="F155" t="s">
         <v>403</v>
       </c>
+      <c r="F155" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="G155" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586418C-4E12-4220-9E66-B5E14960F9A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6CB1A-6535-463A-BFC7-18916B06F476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="918">
   <si>
     <t>Примечание</t>
   </si>
@@ -2559,9 +2559,6 @@
   </si>
   <si>
     <t>Кочнева Лариса Михайловна</t>
-  </si>
-  <si>
-    <t>Плетнев АлексейВладимирович</t>
   </si>
   <si>
     <t>Канокова Инна Николаевна</t>
@@ -3162,10 +3159,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3227,7 @@
         <v>412</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,7 +3253,7 @@
         <v>415</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3308,7 +3305,7 @@
         <v>415</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3516,7 +3513,7 @@
         <v>455</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3550,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>776</v>
@@ -3654,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>776</v>
@@ -3706,7 +3703,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>776</v>
@@ -3750,7 +3747,7 @@
         <v>492</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3784,7 +3781,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>776</v>
@@ -3810,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>776</v>
@@ -3836,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>776</v>
@@ -3914,7 +3911,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>776</v>
@@ -3940,7 +3937,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>776</v>
@@ -3966,7 +3963,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>776</v>
@@ -4096,7 +4093,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>776</v>
@@ -4122,7 +4119,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>776</v>
@@ -4148,7 +4145,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>827</v>
@@ -4174,7 +4171,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>776</v>
@@ -4226,7 +4223,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>776</v>
@@ -4252,7 +4249,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>776</v>
@@ -4278,7 +4275,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>776</v>
@@ -4304,7 +4301,7 @@
         <v>65</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>776</v>
@@ -4327,48 +4324,48 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>846</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>578</v>
@@ -4379,2833 +4376,2807 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>847</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>898</v>
+        <v>192</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>848</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>192</v>
+        <v>897</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>849</v>
+        <v>735</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>898</v>
+        <v>598</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>598</v>
+        <v>897</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>898</v>
+        <v>607</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>605</v>
+        <v>906</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>607</v>
+        <v>897</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>907</v>
+        <v>613</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>898</v>
+        <v>623</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>623</v>
+        <v>897</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>898</v>
+        <v>192</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>636</v>
+        <v>192</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>192</v>
+        <v>898</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>824</v>
+        <v>776</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>647</v>
+        <v>907</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>899</v>
+        <v>192</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>776</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>908</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>192</v>
+        <v>897</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>909</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>910</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>911</v>
+        <v>663</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>896</v>
+        <v>192</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>192</v>
+        <v>911</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>807</v>
+        <v>916</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>667</v>
+        <v>912</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>917</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>913</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>912</v>
+        <v>675</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>918</v>
+        <v>826</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>914</v>
+        <v>678</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>675</v>
+        <v>897</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>808</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>689</v>
+        <v>913</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>898</v>
+        <v>811</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>914</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>811</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>694</v>
+        <v>445</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>811</v>
+        <v>699</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>445</v>
+        <v>700</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>915</v>
+        <v>702</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>699</v>
+        <v>899</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>898</v>
+        <v>192</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>817</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>192</v>
+        <v>720</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>720</v>
+        <v>897</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>724</v>
+        <v>416</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>416</v>
+        <v>730</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>821</v>
+        <v>889</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>730</v>
+        <v>849</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>731</v>
+        <v>850</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>772</v>
+        <v>851</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>732</v>
+        <v>852</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>733</v>
+        <v>892</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>853</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>856</v>
+        <v>502</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>859</v>
-      </c>
       <c r="H90" s="5" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>502</v>
+        <v>863</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>872</v>
-      </c>
       <c r="H93" s="5" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>880</v>
+        <v>915</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>9</v>
+      <c r="A96" s="6" t="s">
+        <v>894</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>895</v>
+      <c r="A97" s="5">
+        <v>10</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>916</v>
+        <v>886</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>887</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>10</v>
+      <c r="A98" s="5" t="s">
+        <v>896</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>897</v>
+        <v>347</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>886</v>
+        <v>896</v>
+      </c>
+      <c r="D98" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" t="s">
+        <v>325</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E100" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D102" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D105" t="s">
         <v>314</v>
       </c>
       <c r="E105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E106" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E108" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D110" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D112" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E112" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D113" t="s">
         <v>320</v>
       </c>
       <c r="E113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D117" t="s">
         <v>323</v>
       </c>
       <c r="E117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D118" t="s">
         <v>323</v>
       </c>
       <c r="E118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E120" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D121" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="E121" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D122" t="s">
         <v>404</v>
       </c>
       <c r="E122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D123" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="E123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D124" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="E124" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D125" t="s">
         <v>404</v>
       </c>
       <c r="E125" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D127" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D128" t="s">
         <v>350</v>
       </c>
       <c r="E128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D129" t="s">
         <v>350</v>
       </c>
       <c r="E129" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D130" t="s">
         <v>350</v>
       </c>
       <c r="E130" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E131" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E132" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E133" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E134" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E135" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E136" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E137" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E138" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D139" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E139" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D140" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E140" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D141" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E141" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D142" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E142" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E143" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E144" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D145" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E145" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D146" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E146" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D147" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E147" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D148" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E148" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D149" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D150" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E150" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D151" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E151" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E152" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E153" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E154" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="D155" t="s">
-        <v>348</v>
-      </c>
-      <c r="E155" t="s">
-        <v>403</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/key.xlsx
+++ b/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\xxx\work-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6CB1A-6535-463A-BFC7-18916B06F476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5C6EA-8DAC-4AC3-9F61-20FA29FE83A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="917">
   <si>
     <t>Примечание</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Старший смены</t>
   </si>
   <si>
-    <t>8 988 403 76 21</t>
-  </si>
-  <si>
     <t>К 203 СУ 123</t>
   </si>
   <si>
@@ -1295,12 +1292,6 @@
     <t>Кладовщик</t>
   </si>
   <si>
-    <t>8 918 905 56 95</t>
-  </si>
-  <si>
-    <t>Въезд КПП 5 возле поля   </t>
-  </si>
-  <si>
     <t>Лада Гранта</t>
   </si>
   <si>
@@ -1310,9 +1301,6 @@
     <t>Бригадир ИТС</t>
   </si>
   <si>
-    <t>8 989 160 39 02</t>
-  </si>
-  <si>
     <t>БФ ГК</t>
   </si>
   <si>
@@ -1325,9 +1313,6 @@
     <t>Руководитель СВК</t>
   </si>
   <si>
-    <t>8 988 188 27 52</t>
-  </si>
-  <si>
     <t>АБК 14</t>
   </si>
   <si>
@@ -1340,9 +1325,6 @@
     <t>Зам. рук. СПР</t>
   </si>
   <si>
-    <t>8 928 259 78 28</t>
-  </si>
-  <si>
     <t>ГК – БФ</t>
   </si>
   <si>
@@ -1352,9 +1334,6 @@
     <t>Программист</t>
   </si>
   <si>
-    <t>8 928 457 72 20</t>
-  </si>
-  <si>
     <t>АБК 7</t>
   </si>
   <si>
@@ -1367,9 +1346,6 @@
     <t>Руководитель СООП</t>
   </si>
   <si>
-    <t>8 989 754 61 60</t>
-  </si>
-  <si>
     <t>Хюндай Солярис</t>
   </si>
   <si>
@@ -1379,9 +1355,6 @@
     <t>Старший повар</t>
   </si>
   <si>
-    <t>8 988 507 67 48</t>
-  </si>
-  <si>
     <t>АБК главный вход</t>
   </si>
   <si>
@@ -1391,9 +1364,6 @@
     <t>Инженер систем вентиляции</t>
   </si>
   <si>
-    <t>КПП 5 возле поля   </t>
-  </si>
-  <si>
     <t>Лада Веста</t>
   </si>
   <si>
@@ -1403,9 +1373,6 @@
     <t>Отделочник</t>
   </si>
   <si>
-    <t>8 918 303 63 87</t>
-  </si>
-  <si>
     <t>Киа Рио</t>
   </si>
   <si>
@@ -1415,9 +1382,6 @@
     <t>Спец. отдела бронирования</t>
   </si>
   <si>
-    <t>8 918 604 62 62</t>
-  </si>
-  <si>
     <t>Хонда Цивик</t>
   </si>
   <si>
@@ -1427,9 +1391,6 @@
     <t>Старший администратор СПР</t>
   </si>
   <si>
-    <t>8 938 463 18 77</t>
-  </si>
-  <si>
     <t xml:space="preserve">АБК 10 </t>
   </si>
   <si>
@@ -1442,9 +1403,6 @@
     <t>Спец.  отд. бронирования</t>
   </si>
   <si>
-    <t>8 918 406 17 82</t>
-  </si>
-  <si>
     <t>Мазда Просид Марве</t>
   </si>
   <si>
@@ -1454,9 +1412,6 @@
     <t>Провизор МЦ</t>
   </si>
   <si>
-    <t>8 918 305 04 73</t>
-  </si>
-  <si>
     <t>Шевроле Круз</t>
   </si>
   <si>
@@ -1466,9 +1421,6 @@
     <t>Техник по обсл. бассейнов</t>
   </si>
   <si>
-    <t>8 999 656 26 76</t>
-  </si>
-  <si>
     <t>АБК 11</t>
   </si>
   <si>
@@ -1481,9 +1433,6 @@
     <t>Зам. главного врача</t>
   </si>
   <si>
-    <t>8 989 751 64 80</t>
-  </si>
-  <si>
     <t>Хендэ Грета</t>
   </si>
   <si>
@@ -1493,9 +1442,6 @@
     <t>ТЛФ оператор СПР</t>
   </si>
   <si>
-    <t>8 918 106 39 35</t>
-  </si>
-  <si>
     <t>Е 736 ВР 193</t>
   </si>
   <si>
@@ -1514,9 +1460,6 @@
     <t>Санитарный врач</t>
   </si>
   <si>
-    <t>8 918 409 28 22</t>
-  </si>
-  <si>
     <t>Тойота Королла</t>
   </si>
   <si>
@@ -1526,9 +1469,6 @@
     <t>Инженер по обслуживания медтехники</t>
   </si>
   <si>
-    <t>8 902 407 87 65</t>
-  </si>
-  <si>
     <t>Лада Приора</t>
   </si>
   <si>
@@ -1538,9 +1478,6 @@
     <t>Сантехник</t>
   </si>
   <si>
-    <t>8 967 316 51 88</t>
-  </si>
-  <si>
     <t>Тойота Марк</t>
   </si>
   <si>
@@ -1550,18 +1487,12 @@
     <t>Администратор СПР</t>
   </si>
   <si>
-    <t xml:space="preserve">8 953 087 69 87 </t>
-  </si>
-  <si>
     <t>ВАЗ 21124</t>
   </si>
   <si>
     <t>Н 143 СН 93</t>
   </si>
   <si>
-    <t>8 928 457 45 60</t>
-  </si>
-  <si>
     <t>АБК 8</t>
   </si>
   <si>
@@ -1574,18 +1505,12 @@
     <t>Экономист</t>
   </si>
   <si>
-    <t>8 922 718 40 33</t>
-  </si>
-  <si>
     <t>Шевроле Авео</t>
   </si>
   <si>
     <t>Е 182 ХН 123</t>
   </si>
   <si>
-    <t>8 928 377 00 80</t>
-  </si>
-  <si>
     <t>Мерседес Бенц</t>
   </si>
   <si>
@@ -1595,15 +1520,9 @@
     <t>Техник по кондиционер.</t>
   </si>
   <si>
-    <t>8 989 083 78 12</t>
-  </si>
-  <si>
     <t>В 249 АУ 193</t>
   </si>
   <si>
-    <t>8 988 189 20 56</t>
-  </si>
-  <si>
     <t>АБК 4</t>
   </si>
   <si>
@@ -1616,30 +1535,18 @@
     <t>Рук. сан. – кур. Направления</t>
   </si>
   <si>
-    <t>8 928 457 98 09</t>
-  </si>
-  <si>
-    <t>БФ   </t>
-  </si>
-  <si>
     <t>БМВ Мини</t>
   </si>
   <si>
     <t>Р 4160 РАВН</t>
   </si>
   <si>
-    <t>8 968 261 02 22</t>
-  </si>
-  <si>
     <t>С 452 ВУ 123</t>
   </si>
   <si>
     <t>Менеджер пляжа</t>
   </si>
   <si>
-    <t>8 918 406 90 14</t>
-  </si>
-  <si>
     <t>Ниссан Х-Трейл</t>
   </si>
   <si>
@@ -1649,27 +1556,18 @@
     <t>Спец. по охране труда</t>
   </si>
   <si>
-    <t>8 928 459 94 85</t>
-  </si>
-  <si>
     <t>Рено Сценик</t>
   </si>
   <si>
     <t>Р 984 МХ 123</t>
   </si>
   <si>
-    <t>8 918 903 77 31</t>
-  </si>
-  <si>
     <t>Форд Focus</t>
   </si>
   <si>
     <t>Инженер-теплотехник</t>
   </si>
   <si>
-    <t>8 900 001 94 34</t>
-  </si>
-  <si>
     <t>ДЭУ МАТИЗ</t>
   </si>
   <si>
@@ -1679,9 +1577,6 @@
     <t>Врач</t>
   </si>
   <si>
-    <t>8 918 418 71 80</t>
-  </si>
-  <si>
     <t>Ауди А4</t>
   </si>
   <si>
@@ -1691,9 +1586,6 @@
     <t>Менеджер по продажам</t>
   </si>
   <si>
-    <t>8 918 608 77 70</t>
-  </si>
-  <si>
     <t>Мерседес-Бенц Е200</t>
   </si>
   <si>
@@ -1703,9 +1595,6 @@
     <t>Оператор СПЗ</t>
   </si>
   <si>
-    <t>8 918 455 06 56</t>
-  </si>
-  <si>
     <t>КИА Венга</t>
   </si>
   <si>
@@ -1715,18 +1604,12 @@
     <t>Косметолог  ОСК</t>
   </si>
   <si>
-    <t>8 925 327 18 33</t>
-  </si>
-  <si>
     <t>Киа Церато</t>
   </si>
   <si>
     <t>А 059 УА 134</t>
   </si>
   <si>
-    <t>8 988 152 16 78</t>
-  </si>
-  <si>
     <t>Мицубиси ASX</t>
   </si>
   <si>
@@ -1736,9 +1619,6 @@
     <t>МЦ Сестра-хозяйка</t>
   </si>
   <si>
-    <t>8 913 801 38 10</t>
-  </si>
-  <si>
     <t>Лада ВАЗ 211440</t>
   </si>
   <si>
@@ -1748,9 +1628,6 @@
     <t>Хаусмен (разнорабочий)</t>
   </si>
   <si>
-    <t>8 964 942 11 76</t>
-  </si>
-  <si>
     <t>Ниссан Микра</t>
   </si>
   <si>
@@ -1760,9 +1637,6 @@
     <t>Врач акушер – гинеколог</t>
   </si>
   <si>
-    <t>8 988 925 04 80</t>
-  </si>
-  <si>
     <t>Хендэ Грант Санта Фе</t>
   </si>
   <si>
@@ -1778,9 +1652,6 @@
     <t>Инспектор-контролер</t>
   </si>
   <si>
-    <t>8 988 288 06 99</t>
-  </si>
-  <si>
     <t>Шевролет Нива</t>
   </si>
   <si>
@@ -1790,9 +1661,6 @@
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>8 918 300 30 93</t>
-  </si>
-  <si>
     <t>ТОЙОТА ВИТЦ</t>
   </si>
   <si>
@@ -1802,9 +1670,6 @@
     <t>Бухгалтер по доходам</t>
   </si>
   <si>
-    <t>8 938 870 60 50</t>
-  </si>
-  <si>
     <t>Фольксва-ген Поло</t>
   </si>
   <si>
@@ -1814,9 +1679,6 @@
     <t>Инспектор-контролер СВК</t>
   </si>
   <si>
-    <t>8 989 757 42 94</t>
-  </si>
-  <si>
     <t>НОЧ-НОЙ</t>
   </si>
   <si>
@@ -1829,9 +1691,6 @@
     <t xml:space="preserve">Техник по обслуживанию бассейнов </t>
   </si>
   <si>
-    <t xml:space="preserve">8 918 402 76 61 </t>
-  </si>
-  <si>
     <t>БМВ</t>
   </si>
   <si>
@@ -1841,9 +1700,6 @@
     <t>ДОСУГ администратор</t>
   </si>
   <si>
-    <t>8 903 479 19 45</t>
-  </si>
-  <si>
     <t>ПОЛЕ</t>
   </si>
   <si>
@@ -1853,9 +1709,6 @@
     <t>А 203 НТ 01</t>
   </si>
   <si>
-    <t>8 918 420 40 03</t>
-  </si>
-  <si>
     <t>Мотоцикл Хонда СВ400 SFV-TEC</t>
   </si>
   <si>
@@ -1865,9 +1718,6 @@
     <t>СООП сервис-менеджер</t>
   </si>
   <si>
-    <t>8 967 305 23 16</t>
-  </si>
-  <si>
     <t>КИА PICANTO</t>
   </si>
   <si>
@@ -1877,9 +1727,6 @@
     <t>СПА косметолог</t>
   </si>
   <si>
-    <t>8 953 114 61 57</t>
-  </si>
-  <si>
     <t>Тойта RAV 4</t>
   </si>
   <si>
@@ -1889,9 +1736,6 @@
     <t xml:space="preserve">ИТС кондиционер-щик </t>
   </si>
   <si>
-    <t>8 989 162 15 85</t>
-  </si>
-  <si>
     <t>БФ и ПОЛЕ</t>
   </si>
   <si>
@@ -1904,9 +1748,6 @@
     <t>Специалист ОП</t>
   </si>
   <si>
-    <t>8 938 439 67 52</t>
-  </si>
-  <si>
     <t>ПЕЖО 308</t>
   </si>
   <si>
@@ -1916,9 +1757,6 @@
     <t>Менеджер по работе с гостями</t>
   </si>
   <si>
-    <t>8 962 882 88 50</t>
-  </si>
-  <si>
     <t>ОПЕЛЬ ASTRA</t>
   </si>
   <si>
@@ -1928,9 +1766,6 @@
     <t>Экономист фин. отдел</t>
   </si>
   <si>
-    <t>8 967 646 41 00</t>
-  </si>
-  <si>
     <t>АБК 12</t>
   </si>
   <si>
@@ -1943,9 +1778,6 @@
     <t>Руководитель ОСК</t>
   </si>
   <si>
-    <t>8 918 401 00 63</t>
-  </si>
-  <si>
     <t xml:space="preserve">Фольксваген Пассат СС </t>
   </si>
   <si>
@@ -1967,45 +1799,30 @@
     <t xml:space="preserve">Менеджер ресторана </t>
   </si>
   <si>
-    <t>8 988 069 95 12</t>
-  </si>
-  <si>
     <t>Фольксваген Поло</t>
   </si>
   <si>
     <t>О 282 НЕ 123</t>
   </si>
   <si>
-    <t>8 918 600 06 24</t>
-  </si>
-  <si>
     <t>Тойота Приус</t>
   </si>
   <si>
     <t>А 295 КС 193</t>
   </si>
   <si>
-    <t>8 989 085 9131</t>
-  </si>
-  <si>
     <t>Тойота Чайзер</t>
   </si>
   <si>
     <t>Р 722 ХВ123</t>
   </si>
   <si>
-    <t>8 918 05 07 02</t>
-  </si>
-  <si>
     <t>Фольксваген Туарег</t>
   </si>
   <si>
     <t>М 594 МА 193</t>
   </si>
   <si>
-    <t>8 977 345 48 78</t>
-  </si>
-  <si>
     <t>Форд Мондео</t>
   </si>
   <si>
@@ -2015,9 +1832,6 @@
     <t>Инженер по пож. Безопасности</t>
   </si>
   <si>
-    <t>8 921 693 97 01</t>
-  </si>
-  <si>
     <t>Мерседес Бенц В 200</t>
   </si>
   <si>
@@ -2027,9 +1841,6 @@
     <t>Ст.менеджер по маркетингу и рекламе</t>
   </si>
   <si>
-    <t>8 960 48 48 096</t>
-  </si>
-  <si>
     <t>Мотоцикл QJSTELS FLAME 200</t>
   </si>
   <si>
@@ -2045,9 +1856,6 @@
     <t>У318 ЕЕ123</t>
   </si>
   <si>
-    <t>8 950 966 11 19</t>
-  </si>
-  <si>
     <t>ГК№4</t>
   </si>
   <si>
@@ -2060,9 +1868,6 @@
     <t>СПиР руководитель</t>
   </si>
   <si>
-    <t>8 964 946 49 46</t>
-  </si>
-  <si>
     <t>ОПЕЛЬ АСТРА</t>
   </si>
   <si>
@@ -2072,9 +1877,6 @@
     <t>Зам.гл. бухгалтера</t>
   </si>
   <si>
-    <t xml:space="preserve">8 928 259 79 57                                                 </t>
-  </si>
-  <si>
     <t>HYUNDAI  IX 35</t>
   </si>
   <si>
@@ -2084,42 +1886,27 @@
     <t>Бухгалтер-калькулятор</t>
   </si>
   <si>
-    <t xml:space="preserve">8 988 237 10 37                                                 </t>
-  </si>
-  <si>
     <t>М 851 ВН134</t>
   </si>
   <si>
     <t>Администратор пляжа</t>
   </si>
   <si>
-    <t xml:space="preserve">8 988 281 74 47                                                 </t>
-  </si>
-  <si>
     <t>ТОЙОТА РАКТИС</t>
   </si>
   <si>
     <t>Е136 ВВ 193</t>
   </si>
   <si>
-    <t xml:space="preserve">8 905 954 40 55                                     </t>
-  </si>
-  <si>
     <t>Шкода Октавия</t>
   </si>
   <si>
     <t>К 422 ВМ 29</t>
   </si>
   <si>
-    <t>8 960 019 18 19</t>
-  </si>
-  <si>
     <t>Р 204 СС 123</t>
   </si>
   <si>
-    <t>8 999 656 46 96</t>
-  </si>
-  <si>
     <t>БФ№6</t>
   </si>
   <si>
@@ -2132,9 +1919,6 @@
     <t>Руководитель юр. отд.</t>
   </si>
   <si>
-    <t>8 918 109 08 86</t>
-  </si>
-  <si>
     <t>Шевроле Орландо</t>
   </si>
   <si>
@@ -2144,9 +1928,6 @@
     <t>Специалист отд. бронирования</t>
   </si>
   <si>
-    <t>8 918 004 22 35</t>
-  </si>
-  <si>
     <t>Грейт Уолл</t>
   </si>
   <si>
@@ -2156,9 +1937,6 @@
     <t>МЦ врач УЗИ</t>
   </si>
   <si>
-    <t>9 902 260 29 88</t>
-  </si>
-  <si>
     <t>КИА АМ СОУЛ</t>
   </si>
   <si>
@@ -2168,9 +1946,6 @@
     <t>МЦ врач кардиолог</t>
   </si>
   <si>
-    <t xml:space="preserve">8 918 497 37 33                                                 </t>
-  </si>
-  <si>
     <t>КИА РИО</t>
   </si>
   <si>
@@ -2180,9 +1955,6 @@
     <t>Бухгалтер по учету ТМЦ</t>
   </si>
   <si>
-    <t xml:space="preserve">8 967 319 42 28                                                   </t>
-  </si>
-  <si>
     <t>АБК 3</t>
   </si>
   <si>
@@ -2192,9 +1964,6 @@
     <t>ОС руководитель</t>
   </si>
   <si>
-    <t>8 977 700 09 99</t>
-  </si>
-  <si>
     <t>Мицубиси Оутлендер</t>
   </si>
   <si>
@@ -2204,15 +1973,9 @@
     <t>ФИН служба бухгалтер-кассир</t>
   </si>
   <si>
-    <t>8 988 504 47 24</t>
-  </si>
-  <si>
     <t>К 233 ВР 193</t>
   </si>
   <si>
-    <t>8 996 405 60 91</t>
-  </si>
-  <si>
     <t>Мицубиси Лансер</t>
   </si>
   <si>
@@ -2222,9 +1985,6 @@
     <t>СООП-ресторан официант</t>
   </si>
   <si>
-    <t>8 918 106 60 18</t>
-  </si>
-  <si>
     <t>Петрушенкин Дмитрий Александрович</t>
   </si>
   <si>
@@ -2600,18 +2360,12 @@
     <t>ИП Дятлова</t>
   </si>
   <si>
-    <t>8 918 000 49 48</t>
-  </si>
-  <si>
     <t>А 652 КО 123</t>
   </si>
   <si>
     <t>Терентьев Александр Алексеевич</t>
   </si>
   <si>
-    <t>8 918 100 05 58</t>
-  </si>
-  <si>
     <t>Тойота Камри</t>
   </si>
   <si>
@@ -2624,9 +2378,6 @@
     <t>ООО «Фуд Аэро» (спиртное)</t>
   </si>
   <si>
-    <t>8 918 407 49 58</t>
-  </si>
-  <si>
     <t>Мерсе-дес Бенц Е300</t>
   </si>
   <si>
@@ -2639,9 +2390,6 @@
     <t>ИП Гайсина</t>
   </si>
   <si>
-    <t>8 919 123 18 03</t>
-  </si>
-  <si>
     <t>Тойота Аква Гибрид</t>
   </si>
   <si>
@@ -2651,9 +2399,6 @@
     <t xml:space="preserve">Мельникова Юлия Александровна </t>
   </si>
   <si>
-    <t>8 918 908 77 56</t>
-  </si>
-  <si>
     <t>Мицубиси Делика</t>
   </si>
   <si>
@@ -2663,9 +2408,6 @@
     <t>Мельников Сергей Петрович</t>
   </si>
   <si>
-    <t>8 988 161 74 11</t>
-  </si>
-  <si>
     <t>Н 004 ЕА 174</t>
   </si>
   <si>
@@ -2687,24 +2429,12 @@
     <t>ООО «ПрофСекью-рити»</t>
   </si>
   <si>
-    <t>8 999 795 13 35</t>
-  </si>
-  <si>
     <t>17.12.21 31.12.22</t>
   </si>
   <si>
     <t>02.02.22 31.12.22</t>
   </si>
   <si>
-    <t>8 902 895 11 27  8 904 815 00 30</t>
-  </si>
-  <si>
-    <t>8 918 359 96 98 Евгений  8 989 160 60 99 Юлия Парамок</t>
-  </si>
-  <si>
-    <t>8 902 895 11 27  8 904 815 00 31</t>
-  </si>
-  <si>
     <t>9/1</t>
   </si>
   <si>
@@ -2723,21 +2453,6 @@
     <t>Линия 3 сменный</t>
   </si>
   <si>
-    <t>8 928 457 34 41. 8 988 282 38 80</t>
-  </si>
-  <si>
-    <t>8 928 457 08 22. 8 928 259 02 37</t>
-  </si>
-  <si>
-    <t>8 928 850 17 95. 8 918 104 19 66</t>
-  </si>
-  <si>
-    <t>8 928 459 74 87. 8 905 885 97 91</t>
-  </si>
-  <si>
-    <t>8 918 108 20 19. 8 989 750 67 78</t>
-  </si>
-  <si>
     <t>поле. КПП № 5</t>
   </si>
   <si>
@@ -2775,6 +2490,288 @@
   </si>
   <si>
     <t>10.03.22 до выс. сезона</t>
+  </si>
+  <si>
+    <t>8 928 457 34 41. 8 988 282 38 80</t>
+  </si>
+  <si>
+    <t>8 928 457 08 22. 8 928 259 02 37</t>
+  </si>
+  <si>
+    <t>8 988 403 76 21</t>
+  </si>
+  <si>
+    <t>8 928 850 17 95. 8 918 104 19 66</t>
+  </si>
+  <si>
+    <t>8 918 905 56 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Въезд КПП 5 возле поля   </t>
+  </si>
+  <si>
+    <t>8 989 160 39 02</t>
+  </si>
+  <si>
+    <t>8 988 188 27 52</t>
+  </si>
+  <si>
+    <t>8 928 259 78 28</t>
+  </si>
+  <si>
+    <t>8 928 457 72 20</t>
+  </si>
+  <si>
+    <t>8 989 754 61 60</t>
+  </si>
+  <si>
+    <t>8 988 507 67 48</t>
+  </si>
+  <si>
+    <t>8 928 459 74 87. 8 905 885 97 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПП 5 возле поля   </t>
+  </si>
+  <si>
+    <t>8 918 303 63 87</t>
+  </si>
+  <si>
+    <t>8 918 604 62 62</t>
+  </si>
+  <si>
+    <t>8 938 463 18 77</t>
+  </si>
+  <si>
+    <t>8 918 406 17 82</t>
+  </si>
+  <si>
+    <t>8 918 305 04 73</t>
+  </si>
+  <si>
+    <t>8 999 656 26 76</t>
+  </si>
+  <si>
+    <t>8 989 751 64 80</t>
+  </si>
+  <si>
+    <t>8 918 106 39 35</t>
+  </si>
+  <si>
+    <t>8 918 108 20 19. 8 989 750 67 78</t>
+  </si>
+  <si>
+    <t>8 918 409 28 22</t>
+  </si>
+  <si>
+    <t>8 902 407 87 65</t>
+  </si>
+  <si>
+    <t>8 967 316 51 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 953 087 69 87 </t>
+  </si>
+  <si>
+    <t>8 928 457 45 60</t>
+  </si>
+  <si>
+    <t>8 922 718 40 33</t>
+  </si>
+  <si>
+    <t>8 928 377 00 80</t>
+  </si>
+  <si>
+    <t>8 989 083 78 12</t>
+  </si>
+  <si>
+    <t>8 988 189 20 56</t>
+  </si>
+  <si>
+    <t>8 928 457 98 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БФ   </t>
+  </si>
+  <si>
+    <t>8 968 261 02 22</t>
+  </si>
+  <si>
+    <t>8 918 406 90 14</t>
+  </si>
+  <si>
+    <t>8 928 459 94 85</t>
+  </si>
+  <si>
+    <t>8 918 903 77 31</t>
+  </si>
+  <si>
+    <t>8 900 001 94 34</t>
+  </si>
+  <si>
+    <t>8 918 418 71 80</t>
+  </si>
+  <si>
+    <t>8 918 608 77 70</t>
+  </si>
+  <si>
+    <t>8 918 455 06 56</t>
+  </si>
+  <si>
+    <t>8 925 327 18 33</t>
+  </si>
+  <si>
+    <t>8 988 152 16 78</t>
+  </si>
+  <si>
+    <t>8 913 801 38 10</t>
+  </si>
+  <si>
+    <t>8 964 942 11 76</t>
+  </si>
+  <si>
+    <t>8 988 925 04 80</t>
+  </si>
+  <si>
+    <t>8 988 288 06 99</t>
+  </si>
+  <si>
+    <t>8 918 300 30 93</t>
+  </si>
+  <si>
+    <t>8 938 870 60 50</t>
+  </si>
+  <si>
+    <t>8 989 757 42 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 918 402 76 61 </t>
+  </si>
+  <si>
+    <t>8 903 479 19 45</t>
+  </si>
+  <si>
+    <t>8 918 420 40 03</t>
+  </si>
+  <si>
+    <t>8 967 305 23 16</t>
+  </si>
+  <si>
+    <t>8 953 114 61 57</t>
+  </si>
+  <si>
+    <t>8 989 162 15 85</t>
+  </si>
+  <si>
+    <t>8 938 439 67 52</t>
+  </si>
+  <si>
+    <t>8 962 882 88 50</t>
+  </si>
+  <si>
+    <t>8 967 646 41 00</t>
+  </si>
+  <si>
+    <t>8 918 401 00 63</t>
+  </si>
+  <si>
+    <t>8 988 069 95 12</t>
+  </si>
+  <si>
+    <t>8 918 600 06 24</t>
+  </si>
+  <si>
+    <t>8 918 05 07 02</t>
+  </si>
+  <si>
+    <t>8 977 345 48 78</t>
+  </si>
+  <si>
+    <t>8 921 693 97 01</t>
+  </si>
+  <si>
+    <t>8 960 48 48 096</t>
+  </si>
+  <si>
+    <t>8 950 966 11 19</t>
+  </si>
+  <si>
+    <t>8 964 946 49 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 928 259 79 57                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 988 237 10 37                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 988 281 74 47                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 905 954 40 55                                     </t>
+  </si>
+  <si>
+    <t>8 960 019 18 19</t>
+  </si>
+  <si>
+    <t>8 999 656 46 96</t>
+  </si>
+  <si>
+    <t>8 918 109 08 86</t>
+  </si>
+  <si>
+    <t>8 918 004 22 35</t>
+  </si>
+  <si>
+    <t>9 902 260 29 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 918 497 37 33                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 967 319 42 28                                                   </t>
+  </si>
+  <si>
+    <t>8 977 700 09 99</t>
+  </si>
+  <si>
+    <t>8 988 504 47 24</t>
+  </si>
+  <si>
+    <t>8 996 405 60 91</t>
+  </si>
+  <si>
+    <t>8 918 106 60 18</t>
+  </si>
+  <si>
+    <t>8 918 359 96 98 Евгений  8 989 160 60 99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>8 918 000 49 48</t>
+  </si>
+  <si>
+    <t>8 918 100 05 58</t>
+  </si>
+  <si>
+    <t>8 918 407 49 58</t>
+  </si>
+  <si>
+    <t>8 919 123 18 03</t>
+  </si>
+  <si>
+    <t>8 918 908 77 56</t>
+  </si>
+  <si>
+    <t>8 988 161 74 11</t>
+  </si>
+  <si>
+    <t>8 902 895 11 27  8 904 815 00 30</t>
+  </si>
+  <si>
+    <t>8 902 895 11 27  8 904 815 00 31</t>
+  </si>
+  <si>
+    <t>8 999 795 13 35</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2852,6 +2849,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3161,8 +3161,8 @@
   </sheetPr>
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,19 +3180,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>773</v>
+        <v>693</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>774</v>
+        <v>694</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>775</v>
+        <v>695</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>781</v>
+        <v>701</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>407</v>
@@ -3212,22 +3212,22 @@
         <v>410</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>777</v>
+        <v>697</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>411</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>778</v>
+        <v>698</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>412</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>900</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,22 +3238,22 @@
         <v>413</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>414</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>782</v>
+        <v>702</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>415</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>901</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>416</v>
@@ -3273,13 +3273,13 @@
         <v>417</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>780</v>
+        <v>700</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>418</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>419</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,22 +3290,22 @@
         <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>784</v>
+        <v>704</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>415</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>902</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3316,22 +3316,22 @@
         <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>424</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3339,25 +3339,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>429</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,25 +3365,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>734</v>
+        <v>654</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>434</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3391,25 +3391,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>439</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3417,25 +3417,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>443</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3443,25 +3443,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>789</v>
+        <v>709</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>448</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,22 +3472,22 @@
         <v>192</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>452</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3495,25 +3495,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>823</v>
+        <v>743</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>791</v>
+        <v>711</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>903</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3521,25 +3521,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>456</v>
+        <v>836</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>460</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,25 +3547,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>793</v>
+        <v>713</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>464</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,25 +3573,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>456</v>
+        <v>836</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>794</v>
+        <v>714</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>468</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3599,25 +3599,25 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>473</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3628,22 +3628,22 @@
         <v>192</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>796</v>
+        <v>716</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>477</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3651,25 +3651,25 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>481</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,25 +3677,25 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>798</v>
+        <v>718</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>486</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3703,25 +3703,25 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>490</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3732,22 +3732,22 @@
         <v>192</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>904</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3755,25 +3755,25 @@
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>801</v>
+        <v>721</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>497</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3781,25 +3781,25 @@
         <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>501</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,25 +3807,25 @@
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>505</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3833,25 +3833,25 @@
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>834</v>
+        <v>754</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>509</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3862,22 +3862,22 @@
         <v>192</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>835</v>
+        <v>755</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>231</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>512</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3885,25 +3885,25 @@
         <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>836</v>
+        <v>756</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>517</v>
+        <v>851</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,25 +3911,25 @@
         <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>837</v>
+        <v>757</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>520</v>
+        <v>852</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3937,25 +3937,25 @@
         <v>39</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>838</v>
+        <v>758</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>524</v>
+        <v>853</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3963,25 +3963,25 @@
         <v>40</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>231</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>526</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3989,25 +3989,25 @@
         <v>42</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>839</v>
+        <v>759</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>531</v>
+        <v>855</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4015,25 +4015,25 @@
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>532</v>
+        <v>856</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>198</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>535</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4041,25 +4041,25 @@
         <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>456</v>
+        <v>836</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>841</v>
+        <v>761</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>538</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4070,22 +4070,22 @@
         <v>192</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>842</v>
+        <v>762</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>542</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,25 +4093,25 @@
         <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>833</v>
+        <v>753</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>545</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4119,25 +4119,25 @@
         <v>51</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>822</v>
+        <v>742</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>843</v>
+        <v>763</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>548</v>
+        <v>861</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4145,25 +4145,25 @@
         <v>53</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>827</v>
+        <v>747</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>844</v>
+        <v>764</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>552</v>
+        <v>862</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4171,25 +4171,25 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>832</v>
+        <v>752</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>556</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -4200,22 +4200,22 @@
         <v>192</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>831</v>
+        <v>751</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>560</v>
+        <v>864</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4223,25 +4223,25 @@
         <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>905</v>
+        <v>810</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>564</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4249,25 +4249,25 @@
         <v>62</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>567</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4275,25 +4275,25 @@
         <v>64</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>845</v>
+        <v>765</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>571</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4301,25 +4301,25 @@
         <v>65</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>575</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4327,25 +4327,25 @@
         <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>579</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4353,25 +4353,25 @@
         <v>67</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>579</v>
+        <v>869</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4379,25 +4379,25 @@
         <v>68</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>847</v>
+        <v>767</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>585</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4408,22 +4408,22 @@
         <v>192</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>848</v>
+        <v>768</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>589</v>
+        <v>871</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4431,25 +4431,25 @@
         <v>70</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>593</v>
+        <v>872</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4457,25 +4457,25 @@
         <v>72</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>736</v>
+        <v>656</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>597</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4483,25 +4483,25 @@
         <v>73</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>737</v>
+        <v>657</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>602</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4509,25 +4509,25 @@
         <v>74</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>738</v>
+        <v>658</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>606</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4535,25 +4535,25 @@
         <v>75</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>609</v>
+        <v>561</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>906</v>
+        <v>811</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>610</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4561,25 +4561,25 @@
         <v>76</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>614</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4587,25 +4587,25 @@
         <v>78</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>741</v>
+        <v>661</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>618</v>
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4613,25 +4613,25 @@
         <v>79</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>622</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4639,25 +4639,25 @@
         <v>80</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>627</v>
+        <v>880</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4665,25 +4665,25 @@
         <v>82</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>744</v>
+        <v>664</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>631</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4694,22 +4694,22 @@
         <v>192</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>632</v>
+        <v>578</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>633</v>
+        <v>579</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>745</v>
+        <v>665</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>635</v>
+        <v>882</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4717,25 +4717,25 @@
         <v>84</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>637</v>
+        <v>582</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>746</v>
+        <v>666</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>640</v>
+        <v>883</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4746,22 +4746,22 @@
         <v>192</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>747</v>
+        <v>667</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,22 +4772,22 @@
         <v>192</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>824</v>
+        <v>744</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>748</v>
+        <v>668</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>648</v>
+        <v>884</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,25 +4795,25 @@
         <v>89</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>898</v>
+        <v>808</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>749</v>
+        <v>669</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>907</v>
+        <v>812</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>651</v>
+        <v>885</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,22 +4824,22 @@
         <v>192</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>654</v>
+        <v>813</v>
+      </c>
+      <c r="H64" s="7">
+        <v>89890859131</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,25 +4847,25 @@
         <v>92</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>825</v>
+        <v>745</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>751</v>
+        <v>671</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>909</v>
+        <v>814</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>657</v>
+        <v>886</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4873,25 +4873,25 @@
         <v>93</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>752</v>
+        <v>672</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>910</v>
+        <v>815</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>660</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4899,25 +4899,25 @@
         <v>94</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>895</v>
+        <v>805</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>753</v>
+        <v>673</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>664</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,22 +4928,22 @@
         <v>192</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>807</v>
+        <v>727</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>668</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4951,25 +4951,25 @@
         <v>99</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>911</v>
+        <v>816</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>916</v>
+        <v>821</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>912</v>
+        <v>817</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>671</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4977,25 +4977,25 @@
         <v>100</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>911</v>
+        <v>816</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>917</v>
+        <v>822</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>672</v>
+        <v>609</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>673</v>
+        <v>610</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>913</v>
+        <v>818</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>674</v>
+        <v>890</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5003,25 +5003,25 @@
         <v>101</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>826</v>
+        <v>746</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>757</v>
-      </c>
       <c r="G71" s="5" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>679</v>
+        <v>891</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5029,25 +5029,25 @@
         <v>102</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>680</v>
+        <v>615</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>681</v>
+        <v>616</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>682</v>
+        <v>617</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>683</v>
+        <v>892</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5055,25 +5055,25 @@
         <v>103</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>685</v>
+        <v>619</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>686</v>
+        <v>620</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>687</v>
+        <v>893</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5081,25 +5081,25 @@
         <v>104</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>809</v>
+        <v>729</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>688</v>
+        <v>621</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>690</v>
+        <v>894</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5107,25 +5107,25 @@
         <v>105</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>810</v>
+        <v>730</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>913</v>
+        <v>818</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>693</v>
+        <v>895</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5133,25 +5133,25 @@
         <v>106</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>811</v>
+        <v>731</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>812</v>
+        <v>732</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>694</v>
+        <v>625</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>695</v>
+        <v>626</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>914</v>
+        <v>819</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>696</v>
+        <v>896</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5159,25 +5159,25 @@
         <v>107</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>811</v>
+        <v>731</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>914</v>
+        <v>819</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>698</v>
+        <v>897</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5185,25 +5185,25 @@
         <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>699</v>
+        <v>628</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>814</v>
+        <v>734</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>700</v>
+        <v>629</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>701</v>
+        <v>630</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>702</v>
+        <v>631</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>703</v>
+        <v>898</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5211,25 +5211,25 @@
         <v>109</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H79" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5237,25 +5237,25 @@
         <v>110</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>709</v>
+        <v>636</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>710</v>
+        <v>637</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>711</v>
+        <v>900</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5263,25 +5263,25 @@
         <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>713</v>
+        <v>639</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>715</v>
+        <v>901</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,22 +5292,22 @@
         <v>192</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>716</v>
+        <v>641</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>717</v>
+        <v>642</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>718</v>
+        <v>643</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>719</v>
+        <v>902</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5315,25 +5315,25 @@
         <v>114</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>720</v>
+        <v>644</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>721</v>
+        <v>645</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>722</v>
+        <v>646</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>723</v>
+        <v>903</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,25 +5341,25 @@
         <v>115</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>819</v>
+        <v>739</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>725</v>
+        <v>648</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>726</v>
+        <v>649</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>727</v>
+        <v>904</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,25 +5367,25 @@
         <v>116</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>416</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>728</v>
+        <v>650</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>771</v>
+        <v>691</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>706</v>
+        <v>634</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>729</v>
+        <v>905</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,25 +5393,25 @@
         <v>117</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>821</v>
+        <v>741</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>730</v>
+        <v>651</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>731</v>
+        <v>652</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>732</v>
+        <v>653</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>733</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5419,25 +5419,25 @@
         <v>1</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>849</v>
+        <v>769</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>852</v>
+        <v>772</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5445,25 +5445,25 @@
         <v>2</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>853</v>
+        <v>773</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>854</v>
+        <v>774</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>851</v>
+        <v>771</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>852</v>
+        <v>772</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5471,25 +5471,25 @@
         <v>3</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>855</v>
+        <v>775</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>856</v>
+        <v>776</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>857</v>
+        <v>777</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>858</v>
+        <v>778</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>859</v>
+        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,25 +5497,25 @@
         <v>4</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>860</v>
+        <v>779</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>861</v>
+        <v>780</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>858</v>
+        <v>778</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>862</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,25 +5523,25 @@
         <v>5</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>863</v>
+        <v>781</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>864</v>
+        <v>782</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>865</v>
+        <v>783</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>866</v>
+        <v>784</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5549,25 +5549,25 @@
         <v>6</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>868</v>
+        <v>785</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>869</v>
+        <v>786</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>870</v>
+        <v>787</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>871</v>
+        <v>788</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5575,25 +5575,25 @@
         <v>7</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>871</v>
+        <v>788</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5601,25 +5601,25 @@
         <v>8</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>877</v>
+        <v>792</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>878</v>
+        <v>793</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>871</v>
+        <v>788</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>880</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5627,48 +5627,48 @@
         <v>9</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>863</v>
+        <v>781</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>881</v>
+        <v>795</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>915</v>
+        <v>820</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>871</v>
+        <v>788</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>894</v>
+        <v>804</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>890</v>
+        <v>803</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>882</v>
+        <v>796</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>883</v>
+        <v>797</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>915</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,36 +5676,36 @@
         <v>10</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>884</v>
+        <v>798</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>885</v>
+        <v>799</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>886</v>
+        <v>800</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>887</v>
+        <v>801</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D98" t="s">
         <v>309</v>
@@ -5714,24 +5714,24 @@
         <v>325</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D99" t="s">
         <v>310</v>
@@ -5740,24 +5740,24 @@
         <v>326</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D100" t="s">
         <v>311</v>
@@ -5766,24 +5766,24 @@
         <v>327</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D101" t="s">
         <v>312</v>
@@ -5792,24 +5792,24 @@
         <v>328</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D102" t="s">
         <v>313</v>
@@ -5818,24 +5818,24 @@
         <v>329</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D103" t="s">
         <v>310</v>
@@ -5844,24 +5844,24 @@
         <v>330</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D104" t="s">
         <v>314</v>
@@ -5870,24 +5870,24 @@
         <v>331</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D105" t="s">
         <v>314</v>
@@ -5896,24 +5896,24 @@
         <v>332</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D106" t="s">
         <v>315</v>
@@ -5922,24 +5922,24 @@
         <v>333</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D107" t="s">
         <v>316</v>
@@ -5948,24 +5948,24 @@
         <v>334</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D108" t="s">
         <v>317</v>
@@ -5974,24 +5974,24 @@
         <v>335</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D109" t="s">
         <v>314</v>
@@ -6000,24 +6000,24 @@
         <v>336</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D110" t="s">
         <v>318</v>
@@ -6026,24 +6026,24 @@
         <v>337</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D111" t="s">
         <v>319</v>
@@ -6052,24 +6052,24 @@
         <v>338</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D112" t="s">
         <v>320</v>
@@ -6078,24 +6078,24 @@
         <v>339</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D113" t="s">
         <v>320</v>
@@ -6104,24 +6104,24 @@
         <v>340</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D114" t="s">
         <v>321</v>
@@ -6130,24 +6130,24 @@
         <v>341</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D115" t="s">
         <v>322</v>
@@ -6156,24 +6156,24 @@
         <v>342</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D116" t="s">
         <v>323</v>
@@ -6182,24 +6182,24 @@
         <v>343</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D117" t="s">
         <v>323</v>
@@ -6208,24 +6208,24 @@
         <v>344</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D118" t="s">
         <v>323</v>
@@ -6234,24 +6234,24 @@
         <v>345</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D119" t="s">
         <v>324</v>
@@ -6260,24 +6260,24 @@
         <v>346</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D120" t="s">
         <v>312</v>
@@ -6286,24 +6286,24 @@
         <v>369</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D121" t="s">
         <v>404</v>
@@ -6312,24 +6312,24 @@
         <v>370</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D122" t="s">
         <v>404</v>
@@ -6338,24 +6338,24 @@
         <v>371</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D123" t="s">
         <v>314</v>
@@ -6364,24 +6364,24 @@
         <v>372</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D124" t="s">
         <v>404</v>
@@ -6390,24 +6390,24 @@
         <v>373</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D125" t="s">
         <v>404</v>
@@ -6416,24 +6416,24 @@
         <v>374</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D126" t="s">
         <v>405</v>
@@ -6442,24 +6442,24 @@
         <v>375</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D127" t="s">
         <v>350</v>
@@ -6468,24 +6468,24 @@
         <v>376</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D128" t="s">
         <v>350</v>
@@ -6494,24 +6494,24 @@
         <v>377</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D129" t="s">
         <v>350</v>
@@ -6520,24 +6520,24 @@
         <v>378</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D130" t="s">
         <v>350</v>
@@ -6546,24 +6546,24 @@
         <v>379</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D131" t="s">
         <v>351</v>
@@ -6572,24 +6572,24 @@
         <v>380</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D132" t="s">
         <v>352</v>
@@ -6598,24 +6598,24 @@
         <v>381</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D133" t="s">
         <v>353</v>
@@ -6624,24 +6624,24 @@
         <v>382</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D134" t="s">
         <v>354</v>
@@ -6650,24 +6650,24 @@
         <v>383</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D135" t="s">
         <v>355</v>
@@ -6676,24 +6676,24 @@
         <v>384</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D136" t="s">
         <v>356</v>
@@ -6702,24 +6702,24 @@
         <v>385</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D137" t="s">
         <v>357</v>
@@ -6728,24 +6728,24 @@
         <v>386</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D138" t="s">
         <v>358</v>
@@ -6754,24 +6754,24 @@
         <v>387</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D139" t="s">
         <v>359</v>
@@ -6780,24 +6780,24 @@
         <v>388</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D140" t="s">
         <v>351</v>
@@ -6806,24 +6806,24 @@
         <v>389</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D141" t="s">
         <v>360</v>
@@ -6832,24 +6832,24 @@
         <v>390</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D142" t="s">
         <v>361</v>
@@ -6858,24 +6858,24 @@
         <v>391</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D143" t="s">
         <v>362</v>
@@ -6884,24 +6884,24 @@
         <v>392</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D144" t="s">
         <v>349</v>
@@ -6910,24 +6910,24 @@
         <v>393</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D145" t="s">
         <v>363</v>
@@ -6936,24 +6936,24 @@
         <v>394</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D146" t="s">
         <v>361</v>
@@ -6962,24 +6962,24 @@
         <v>395</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D147" t="s">
         <v>364</v>
@@ -6988,24 +6988,24 @@
         <v>396</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D148" t="s">
         <v>355</v>
@@ -7014,24 +7014,24 @@
         <v>397</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D149" t="s">
         <v>363</v>
@@ -7040,24 +7040,24 @@
         <v>398</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D150" t="s">
         <v>365</v>
@@ -7066,24 +7066,24 @@
         <v>399</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D151" t="s">
         <v>366</v>
@@ -7092,24 +7092,24 @@
         <v>400</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D152" t="s">
         <v>367</v>
@@ -7118,24 +7118,24 @@
         <v>401</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D153" t="s">
         <v>368</v>
@@ -7144,24 +7144,24 @@
         <v>402</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="D154" t="s">
         <v>348</v>
@@ -7170,13 +7170,13 @@
         <v>403</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
